--- a/raw_data/20200818_saline/20200818_Sensor1_Test_1.xlsx
+++ b/raw_data/20200818_saline/20200818_Sensor1_Test_1.xlsx
@@ -1,4573 +1,4989 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <workbookPr date1904="true"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24430"/>
+  <workbookPr date1904="1" defaultThemeVersion="166925"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\Dropbox (GaTech)\Lab files\code\Impedance_fit\raw_data\20200818_saline\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E1342D6A-E616-42A3-8B6A-636344E7E1C4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <bookViews>
+    <workbookView xWindow="2240" yWindow="2240" windowWidth="28800" windowHeight="15460" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+  </bookViews>
   <sheets>
     <sheet name="sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
+  <calcPr calcId="0"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <si>
-    <t>Inf</t>
-  </si>
-  <si>
-    <t>-Inf</t>
-  </si>
-  <si>
-    <t>#NV</t>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="85" uniqueCount="85">
+  <si>
+    <t>Untitled</t>
+  </si>
+  <si>
+    <t>Untitled 1</t>
+  </si>
+  <si>
+    <t>Untitled 2</t>
+  </si>
+  <si>
+    <t>Untitled 3</t>
+  </si>
+  <si>
+    <t>Untitled 4</t>
+  </si>
+  <si>
+    <t>Untitled 5</t>
+  </si>
+  <si>
+    <t>Untitled 6</t>
+  </si>
+  <si>
+    <t>Untitled 7</t>
+  </si>
+  <si>
+    <t>Untitled 8</t>
+  </si>
+  <si>
+    <t>Untitled 9</t>
+  </si>
+  <si>
+    <t>Untitled 10</t>
+  </si>
+  <si>
+    <t>Untitled 11</t>
+  </si>
+  <si>
+    <t>Untitled 12</t>
+  </si>
+  <si>
+    <t>Untitled 13</t>
+  </si>
+  <si>
+    <t>Untitled 14</t>
+  </si>
+  <si>
+    <t>Untitled 15</t>
+  </si>
+  <si>
+    <t>Untitled 16</t>
+  </si>
+  <si>
+    <t>Untitled 17</t>
+  </si>
+  <si>
+    <t>Untitled 18</t>
+  </si>
+  <si>
+    <t>Untitled 19</t>
+  </si>
+  <si>
+    <t>Untitled 20</t>
+  </si>
+  <si>
+    <t>Untitled 21</t>
+  </si>
+  <si>
+    <t>Untitled 22</t>
+  </si>
+  <si>
+    <t>Untitled 23</t>
+  </si>
+  <si>
+    <t>Untitled 24</t>
+  </si>
+  <si>
+    <t>Untitled 25</t>
+  </si>
+  <si>
+    <t>Untitled 26</t>
+  </si>
+  <si>
+    <t>Untitled 27</t>
+  </si>
+  <si>
+    <t>Untitled 28</t>
+  </si>
+  <si>
+    <t>Untitled 29</t>
+  </si>
+  <si>
+    <t>Untitled 30</t>
+  </si>
+  <si>
+    <t>Untitled 31</t>
+  </si>
+  <si>
+    <t>Untitled 32</t>
+  </si>
+  <si>
+    <t>Untitled 33</t>
+  </si>
+  <si>
+    <t>Untitled 34</t>
+  </si>
+  <si>
+    <t>Untitled 35</t>
+  </si>
+  <si>
+    <t>Untitled 36</t>
+  </si>
+  <si>
+    <t>Untitled 37</t>
+  </si>
+  <si>
+    <t>Untitled 38</t>
+  </si>
+  <si>
+    <t>Untitled 39</t>
+  </si>
+  <si>
+    <t>Untitled 40</t>
+  </si>
+  <si>
+    <t>Untitled 41</t>
+  </si>
+  <si>
+    <t>Untitled 42</t>
+  </si>
+  <si>
+    <t>Untitled 43</t>
+  </si>
+  <si>
+    <t>Untitled 44</t>
+  </si>
+  <si>
+    <t>Untitled 45</t>
+  </si>
+  <si>
+    <t>Untitled 46</t>
+  </si>
+  <si>
+    <t>Untitled 47</t>
+  </si>
+  <si>
+    <t>Untitled 48</t>
+  </si>
+  <si>
+    <t>Untitled 49</t>
+  </si>
+  <si>
+    <t>Untitled 50</t>
+  </si>
+  <si>
+    <t>Untitled 51</t>
+  </si>
+  <si>
+    <t>Untitled 52</t>
+  </si>
+  <si>
+    <t>Untitled 53</t>
+  </si>
+  <si>
+    <t>Untitled 54</t>
+  </si>
+  <si>
+    <t>Untitled 55</t>
+  </si>
+  <si>
+    <t>Untitled 56</t>
+  </si>
+  <si>
+    <t>Untitled 57</t>
+  </si>
+  <si>
+    <t>Untitled 58</t>
+  </si>
+  <si>
+    <t>Untitled 59</t>
+  </si>
+  <si>
+    <t>Untitled 60</t>
+  </si>
+  <si>
+    <t>Untitled 61</t>
+  </si>
+  <si>
+    <t>Untitled 62</t>
+  </si>
+  <si>
+    <t>Untitled 63</t>
+  </si>
+  <si>
+    <t>Untitled 64</t>
+  </si>
+  <si>
+    <t>Untitled 65</t>
+  </si>
+  <si>
+    <t>Untitled 66</t>
+  </si>
+  <si>
+    <t>Untitled 67</t>
+  </si>
+  <si>
+    <t>Untitled 68</t>
+  </si>
+  <si>
+    <t>Untitled 69</t>
+  </si>
+  <si>
+    <t>Untitled 70</t>
+  </si>
+  <si>
+    <t>Untitled 71</t>
+  </si>
+  <si>
+    <t>Untitled 72</t>
+  </si>
+  <si>
+    <t>Untitled 73</t>
+  </si>
+  <si>
+    <t>Untitled 74</t>
+  </si>
+  <si>
+    <t>Untitled 75</t>
+  </si>
+  <si>
+    <t>Untitled 76</t>
+  </si>
+  <si>
+    <t>Untitled 77</t>
+  </si>
+  <si>
+    <t>Untitled 78</t>
+  </si>
+  <si>
+    <t>Untitled 79</t>
+  </si>
+  <si>
+    <t>Untitled 80</t>
+  </si>
+  <si>
+    <t>Untitled 81</t>
+  </si>
+  <si>
+    <t>Untitled 82</t>
+  </si>
+  <si>
+    <t>Untitled 83</t>
+  </si>
+  <si>
+    <t>Untitled 84</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <numFmts count="0"> </numFmts>
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <fonts count="1">
-    <font/>
+    <font>
+      <sz val="11"/>
+      <name val="Calibri"/>
+    </font>
   </fonts>
-  <fills count="1">
-    <fill/>
+  <fills count="2">
+    <fill>
+      <patternFill patternType="none"/>
+    </fill>
+    <fill>
+      <patternFill patternType="gray125"/>
+    </fill>
   </fills>
   <borders count="1">
-    <border/>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
   </borders>
+  <cellStyleXfs count="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+  </cellStyleXfs>
   <cellXfs count="2">
-    <xf numFmtId="0"/>
-    <xf numFmtId="0" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
   </cellXfs>
+  <cellStyles count="1">
+    <cellStyle name="Normal" xfId="0" builtinId="0"/>
+  </cellStyles>
+  <dxfs count="0"/>
+  <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
+      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
+    </ext>
+  </extLst>
 </styleSheet>
 </file>
 
+<file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
+  <a:themeElements>
+    <a:clrScheme name="Office">
+      <a:dk1>
+        <a:sysClr val="windowText" lastClr="000000"/>
+      </a:dk1>
+      <a:lt1>
+        <a:sysClr val="window" lastClr="FFFFFF"/>
+      </a:lt1>
+      <a:dk2>
+        <a:srgbClr val="44546A"/>
+      </a:dk2>
+      <a:lt2>
+        <a:srgbClr val="E7E6E6"/>
+      </a:lt2>
+      <a:accent1>
+        <a:srgbClr val="4472C4"/>
+      </a:accent1>
+      <a:accent2>
+        <a:srgbClr val="ED7D31"/>
+      </a:accent2>
+      <a:accent3>
+        <a:srgbClr val="A5A5A5"/>
+      </a:accent3>
+      <a:accent4>
+        <a:srgbClr val="FFC000"/>
+      </a:accent4>
+      <a:accent5>
+        <a:srgbClr val="5B9BD5"/>
+      </a:accent5>
+      <a:accent6>
+        <a:srgbClr val="70AD47"/>
+      </a:accent6>
+      <a:hlink>
+        <a:srgbClr val="0563C1"/>
+      </a:hlink>
+      <a:folHlink>
+        <a:srgbClr val="954F72"/>
+      </a:folHlink>
+    </a:clrScheme>
+    <a:fontScheme name="Office">
+      <a:majorFont>
+        <a:latin typeface="Calibri Light" panose="020F0302020204030204"/>
+        <a:ea typeface=""/>
+        <a:cs typeface=""/>
+        <a:font script="Jpan" typeface="游ゴシック Light"/>
+        <a:font script="Hang" typeface="맑은 고딕"/>
+        <a:font script="Hans" typeface="等线 Light"/>
+        <a:font script="Hant" typeface="新細明體"/>
+        <a:font script="Arab" typeface="Times New Roman"/>
+        <a:font script="Hebr" typeface="Times New Roman"/>
+        <a:font script="Thai" typeface="Tahoma"/>
+        <a:font script="Ethi" typeface="Nyala"/>
+        <a:font script="Beng" typeface="Vrinda"/>
+        <a:font script="Gujr" typeface="Shruti"/>
+        <a:font script="Khmr" typeface="MoolBoran"/>
+        <a:font script="Knda" typeface="Tunga"/>
+        <a:font script="Guru" typeface="Raavi"/>
+        <a:font script="Cans" typeface="Euphemia"/>
+        <a:font script="Cher" typeface="Plantagenet Cherokee"/>
+        <a:font script="Yiii" typeface="Microsoft Yi Baiti"/>
+        <a:font script="Tibt" typeface="Microsoft Himalaya"/>
+        <a:font script="Thaa" typeface="MV Boli"/>
+        <a:font script="Deva" typeface="Mangal"/>
+        <a:font script="Telu" typeface="Gautami"/>
+        <a:font script="Taml" typeface="Latha"/>
+        <a:font script="Syrc" typeface="Estrangelo Edessa"/>
+        <a:font script="Orya" typeface="Kalinga"/>
+        <a:font script="Mlym" typeface="Kartika"/>
+        <a:font script="Laoo" typeface="DokChampa"/>
+        <a:font script="Sinh" typeface="Iskoola Pota"/>
+        <a:font script="Mong" typeface="Mongolian Baiti"/>
+        <a:font script="Viet" typeface="Times New Roman"/>
+        <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
+      </a:majorFont>
+      <a:minorFont>
+        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
+        <a:ea typeface=""/>
+        <a:cs typeface=""/>
+        <a:font script="Jpan" typeface="游ゴシック"/>
+        <a:font script="Hang" typeface="맑은 고딕"/>
+        <a:font script="Hans" typeface="等线"/>
+        <a:font script="Hant" typeface="新細明體"/>
+        <a:font script="Arab" typeface="Arial"/>
+        <a:font script="Hebr" typeface="Arial"/>
+        <a:font script="Thai" typeface="Tahoma"/>
+        <a:font script="Ethi" typeface="Nyala"/>
+        <a:font script="Beng" typeface="Vrinda"/>
+        <a:font script="Gujr" typeface="Shruti"/>
+        <a:font script="Khmr" typeface="DaunPenh"/>
+        <a:font script="Knda" typeface="Tunga"/>
+        <a:font script="Guru" typeface="Raavi"/>
+        <a:font script="Cans" typeface="Euphemia"/>
+        <a:font script="Cher" typeface="Plantagenet Cherokee"/>
+        <a:font script="Yiii" typeface="Microsoft Yi Baiti"/>
+        <a:font script="Tibt" typeface="Microsoft Himalaya"/>
+        <a:font script="Thaa" typeface="MV Boli"/>
+        <a:font script="Deva" typeface="Mangal"/>
+        <a:font script="Telu" typeface="Gautami"/>
+        <a:font script="Taml" typeface="Latha"/>
+        <a:font script="Syrc" typeface="Estrangelo Edessa"/>
+        <a:font script="Orya" typeface="Kalinga"/>
+        <a:font script="Mlym" typeface="Kartika"/>
+        <a:font script="Laoo" typeface="DokChampa"/>
+        <a:font script="Sinh" typeface="Iskoola Pota"/>
+        <a:font script="Mong" typeface="Mongolian Baiti"/>
+        <a:font script="Viet" typeface="Arial"/>
+        <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
+      </a:minorFont>
+    </a:fontScheme>
+    <a:fmtScheme name="Office">
+      <a:fillStyleLst>
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:gradFill rotWithShape="1">
+          <a:gsLst>
+            <a:gs pos="0">
+              <a:schemeClr val="phClr">
+                <a:lumMod val="110000"/>
+                <a:satMod val="105000"/>
+                <a:tint val="67000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="50000">
+              <a:schemeClr val="phClr">
+                <a:lumMod val="105000"/>
+                <a:satMod val="103000"/>
+                <a:tint val="73000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="100000">
+              <a:schemeClr val="phClr">
+                <a:lumMod val="105000"/>
+                <a:satMod val="109000"/>
+                <a:tint val="81000"/>
+              </a:schemeClr>
+            </a:gs>
+          </a:gsLst>
+          <a:lin ang="5400000" scaled="0"/>
+        </a:gradFill>
+        <a:gradFill rotWithShape="1">
+          <a:gsLst>
+            <a:gs pos="0">
+              <a:schemeClr val="phClr">
+                <a:satMod val="103000"/>
+                <a:lumMod val="102000"/>
+                <a:tint val="94000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="50000">
+              <a:schemeClr val="phClr">
+                <a:satMod val="110000"/>
+                <a:lumMod val="100000"/>
+                <a:shade val="100000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="100000">
+              <a:schemeClr val="phClr">
+                <a:lumMod val="99000"/>
+                <a:satMod val="120000"/>
+                <a:shade val="78000"/>
+              </a:schemeClr>
+            </a:gs>
+          </a:gsLst>
+          <a:lin ang="5400000" scaled="0"/>
+        </a:gradFill>
+      </a:fillStyleLst>
+      <a:lnStyleLst>
+        <a:ln w="6350" cap="flat" cmpd="sng" algn="ctr">
+          <a:solidFill>
+            <a:schemeClr val="phClr"/>
+          </a:solidFill>
+          <a:prstDash val="solid"/>
+          <a:miter lim="800000"/>
+        </a:ln>
+        <a:ln w="12700" cap="flat" cmpd="sng" algn="ctr">
+          <a:solidFill>
+            <a:schemeClr val="phClr"/>
+          </a:solidFill>
+          <a:prstDash val="solid"/>
+          <a:miter lim="800000"/>
+        </a:ln>
+        <a:ln w="19050" cap="flat" cmpd="sng" algn="ctr">
+          <a:solidFill>
+            <a:schemeClr val="phClr"/>
+          </a:solidFill>
+          <a:prstDash val="solid"/>
+          <a:miter lim="800000"/>
+        </a:ln>
+      </a:lnStyleLst>
+      <a:effectStyleLst>
+        <a:effectStyle>
+          <a:effectLst/>
+        </a:effectStyle>
+        <a:effectStyle>
+          <a:effectLst/>
+        </a:effectStyle>
+        <a:effectStyle>
+          <a:effectLst>
+            <a:outerShdw blurRad="57150" dist="19050" dir="5400000" algn="ctr" rotWithShape="0">
+              <a:srgbClr val="000000">
+                <a:alpha val="63000"/>
+              </a:srgbClr>
+            </a:outerShdw>
+          </a:effectLst>
+        </a:effectStyle>
+      </a:effectStyleLst>
+      <a:bgFillStyleLst>
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:solidFill>
+          <a:schemeClr val="phClr">
+            <a:tint val="95000"/>
+            <a:satMod val="170000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:gradFill rotWithShape="1">
+          <a:gsLst>
+            <a:gs pos="0">
+              <a:schemeClr val="phClr">
+                <a:tint val="93000"/>
+                <a:satMod val="150000"/>
+                <a:shade val="98000"/>
+                <a:lumMod val="102000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="50000">
+              <a:schemeClr val="phClr">
+                <a:tint val="98000"/>
+                <a:satMod val="130000"/>
+                <a:shade val="90000"/>
+                <a:lumMod val="103000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="100000">
+              <a:schemeClr val="phClr">
+                <a:shade val="63000"/>
+                <a:satMod val="120000"/>
+              </a:schemeClr>
+            </a:gs>
+          </a:gsLst>
+          <a:lin ang="5400000" scaled="0"/>
+        </a:gradFill>
+      </a:bgFillStyleLst>
+    </a:fmtScheme>
+  </a:themeElements>
+  <a:objectDefaults/>
+  <a:extraClrSchemeLst/>
+  <a:extLst>
+    <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+    </a:ext>
+  </a:extLst>
+</a:theme>
+</file>
+
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+  <dimension ref="A1:CG26"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.5"/>
   <sheetData>
-    <row r="1">
-      <c r="A1" t="inlineStr">
-        <is>
-          <t>Untitled</t>
-        </is>
-      </c>
-      <c r="B1" t="inlineStr">
-        <is>
-          <t>Untitled 1</t>
-        </is>
-      </c>
-      <c r="C1" t="inlineStr">
-        <is>
-          <t>Untitled 2</t>
-        </is>
-      </c>
-      <c r="D1" t="inlineStr">
-        <is>
-          <t>Untitled 3</t>
-        </is>
-      </c>
-      <c r="E1" t="inlineStr">
-        <is>
-          <t>Untitled 4</t>
-        </is>
-      </c>
-      <c r="F1" t="inlineStr">
-        <is>
-          <t>Untitled 5</t>
-        </is>
-      </c>
-      <c r="G1" t="inlineStr">
-        <is>
-          <t>Untitled 6</t>
-        </is>
-      </c>
-      <c r="H1" t="inlineStr">
-        <is>
-          <t>Untitled 7</t>
-        </is>
-      </c>
-      <c r="I1" t="inlineStr">
-        <is>
-          <t>Untitled 8</t>
-        </is>
-      </c>
-      <c r="J1" t="inlineStr">
-        <is>
-          <t>Untitled 9</t>
-        </is>
-      </c>
-      <c r="K1" t="inlineStr">
-        <is>
-          <t>Untitled 10</t>
-        </is>
-      </c>
-      <c r="L1" t="inlineStr">
-        <is>
-          <t>Untitled 11</t>
-        </is>
-      </c>
-      <c r="M1" t="inlineStr">
-        <is>
-          <t>Untitled 12</t>
-        </is>
-      </c>
-      <c r="N1" t="inlineStr">
-        <is>
-          <t>Untitled 13</t>
-        </is>
-      </c>
-      <c r="O1" t="inlineStr">
-        <is>
-          <t>Untitled 14</t>
-        </is>
-      </c>
-      <c r="P1" t="inlineStr">
-        <is>
-          <t>Untitled 15</t>
-        </is>
-      </c>
-      <c r="Q1" t="inlineStr">
-        <is>
-          <t>Untitled 16</t>
-        </is>
-      </c>
-      <c r="R1" t="inlineStr">
-        <is>
-          <t>Untitled 17</t>
-        </is>
-      </c>
-      <c r="S1" t="inlineStr">
-        <is>
-          <t>Untitled 18</t>
-        </is>
-      </c>
-      <c r="T1" t="inlineStr">
-        <is>
-          <t>Untitled 19</t>
-        </is>
-      </c>
-      <c r="U1" t="inlineStr">
-        <is>
-          <t>Untitled 20</t>
-        </is>
-      </c>
-      <c r="V1" t="inlineStr">
-        <is>
-          <t>Untitled 21</t>
-        </is>
-      </c>
-      <c r="W1" t="inlineStr">
-        <is>
-          <t>Untitled 22</t>
-        </is>
-      </c>
-      <c r="X1" t="inlineStr">
-        <is>
-          <t>Untitled 23</t>
-        </is>
-      </c>
-      <c r="Y1" t="inlineStr">
-        <is>
-          <t>Untitled 24</t>
-        </is>
-      </c>
-      <c r="Z1" t="inlineStr">
-        <is>
-          <t>Untitled 25</t>
-        </is>
-      </c>
-      <c r="AA1" t="inlineStr">
-        <is>
-          <t>Untitled 26</t>
-        </is>
-      </c>
-      <c r="AB1" t="inlineStr">
-        <is>
-          <t>Untitled 27</t>
-        </is>
-      </c>
-      <c r="AC1" t="inlineStr">
-        <is>
-          <t>Untitled 28</t>
-        </is>
-      </c>
-      <c r="AD1" t="inlineStr">
-        <is>
-          <t>Untitled 29</t>
-        </is>
-      </c>
-      <c r="AE1" t="inlineStr">
-        <is>
-          <t>Untitled 30</t>
-        </is>
-      </c>
-      <c r="AF1" t="inlineStr">
-        <is>
-          <t>Untitled 31</t>
-        </is>
-      </c>
-      <c r="AG1" t="inlineStr">
-        <is>
-          <t>Untitled 32</t>
-        </is>
-      </c>
-      <c r="AH1" t="inlineStr">
-        <is>
-          <t>Untitled 33</t>
-        </is>
-      </c>
-      <c r="AI1" t="inlineStr">
-        <is>
-          <t>Untitled 34</t>
-        </is>
-      </c>
-      <c r="AJ1" t="inlineStr">
-        <is>
-          <t>Untitled 35</t>
-        </is>
-      </c>
-      <c r="AK1" t="inlineStr">
-        <is>
-          <t>Untitled 36</t>
-        </is>
-      </c>
-      <c r="AL1" t="inlineStr">
-        <is>
-          <t>Untitled 37</t>
-        </is>
-      </c>
-      <c r="AM1" t="inlineStr">
-        <is>
-          <t>Untitled 38</t>
-        </is>
-      </c>
-      <c r="AN1" t="inlineStr">
-        <is>
-          <t>Untitled 39</t>
-        </is>
-      </c>
-      <c r="AO1" t="inlineStr">
-        <is>
-          <t>Untitled 40</t>
-        </is>
-      </c>
-      <c r="AP1" t="inlineStr">
-        <is>
-          <t>Untitled 41</t>
-        </is>
-      </c>
-      <c r="AQ1" t="inlineStr">
-        <is>
-          <t>Untitled 42</t>
-        </is>
-      </c>
-      <c r="AR1" t="inlineStr">
-        <is>
-          <t>Untitled 43</t>
-        </is>
-      </c>
-      <c r="AS1" t="inlineStr">
-        <is>
-          <t>Untitled 44</t>
-        </is>
-      </c>
-      <c r="AT1" t="inlineStr">
-        <is>
-          <t>Untitled 45</t>
-        </is>
-      </c>
-      <c r="AU1" t="inlineStr">
-        <is>
-          <t>Untitled 46</t>
-        </is>
-      </c>
-      <c r="AV1" t="inlineStr">
-        <is>
-          <t>Untitled 47</t>
-        </is>
-      </c>
-      <c r="AW1" t="inlineStr">
-        <is>
-          <t>Untitled 48</t>
-        </is>
-      </c>
-      <c r="AX1" t="inlineStr">
-        <is>
-          <t>Untitled 49</t>
-        </is>
-      </c>
-      <c r="AY1" t="inlineStr">
-        <is>
-          <t>Untitled 50</t>
-        </is>
-      </c>
-      <c r="AZ1" t="inlineStr">
-        <is>
-          <t>Untitled 51</t>
-        </is>
-      </c>
-      <c r="BA1" t="inlineStr">
-        <is>
-          <t>Untitled 52</t>
-        </is>
-      </c>
-      <c r="BB1" t="inlineStr">
-        <is>
-          <t>Untitled 53</t>
-        </is>
-      </c>
-      <c r="BC1" t="inlineStr">
-        <is>
-          <t>Untitled 54</t>
-        </is>
-      </c>
-      <c r="BD1" t="inlineStr">
-        <is>
-          <t>Untitled 55</t>
-        </is>
-      </c>
-      <c r="BE1" t="inlineStr">
-        <is>
-          <t>Untitled 56</t>
-        </is>
-      </c>
-      <c r="BF1" t="inlineStr">
-        <is>
-          <t>Untitled 57</t>
-        </is>
-      </c>
-      <c r="BG1" t="inlineStr">
-        <is>
-          <t>Untitled 58</t>
-        </is>
-      </c>
-      <c r="BH1" t="inlineStr">
-        <is>
-          <t>Untitled 59</t>
-        </is>
-      </c>
-      <c r="BI1" t="inlineStr">
-        <is>
-          <t>Untitled 60</t>
-        </is>
-      </c>
-      <c r="BJ1" t="inlineStr">
-        <is>
-          <t>Untitled 61</t>
-        </is>
-      </c>
-      <c r="BK1" t="inlineStr">
-        <is>
-          <t>Untitled 62</t>
-        </is>
-      </c>
-      <c r="BL1" t="inlineStr">
-        <is>
-          <t>Untitled 63</t>
-        </is>
-      </c>
-      <c r="BM1" t="inlineStr">
-        <is>
-          <t>Untitled 64</t>
-        </is>
-      </c>
-      <c r="BN1" t="inlineStr">
-        <is>
-          <t>Untitled 65</t>
-        </is>
-      </c>
-      <c r="BO1" t="inlineStr">
-        <is>
-          <t>Untitled 66</t>
-        </is>
-      </c>
-      <c r="BP1" t="inlineStr">
-        <is>
-          <t>Untitled 67</t>
-        </is>
-      </c>
-      <c r="BQ1" t="inlineStr">
-        <is>
-          <t>Untitled 68</t>
-        </is>
-      </c>
-      <c r="BR1" t="inlineStr">
-        <is>
-          <t>Untitled 69</t>
-        </is>
-      </c>
-      <c r="BS1" t="inlineStr">
-        <is>
-          <t>Untitled 70</t>
-        </is>
-      </c>
-      <c r="BT1" t="inlineStr">
-        <is>
-          <t>Untitled 71</t>
-        </is>
-      </c>
-      <c r="BU1" t="inlineStr">
-        <is>
-          <t>Untitled 72</t>
-        </is>
-      </c>
-      <c r="BV1" t="inlineStr">
-        <is>
-          <t>Untitled 73</t>
-        </is>
-      </c>
-      <c r="BW1" t="inlineStr">
-        <is>
-          <t>Untitled 74</t>
-        </is>
-      </c>
-      <c r="BX1" t="inlineStr">
-        <is>
-          <t>Untitled 75</t>
-        </is>
-      </c>
-      <c r="BY1" t="inlineStr">
-        <is>
-          <t>Untitled 76</t>
-        </is>
-      </c>
-      <c r="BZ1" t="inlineStr">
-        <is>
-          <t>Untitled 77</t>
-        </is>
-      </c>
-      <c r="CA1" t="inlineStr">
-        <is>
-          <t>Untitled 78</t>
-        </is>
-      </c>
-      <c r="CB1" t="inlineStr">
-        <is>
-          <t>Untitled 79</t>
-        </is>
-      </c>
-      <c r="CC1" t="inlineStr">
-        <is>
-          <t>Untitled 80</t>
-        </is>
-      </c>
-      <c r="CD1" t="inlineStr">
-        <is>
-          <t>Untitled 81</t>
-        </is>
-      </c>
-      <c r="CE1" t="inlineStr">
-        <is>
-          <t>Untitled 82</t>
-        </is>
-      </c>
-      <c r="CF1" t="inlineStr">
-        <is>
-          <t>Untitled 83</t>
-        </is>
-      </c>
-      <c r="CG1" t="inlineStr">
-        <is>
-          <t>Untitled 84</t>
-        </is>
+    <row r="1" spans="1:85">
+      <c r="A1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" t="s">
+        <v>3</v>
+      </c>
+      <c r="E1" t="s">
+        <v>4</v>
+      </c>
+      <c r="F1" t="s">
+        <v>5</v>
+      </c>
+      <c r="G1" t="s">
+        <v>6</v>
+      </c>
+      <c r="H1" t="s">
+        <v>7</v>
+      </c>
+      <c r="I1" t="s">
+        <v>8</v>
+      </c>
+      <c r="J1" t="s">
+        <v>9</v>
+      </c>
+      <c r="K1" t="s">
+        <v>10</v>
+      </c>
+      <c r="L1" t="s">
+        <v>11</v>
+      </c>
+      <c r="M1" t="s">
+        <v>12</v>
+      </c>
+      <c r="N1" t="s">
+        <v>13</v>
+      </c>
+      <c r="O1" t="s">
+        <v>14</v>
+      </c>
+      <c r="P1" t="s">
+        <v>15</v>
+      </c>
+      <c r="Q1" t="s">
+        <v>16</v>
+      </c>
+      <c r="R1" t="s">
+        <v>17</v>
+      </c>
+      <c r="S1" t="s">
+        <v>18</v>
+      </c>
+      <c r="T1" t="s">
+        <v>19</v>
+      </c>
+      <c r="U1" t="s">
+        <v>20</v>
+      </c>
+      <c r="V1" t="s">
+        <v>21</v>
+      </c>
+      <c r="W1" t="s">
+        <v>22</v>
+      </c>
+      <c r="X1" t="s">
+        <v>23</v>
+      </c>
+      <c r="Y1" t="s">
+        <v>24</v>
+      </c>
+      <c r="Z1" t="s">
+        <v>25</v>
+      </c>
+      <c r="AA1" t="s">
+        <v>26</v>
+      </c>
+      <c r="AB1" t="s">
+        <v>27</v>
+      </c>
+      <c r="AC1" t="s">
+        <v>28</v>
+      </c>
+      <c r="AD1" t="s">
+        <v>29</v>
+      </c>
+      <c r="AE1" t="s">
+        <v>30</v>
+      </c>
+      <c r="AF1" t="s">
+        <v>31</v>
+      </c>
+      <c r="AG1" t="s">
+        <v>32</v>
+      </c>
+      <c r="AH1" t="s">
+        <v>33</v>
+      </c>
+      <c r="AI1" t="s">
+        <v>34</v>
+      </c>
+      <c r="AJ1" t="s">
+        <v>35</v>
+      </c>
+      <c r="AK1" t="s">
+        <v>36</v>
+      </c>
+      <c r="AL1" t="s">
+        <v>37</v>
+      </c>
+      <c r="AM1" t="s">
+        <v>38</v>
+      </c>
+      <c r="AN1" t="s">
+        <v>39</v>
+      </c>
+      <c r="AO1" t="s">
+        <v>40</v>
+      </c>
+      <c r="AP1" t="s">
+        <v>41</v>
+      </c>
+      <c r="AQ1" t="s">
+        <v>42</v>
+      </c>
+      <c r="AR1" t="s">
+        <v>43</v>
+      </c>
+      <c r="AS1" t="s">
+        <v>44</v>
+      </c>
+      <c r="AT1" t="s">
+        <v>45</v>
+      </c>
+      <c r="AU1" t="s">
+        <v>46</v>
+      </c>
+      <c r="AV1" t="s">
+        <v>47</v>
+      </c>
+      <c r="AW1" t="s">
+        <v>48</v>
+      </c>
+      <c r="AX1" t="s">
+        <v>49</v>
+      </c>
+      <c r="AY1" t="s">
+        <v>50</v>
+      </c>
+      <c r="AZ1" t="s">
+        <v>51</v>
+      </c>
+      <c r="BA1" t="s">
+        <v>52</v>
+      </c>
+      <c r="BB1" t="s">
+        <v>53</v>
+      </c>
+      <c r="BC1" t="s">
+        <v>54</v>
+      </c>
+      <c r="BD1" t="s">
+        <v>55</v>
+      </c>
+      <c r="BE1" t="s">
+        <v>56</v>
+      </c>
+      <c r="BF1" t="s">
+        <v>57</v>
+      </c>
+      <c r="BG1" t="s">
+        <v>58</v>
+      </c>
+      <c r="BH1" t="s">
+        <v>59</v>
+      </c>
+      <c r="BI1" t="s">
+        <v>60</v>
+      </c>
+      <c r="BJ1" t="s">
+        <v>61</v>
+      </c>
+      <c r="BK1" t="s">
+        <v>62</v>
+      </c>
+      <c r="BL1" t="s">
+        <v>63</v>
+      </c>
+      <c r="BM1" t="s">
+        <v>64</v>
+      </c>
+      <c r="BN1" t="s">
+        <v>65</v>
+      </c>
+      <c r="BO1" t="s">
+        <v>66</v>
+      </c>
+      <c r="BP1" t="s">
+        <v>67</v>
+      </c>
+      <c r="BQ1" t="s">
+        <v>68</v>
+      </c>
+      <c r="BR1" t="s">
+        <v>69</v>
+      </c>
+      <c r="BS1" t="s">
+        <v>70</v>
+      </c>
+      <c r="BT1" t="s">
+        <v>71</v>
+      </c>
+      <c r="BU1" t="s">
+        <v>72</v>
+      </c>
+      <c r="BV1" t="s">
+        <v>73</v>
+      </c>
+      <c r="BW1" t="s">
+        <v>74</v>
+      </c>
+      <c r="BX1" t="s">
+        <v>75</v>
+      </c>
+      <c r="BY1" t="s">
+        <v>76</v>
+      </c>
+      <c r="BZ1" t="s">
+        <v>77</v>
+      </c>
+      <c r="CA1" t="s">
+        <v>78</v>
+      </c>
+      <c r="CB1" t="s">
+        <v>79</v>
+      </c>
+      <c r="CC1" t="s">
+        <v>80</v>
+      </c>
+      <c r="CD1" t="s">
+        <v>81</v>
+      </c>
+      <c r="CE1" t="s">
+        <v>82</v>
+      </c>
+      <c r="CF1" t="s">
+        <v>83</v>
+      </c>
+      <c r="CG1" t="s">
+        <v>84</v>
       </c>
     </row>
-    <row r="2">
+    <row r="2" spans="1:85">
       <c r="A2" s="1">
         <v>183.592668</v>
       </c>
       <c r="B2" s="1">
-        <v>0.050998</v>
+        <v>5.0998000000000002E-2</v>
       </c>
       <c r="C2" s="1">
-        <v>895.033000</v>
+        <v>895.03300000000002</v>
       </c>
       <c r="D2" s="1">
-        <v>-202.757000</v>
+        <v>-202.75700000000001</v>
       </c>
       <c r="E2" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="F2" s="1">
-        <v>193.994270</v>
+        <v>193.99427</v>
       </c>
       <c r="G2" s="1">
-        <v>0.053887</v>
+        <v>5.3886999999999997E-2</v>
       </c>
       <c r="H2" s="1">
-        <v>913.948000</v>
+        <v>913.94799999999998</v>
       </c>
       <c r="I2" s="1">
-        <v>-170.849000</v>
+        <v>-170.84899999999999</v>
       </c>
       <c r="J2" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="K2" s="1">
-        <v>204.457387</v>
+        <v>204.45738700000001</v>
       </c>
       <c r="L2" s="1">
-        <v>0.056794</v>
+        <v>5.6793999999999997E-2</v>
       </c>
       <c r="M2" s="1">
-        <v>937.384000</v>
+        <v>937.38400000000001</v>
       </c>
       <c r="N2" s="1">
-        <v>-120.740000</v>
+        <v>-120.74</v>
       </c>
       <c r="O2" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="P2" s="1">
-        <v>215.226048</v>
+        <v>215.22604799999999</v>
       </c>
       <c r="Q2" s="1">
-        <v>0.059785</v>
+        <v>5.9784999999999998E-2</v>
       </c>
       <c r="R2" s="1">
-        <v>944.257000</v>
+        <v>944.25699999999995</v>
       </c>
       <c r="S2" s="1">
-        <v>-104.142000</v>
+        <v>-104.142</v>
       </c>
       <c r="T2" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="U2" s="1">
-        <v>225.489620</v>
+        <v>225.48962</v>
       </c>
       <c r="V2" s="1">
-        <v>0.062636</v>
+        <v>6.2635999999999997E-2</v>
       </c>
       <c r="W2" s="1">
-        <v>950.821000</v>
+        <v>950.82100000000003</v>
       </c>
       <c r="X2" s="1">
-        <v>-88.647500</v>
+        <v>-88.647499999999994</v>
       </c>
       <c r="Y2" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="Z2" s="1">
-        <v>235.665655</v>
+        <v>235.66565499999999</v>
       </c>
       <c r="AA2" s="1">
-        <v>0.065463</v>
+        <v>6.5462999999999993E-2</v>
       </c>
       <c r="AB2" s="1">
-        <v>957.918000</v>
+        <v>957.91800000000001</v>
       </c>
       <c r="AC2" s="1">
-        <v>-76.566700</v>
+        <v>-76.566699999999997</v>
       </c>
       <c r="AD2" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AE2" s="1">
-        <v>246.171417</v>
+        <v>246.17141699999999</v>
       </c>
       <c r="AF2" s="1">
-        <v>0.068381</v>
+        <v>6.8380999999999997E-2</v>
       </c>
       <c r="AG2" s="1">
-        <v>962.652000</v>
+        <v>962.65200000000004</v>
       </c>
       <c r="AH2" s="1">
-        <v>-73.923200</v>
+        <v>-73.923199999999994</v>
       </c>
       <c r="AI2" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AJ2" s="1">
         <v>256.593389</v>
       </c>
       <c r="AK2" s="1">
-        <v>0.071276</v>
+        <v>7.1276000000000006E-2</v>
       </c>
       <c r="AL2" s="1">
-        <v>969.754000</v>
+        <v>969.75400000000002</v>
       </c>
       <c r="AM2" s="1">
-        <v>-77.902000</v>
+        <v>-77.902000000000001</v>
       </c>
       <c r="AN2" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AO2" s="1">
-        <v>266.842686</v>
+        <v>266.84268600000001</v>
       </c>
       <c r="AP2" s="1">
-        <v>0.074123</v>
+        <v>7.4122999999999994E-2</v>
       </c>
       <c r="AQ2" s="1">
-        <v>977.659000</v>
+        <v>977.65899999999999</v>
       </c>
       <c r="AR2" s="1">
-        <v>-88.735900</v>
+        <v>-88.735900000000001</v>
       </c>
       <c r="AS2" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AT2" s="1">
         <v>277.460576</v>
       </c>
       <c r="AU2" s="1">
-        <v>0.077072</v>
+        <v>7.7072000000000002E-2</v>
       </c>
       <c r="AV2" s="1">
-        <v>987.255000</v>
+        <v>987.255</v>
       </c>
       <c r="AW2" s="1">
-        <v>-105.433000</v>
+        <v>-105.43300000000001</v>
       </c>
       <c r="AX2" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AY2" s="1">
-        <v>288.534057</v>
+        <v>288.53405700000002</v>
       </c>
       <c r="AZ2" s="1">
-        <v>0.080148</v>
+        <v>8.0147999999999997E-2</v>
       </c>
       <c r="BA2" s="1">
-        <v>995.255000</v>
+        <v>995.255</v>
       </c>
       <c r="BB2" s="1">
-        <v>-120.316000</v>
+        <v>-120.316</v>
       </c>
       <c r="BC2" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BD2" s="1">
-        <v>299.172916</v>
+        <v>299.17291599999999</v>
       </c>
       <c r="BE2" s="1">
-        <v>0.083104</v>
+        <v>8.3103999999999997E-2</v>
       </c>
       <c r="BF2" s="1">
-        <v>1031.990000</v>
+        <v>1031.99</v>
       </c>
       <c r="BG2" s="1">
-        <v>-189.163000</v>
+        <v>-189.16300000000001</v>
       </c>
       <c r="BH2" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BI2" s="1">
-        <v>310.182132</v>
+        <v>310.18213200000002</v>
       </c>
       <c r="BJ2" s="1">
-        <v>0.086162</v>
+        <v>8.6162000000000002E-2</v>
       </c>
       <c r="BK2" s="1">
-        <v>1094.780000</v>
+        <v>1094.78</v>
       </c>
       <c r="BL2" s="1">
-        <v>-302.273000</v>
+        <v>-302.27300000000002</v>
       </c>
       <c r="BM2" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BN2" s="1">
-        <v>321.269190</v>
+        <v>321.26918999999998</v>
       </c>
       <c r="BO2" s="1">
-        <v>0.089241</v>
+        <v>8.9241000000000001E-2</v>
       </c>
       <c r="BP2" s="1">
-        <v>1197.260000</v>
+        <v>1197.26</v>
       </c>
       <c r="BQ2" s="1">
-        <v>-482.857000</v>
+        <v>-482.85700000000003</v>
       </c>
       <c r="BR2" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BS2" s="1">
-        <v>332.025964</v>
+        <v>332.02596399999999</v>
       </c>
       <c r="BT2" s="1">
-        <v>0.092229</v>
+        <v>9.2229000000000005E-2</v>
       </c>
       <c r="BU2" s="1">
-        <v>1313.780000</v>
+        <v>1313.78</v>
       </c>
       <c r="BV2" s="1">
-        <v>-682.177000</v>
+        <v>-682.17700000000002</v>
       </c>
       <c r="BW2" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BX2" s="1">
-        <v>342.756379</v>
+        <v>342.75637899999998</v>
       </c>
       <c r="BY2" s="1">
-        <v>0.095210</v>
+        <v>9.5210000000000003E-2</v>
       </c>
       <c r="BZ2" s="1">
-        <v>1445.480000</v>
+        <v>1445.48</v>
       </c>
       <c r="CA2" s="1">
-        <v>-896.000000</v>
+        <v>-896</v>
       </c>
       <c r="CB2" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="CC2" s="1">
-        <v>353.996251</v>
+        <v>353.99625099999997</v>
       </c>
       <c r="CD2" s="1">
-        <v>0.098332</v>
+        <v>9.8332000000000003E-2</v>
       </c>
       <c r="CE2" s="1">
-        <v>1793.830000</v>
+        <v>1793.83</v>
       </c>
       <c r="CF2" s="1">
-        <v>-1403.630000</v>
+        <v>-1403.63</v>
       </c>
       <c r="CG2" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
     </row>
-    <row r="3">
+    <row r="3" spans="1:85">
       <c r="A3" s="1">
         <v>183.963179</v>
       </c>
       <c r="B3" s="1">
-        <v>0.051101</v>
+        <v>5.1101000000000001E-2</v>
       </c>
       <c r="C3" s="1">
-        <v>894.998000</v>
+        <v>894.99800000000005</v>
       </c>
       <c r="D3" s="1">
-        <v>-202.626000</v>
+        <v>-202.626</v>
       </c>
       <c r="E3" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="F3" s="1">
-        <v>194.365806</v>
+        <v>194.36580599999999</v>
       </c>
       <c r="G3" s="1">
-        <v>0.053991</v>
+        <v>5.3990999999999997E-2</v>
       </c>
       <c r="H3" s="1">
-        <v>914.224000</v>
+        <v>914.22400000000005</v>
       </c>
       <c r="I3" s="1">
-        <v>-170.778000</v>
+        <v>-170.77799999999999</v>
       </c>
       <c r="J3" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="K3" s="1">
         <v>205.115071</v>
       </c>
       <c r="L3" s="1">
-        <v>0.056976</v>
+        <v>5.6975999999999999E-2</v>
       </c>
       <c r="M3" s="1">
-        <v>937.550000</v>
+        <v>937.55</v>
       </c>
       <c r="N3" s="1">
-        <v>-120.808000</v>
+        <v>-120.80800000000001</v>
       </c>
       <c r="O3" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="P3" s="1">
         <v>215.335667</v>
       </c>
       <c r="Q3" s="1">
-        <v>0.059815</v>
+        <v>5.9815E-2</v>
       </c>
       <c r="R3" s="1">
-        <v>944.233000</v>
+        <v>944.23299999999995</v>
       </c>
       <c r="S3" s="1">
-        <v>-104.107000</v>
+        <v>-104.107</v>
       </c>
       <c r="T3" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="U3" s="1">
-        <v>225.897940</v>
+        <v>225.89794000000001</v>
       </c>
       <c r="V3" s="1">
-        <v>0.062749</v>
+        <v>6.2748999999999999E-2</v>
       </c>
       <c r="W3" s="1">
-        <v>950.871000</v>
+        <v>950.87099999999998</v>
       </c>
       <c r="X3" s="1">
-        <v>-88.633000</v>
+        <v>-88.632999999999996</v>
       </c>
       <c r="Y3" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="Z3" s="1">
-        <v>236.019335</v>
+        <v>236.01933500000001</v>
       </c>
       <c r="AA3" s="1">
-        <v>0.065561</v>
+        <v>6.5560999999999994E-2</v>
       </c>
       <c r="AB3" s="1">
-        <v>957.959000</v>
+        <v>957.95899999999995</v>
       </c>
       <c r="AC3" s="1">
-        <v>-76.495200</v>
+        <v>-76.495199999999997</v>
       </c>
       <c r="AD3" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AE3" s="1">
-        <v>246.509193</v>
+        <v>246.50919300000001</v>
       </c>
       <c r="AF3" s="1">
-        <v>0.068475</v>
+        <v>6.8474999999999994E-2</v>
       </c>
       <c r="AG3" s="1">
-        <v>962.623000</v>
+        <v>962.62300000000005</v>
       </c>
       <c r="AH3" s="1">
-        <v>-73.919900</v>
+        <v>-73.919899999999998</v>
       </c>
       <c r="AI3" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AJ3" s="1">
         <v>256.978251</v>
       </c>
       <c r="AK3" s="1">
-        <v>0.071383</v>
+        <v>7.1383000000000002E-2</v>
       </c>
       <c r="AL3" s="1">
-        <v>969.737000</v>
+        <v>969.73699999999997</v>
       </c>
       <c r="AM3" s="1">
-        <v>-77.942600</v>
+        <v>-77.942599999999999</v>
       </c>
       <c r="AN3" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AO3" s="1">
-        <v>267.261838</v>
+        <v>267.26183800000001</v>
       </c>
       <c r="AP3" s="1">
-        <v>0.074239</v>
+        <v>7.4238999999999999E-2</v>
       </c>
       <c r="AQ3" s="1">
-        <v>977.664000</v>
+        <v>977.66399999999999</v>
       </c>
       <c r="AR3" s="1">
-        <v>-88.736300</v>
+        <v>-88.7363</v>
       </c>
       <c r="AS3" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AT3" s="1">
-        <v>277.866271</v>
+        <v>277.86627099999998</v>
       </c>
       <c r="AU3" s="1">
-        <v>0.077185</v>
+        <v>7.7185000000000004E-2</v>
       </c>
       <c r="AV3" s="1">
-        <v>987.290000</v>
+        <v>987.29</v>
       </c>
       <c r="AW3" s="1">
-        <v>-105.440000</v>
+        <v>-105.44</v>
       </c>
       <c r="AX3" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AY3" s="1">
         <v>288.971698</v>
       </c>
       <c r="AZ3" s="1">
-        <v>0.080270</v>
+        <v>8.0269999999999994E-2</v>
       </c>
       <c r="BA3" s="1">
-        <v>995.241000</v>
+        <v>995.24099999999999</v>
       </c>
       <c r="BB3" s="1">
-        <v>-120.315000</v>
+        <v>-120.315</v>
       </c>
       <c r="BC3" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BD3" s="1">
-        <v>299.548387</v>
+        <v>299.54838699999999</v>
       </c>
       <c r="BE3" s="1">
-        <v>0.083208</v>
+        <v>8.3208000000000004E-2</v>
       </c>
       <c r="BF3" s="1">
-        <v>1031.970000</v>
+        <v>1031.97</v>
       </c>
       <c r="BG3" s="1">
-        <v>-189.161000</v>
+        <v>-189.161</v>
       </c>
       <c r="BH3" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BI3" s="1">
-        <v>310.567013</v>
+        <v>310.56701299999997</v>
       </c>
       <c r="BJ3" s="1">
-        <v>0.086269</v>
+        <v>8.6268999999999998E-2</v>
       </c>
       <c r="BK3" s="1">
-        <v>1094.750000</v>
+        <v>1094.75</v>
       </c>
       <c r="BL3" s="1">
-        <v>-302.283000</v>
+        <v>-302.28300000000002</v>
       </c>
       <c r="BM3" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BN3" s="1">
         <v>321.689797</v>
       </c>
       <c r="BO3" s="1">
-        <v>0.089358</v>
+        <v>8.9358000000000007E-2</v>
       </c>
       <c r="BP3" s="1">
-        <v>1197.250000</v>
+        <v>1197.25</v>
       </c>
       <c r="BQ3" s="1">
-        <v>-482.861000</v>
+        <v>-482.86099999999999</v>
       </c>
       <c r="BR3" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BS3" s="1">
-        <v>332.470376</v>
+        <v>332.47037599999999</v>
       </c>
       <c r="BT3" s="1">
-        <v>0.092353</v>
+        <v>9.2353000000000005E-2</v>
       </c>
       <c r="BU3" s="1">
-        <v>1313.960000</v>
+        <v>1313.96</v>
       </c>
       <c r="BV3" s="1">
-        <v>-682.211000</v>
+        <v>-682.21100000000001</v>
       </c>
       <c r="BW3" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BX3" s="1">
-        <v>343.220634</v>
+        <v>343.22063400000002</v>
       </c>
       <c r="BY3" s="1">
-        <v>0.095339</v>
+        <v>9.5338999999999993E-2</v>
       </c>
       <c r="BZ3" s="1">
-        <v>1445.440000</v>
+        <v>1445.44</v>
       </c>
       <c r="CA3" s="1">
-        <v>-896.052000</v>
+        <v>-896.05200000000002</v>
       </c>
       <c r="CB3" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="CC3" s="1">
         <v>354.534875</v>
       </c>
       <c r="CD3" s="1">
-        <v>0.098482</v>
+        <v>9.8482E-2</v>
       </c>
       <c r="CE3" s="1">
-        <v>1793.820000</v>
+        <v>1793.82</v>
       </c>
       <c r="CF3" s="1">
-        <v>-1404.850000</v>
+        <v>-1404.85</v>
       </c>
       <c r="CG3" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
     </row>
-    <row r="4">
+    <row r="4" spans="1:85">
       <c r="A4" s="1">
-        <v>184.635756</v>
+        <v>184.63575599999999</v>
       </c>
       <c r="B4" s="1">
-        <v>0.051288</v>
+        <v>5.1288E-2</v>
       </c>
       <c r="C4" s="1">
-        <v>895.017000</v>
+        <v>895.01700000000005</v>
       </c>
       <c r="D4" s="1">
-        <v>-202.558000</v>
+        <v>-202.55799999999999</v>
       </c>
       <c r="E4" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="F4" s="1">
         <v>195.030946</v>
       </c>
       <c r="G4" s="1">
-        <v>0.054175</v>
+        <v>5.4175000000000001E-2</v>
       </c>
       <c r="H4" s="1">
-        <v>914.095000</v>
+        <v>914.09500000000003</v>
       </c>
       <c r="I4" s="1">
-        <v>-170.727000</v>
+        <v>-170.727</v>
       </c>
       <c r="J4" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="K4" s="1">
         <v>205.491367</v>
       </c>
       <c r="L4" s="1">
-        <v>0.057081</v>
+        <v>5.7081E-2</v>
       </c>
       <c r="M4" s="1">
-        <v>937.525000</v>
+        <v>937.52499999999998</v>
       </c>
       <c r="N4" s="1">
-        <v>-120.768000</v>
+        <v>-120.768</v>
       </c>
       <c r="O4" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="P4" s="1">
-        <v>215.682369</v>
+        <v>215.68236899999999</v>
       </c>
       <c r="Q4" s="1">
-        <v>0.059912</v>
+        <v>5.9912E-2</v>
       </c>
       <c r="R4" s="1">
-        <v>944.285000</v>
+        <v>944.28499999999997</v>
       </c>
       <c r="S4" s="1">
-        <v>-104.099000</v>
+        <v>-104.099</v>
       </c>
       <c r="T4" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="U4" s="1">
         <v>226.239543</v>
       </c>
       <c r="V4" s="1">
-        <v>0.062844</v>
+        <v>6.2843999999999997E-2</v>
       </c>
       <c r="W4" s="1">
-        <v>950.903000</v>
+        <v>950.90300000000002</v>
       </c>
       <c r="X4" s="1">
-        <v>-88.649700</v>
+        <v>-88.649699999999996</v>
       </c>
       <c r="Y4" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="Z4" s="1">
-        <v>236.365537</v>
+        <v>236.36553699999999</v>
       </c>
       <c r="AA4" s="1">
-        <v>0.065657</v>
+        <v>6.5656999999999993E-2</v>
       </c>
       <c r="AB4" s="1">
-        <v>958.050000</v>
+        <v>958.05</v>
       </c>
       <c r="AC4" s="1">
-        <v>-76.507300</v>
+        <v>-76.507300000000001</v>
       </c>
       <c r="AD4" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AE4" s="1">
         <v>246.871272</v>
       </c>
       <c r="AF4" s="1">
-        <v>0.068575</v>
+        <v>6.8574999999999997E-2</v>
       </c>
       <c r="AG4" s="1">
-        <v>962.633000</v>
+        <v>962.63300000000004</v>
       </c>
       <c r="AH4" s="1">
-        <v>-73.920100</v>
+        <v>-73.920100000000005</v>
       </c>
       <c r="AI4" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AJ4" s="1">
-        <v>257.395386</v>
+        <v>257.39538599999997</v>
       </c>
       <c r="AK4" s="1">
-        <v>0.071499</v>
+        <v>7.1498999999999993E-2</v>
       </c>
       <c r="AL4" s="1">
-        <v>969.750000</v>
+        <v>969.75</v>
       </c>
       <c r="AM4" s="1">
-        <v>-77.945800</v>
+        <v>-77.945800000000006</v>
       </c>
       <c r="AN4" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AO4" s="1">
-        <v>267.588701</v>
+        <v>267.58870100000001</v>
       </c>
       <c r="AP4" s="1">
-        <v>0.074330</v>
+        <v>7.4329999999999993E-2</v>
       </c>
       <c r="AQ4" s="1">
-        <v>977.679000</v>
+        <v>977.67899999999997</v>
       </c>
       <c r="AR4" s="1">
-        <v>-88.702900</v>
+        <v>-88.7029</v>
       </c>
       <c r="AS4" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AT4" s="1">
-        <v>278.193135</v>
+        <v>278.19313499999998</v>
       </c>
       <c r="AU4" s="1">
-        <v>0.077276</v>
+        <v>7.7275999999999997E-2</v>
       </c>
       <c r="AV4" s="1">
-        <v>987.271000</v>
+        <v>987.27099999999996</v>
       </c>
       <c r="AW4" s="1">
-        <v>-105.453000</v>
+        <v>-105.453</v>
       </c>
       <c r="AX4" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AY4" s="1">
-        <v>289.328816</v>
+        <v>289.32881600000002</v>
       </c>
       <c r="AZ4" s="1">
-        <v>0.080369</v>
+        <v>8.0368999999999996E-2</v>
       </c>
       <c r="BA4" s="1">
-        <v>995.220000</v>
+        <v>995.22</v>
       </c>
       <c r="BB4" s="1">
-        <v>-120.315000</v>
+        <v>-120.315</v>
       </c>
       <c r="BC4" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BD4" s="1">
-        <v>299.907522</v>
+        <v>299.90752199999997</v>
       </c>
       <c r="BE4" s="1">
-        <v>0.083308</v>
+        <v>8.3307999999999993E-2</v>
       </c>
       <c r="BF4" s="1">
-        <v>1031.980000</v>
+        <v>1031.98</v>
       </c>
       <c r="BG4" s="1">
-        <v>-189.180000</v>
+        <v>-189.18</v>
       </c>
       <c r="BH4" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BI4" s="1">
-        <v>310.941988</v>
+        <v>310.94198799999998</v>
       </c>
       <c r="BJ4" s="1">
-        <v>0.086373</v>
+        <v>8.6373000000000005E-2</v>
       </c>
       <c r="BK4" s="1">
-        <v>1094.760000</v>
+        <v>1094.76</v>
       </c>
       <c r="BL4" s="1">
-        <v>-302.295000</v>
+        <v>-302.29500000000002</v>
       </c>
       <c r="BM4" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BN4" s="1">
-        <v>322.112922</v>
+        <v>322.11292200000003</v>
       </c>
       <c r="BO4" s="1">
-        <v>0.089476</v>
+        <v>8.9476E-2</v>
       </c>
       <c r="BP4" s="1">
-        <v>1197.260000</v>
+        <v>1197.26</v>
       </c>
       <c r="BQ4" s="1">
-        <v>-482.865000</v>
+        <v>-482.86500000000001</v>
       </c>
       <c r="BR4" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BS4" s="1">
-        <v>332.900900</v>
+        <v>332.90089999999998</v>
       </c>
       <c r="BT4" s="1">
-        <v>0.092472</v>
+        <v>9.2471999999999999E-2</v>
       </c>
       <c r="BU4" s="1">
-        <v>1314.070000</v>
+        <v>1314.07</v>
       </c>
       <c r="BV4" s="1">
-        <v>-682.318000</v>
+        <v>-682.31799999999998</v>
       </c>
       <c r="BW4" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BX4" s="1">
-        <v>343.666568</v>
+        <v>343.66656799999998</v>
       </c>
       <c r="BY4" s="1">
-        <v>0.095463</v>
+        <v>9.5463000000000006E-2</v>
       </c>
       <c r="BZ4" s="1">
-        <v>1445.490000</v>
+        <v>1445.49</v>
       </c>
       <c r="CA4" s="1">
-        <v>-896.121000</v>
+        <v>-896.12099999999998</v>
       </c>
       <c r="CB4" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="CC4" s="1">
-        <v>355.051733</v>
+        <v>355.05173300000001</v>
       </c>
       <c r="CD4" s="1">
-        <v>0.098625</v>
+        <v>9.8625000000000004E-2</v>
       </c>
       <c r="CE4" s="1">
-        <v>1793.630000</v>
+        <v>1793.63</v>
       </c>
       <c r="CF4" s="1">
-        <v>-1404.590000</v>
+        <v>-1404.59</v>
       </c>
       <c r="CG4" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
     </row>
-    <row r="5">
+    <row r="5" spans="1:85">
       <c r="A5" s="1">
-        <v>184.993372</v>
+        <v>184.99337199999999</v>
       </c>
       <c r="B5" s="1">
-        <v>0.051387</v>
+        <v>5.1387000000000002E-2</v>
       </c>
       <c r="C5" s="1">
-        <v>895.226000</v>
+        <v>895.226</v>
       </c>
       <c r="D5" s="1">
-        <v>-202.473000</v>
+        <v>-202.47300000000001</v>
       </c>
       <c r="E5" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="F5" s="1">
         <v>195.394972</v>
       </c>
       <c r="G5" s="1">
-        <v>0.054276</v>
+        <v>5.4275999999999998E-2</v>
       </c>
       <c r="H5" s="1">
-        <v>914.225000</v>
+        <v>914.22500000000002</v>
       </c>
       <c r="I5" s="1">
-        <v>-170.834000</v>
+        <v>-170.834</v>
       </c>
       <c r="J5" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="K5" s="1">
-        <v>205.832782</v>
+        <v>205.83278200000001</v>
       </c>
       <c r="L5" s="1">
-        <v>0.057176</v>
+        <v>5.7175999999999998E-2</v>
       </c>
       <c r="M5" s="1">
-        <v>937.561000</v>
+        <v>937.56100000000004</v>
       </c>
       <c r="N5" s="1">
-        <v>-120.669000</v>
+        <v>-120.669</v>
       </c>
       <c r="O5" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="P5" s="1">
-        <v>216.030561</v>
+        <v>216.03056100000001</v>
       </c>
       <c r="Q5" s="1">
-        <v>0.060008</v>
+        <v>6.0007999999999999E-2</v>
       </c>
       <c r="R5" s="1">
-        <v>944.282000</v>
+        <v>944.28200000000004</v>
       </c>
       <c r="S5" s="1">
-        <v>-104.132000</v>
+        <v>-104.13200000000001</v>
       </c>
       <c r="T5" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="U5" s="1">
-        <v>226.584404</v>
+        <v>226.58440400000001</v>
       </c>
       <c r="V5" s="1">
-        <v>0.062940</v>
+        <v>6.2939999999999996E-2</v>
       </c>
       <c r="W5" s="1">
-        <v>950.883000</v>
+        <v>950.88300000000004</v>
       </c>
       <c r="X5" s="1">
-        <v>-88.650400</v>
+        <v>-88.650400000000005</v>
       </c>
       <c r="Y5" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="Z5" s="1">
-        <v>236.787110</v>
+        <v>236.78711000000001</v>
       </c>
       <c r="AA5" s="1">
-        <v>0.065774</v>
+        <v>6.5773999999999999E-2</v>
       </c>
       <c r="AB5" s="1">
-        <v>957.899000</v>
+        <v>957.899</v>
       </c>
       <c r="AC5" s="1">
-        <v>-76.536700</v>
+        <v>-76.536699999999996</v>
       </c>
       <c r="AD5" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AE5" s="1">
-        <v>247.554759</v>
+        <v>247.55475899999999</v>
       </c>
       <c r="AF5" s="1">
-        <v>0.068765</v>
+        <v>6.8765000000000007E-2</v>
       </c>
       <c r="AG5" s="1">
-        <v>962.612000</v>
+        <v>962.61199999999997</v>
       </c>
       <c r="AH5" s="1">
-        <v>-73.919000</v>
+        <v>-73.918999999999997</v>
       </c>
       <c r="AI5" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AJ5" s="1">
-        <v>257.697482</v>
+        <v>257.69748199999998</v>
       </c>
       <c r="AK5" s="1">
-        <v>0.071583</v>
+        <v>7.1582999999999994E-2</v>
       </c>
       <c r="AL5" s="1">
-        <v>969.755000</v>
+        <v>969.755</v>
       </c>
       <c r="AM5" s="1">
-        <v>-77.952100</v>
+        <v>-77.952100000000002</v>
       </c>
       <c r="AN5" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AO5" s="1">
         <v>267.948306</v>
       </c>
       <c r="AP5" s="1">
-        <v>0.074430</v>
+        <v>7.4429999999999996E-2</v>
       </c>
       <c r="AQ5" s="1">
-        <v>977.668000</v>
+        <v>977.66800000000001</v>
       </c>
       <c r="AR5" s="1">
-        <v>-88.721500</v>
+        <v>-88.721500000000006</v>
       </c>
       <c r="AS5" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AT5" s="1">
-        <v>278.556206</v>
+        <v>278.55620599999997</v>
       </c>
       <c r="AU5" s="1">
-        <v>0.077377</v>
+        <v>7.7377000000000001E-2</v>
       </c>
       <c r="AV5" s="1">
-        <v>987.273000</v>
+        <v>987.27300000000002</v>
       </c>
       <c r="AW5" s="1">
-        <v>-105.453000</v>
+        <v>-105.453</v>
       </c>
       <c r="AX5" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AY5" s="1">
-        <v>289.688949</v>
+        <v>289.68894899999998</v>
       </c>
       <c r="AZ5" s="1">
-        <v>0.080469</v>
+        <v>8.0468999999999999E-2</v>
       </c>
       <c r="BA5" s="1">
-        <v>995.234000</v>
+        <v>995.23400000000004</v>
       </c>
       <c r="BB5" s="1">
-        <v>-120.304000</v>
+        <v>-120.304</v>
       </c>
       <c r="BC5" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BD5" s="1">
-        <v>300.627218</v>
+        <v>300.62721800000003</v>
       </c>
       <c r="BE5" s="1">
-        <v>0.083508</v>
+        <v>8.3507999999999999E-2</v>
       </c>
       <c r="BF5" s="1">
-        <v>1031.990000</v>
+        <v>1031.99</v>
       </c>
       <c r="BG5" s="1">
-        <v>-189.156000</v>
+        <v>-189.15600000000001</v>
       </c>
       <c r="BH5" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BI5" s="1">
-        <v>311.695908</v>
+        <v>311.69590799999997</v>
       </c>
       <c r="BJ5" s="1">
-        <v>0.086582</v>
+        <v>8.6582000000000006E-2</v>
       </c>
       <c r="BK5" s="1">
-        <v>1094.770000</v>
+        <v>1094.77</v>
       </c>
       <c r="BL5" s="1">
-        <v>-302.277000</v>
+        <v>-302.27699999999999</v>
       </c>
       <c r="BM5" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BN5" s="1">
-        <v>322.507700</v>
+        <v>322.5077</v>
       </c>
       <c r="BO5" s="1">
-        <v>0.089585</v>
+        <v>8.9584999999999998E-2</v>
       </c>
       <c r="BP5" s="1">
-        <v>1197.310000</v>
+        <v>1197.31</v>
       </c>
       <c r="BQ5" s="1">
-        <v>-482.843000</v>
+        <v>-482.84300000000002</v>
       </c>
       <c r="BR5" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BS5" s="1">
-        <v>333.330020</v>
+        <v>333.33001999999999</v>
       </c>
       <c r="BT5" s="1">
-        <v>0.092592</v>
+        <v>9.2591999999999994E-2</v>
       </c>
       <c r="BU5" s="1">
-        <v>1314.130000</v>
+        <v>1314.13</v>
       </c>
       <c r="BV5" s="1">
-        <v>-682.405000</v>
+        <v>-682.40499999999997</v>
       </c>
       <c r="BW5" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BX5" s="1">
-        <v>344.096569</v>
+        <v>344.09656899999999</v>
       </c>
       <c r="BY5" s="1">
-        <v>0.095582</v>
+        <v>9.5582E-2</v>
       </c>
       <c r="BZ5" s="1">
-        <v>1445.480000</v>
+        <v>1445.48</v>
       </c>
       <c r="CA5" s="1">
-        <v>-895.995000</v>
+        <v>-895.995</v>
       </c>
       <c r="CB5" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="CC5" s="1">
-        <v>355.899368</v>
+        <v>355.89936799999998</v>
       </c>
       <c r="CD5" s="1">
-        <v>0.098861</v>
+        <v>9.8861000000000004E-2</v>
       </c>
       <c r="CE5" s="1">
-        <v>1794.500000</v>
+        <v>1794.5</v>
       </c>
       <c r="CF5" s="1">
-        <v>-1403.610000</v>
+        <v>-1403.61</v>
       </c>
       <c r="CG5" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
     </row>
-    <row r="6">
+    <row r="6" spans="1:85">
       <c r="A6" s="1">
-        <v>185.334650</v>
+        <v>185.33465000000001</v>
       </c>
       <c r="B6" s="1">
-        <v>0.051482</v>
+        <v>5.1482E-2</v>
       </c>
       <c r="C6" s="1">
-        <v>895.005000</v>
+        <v>895.005</v>
       </c>
       <c r="D6" s="1">
-        <v>-202.542000</v>
+        <v>-202.542</v>
       </c>
       <c r="E6" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="F6" s="1">
-        <v>195.744689</v>
+        <v>195.74468899999999</v>
       </c>
       <c r="G6" s="1">
-        <v>0.054374</v>
+        <v>5.4373999999999999E-2</v>
       </c>
       <c r="H6" s="1">
-        <v>914.207000</v>
+        <v>914.20699999999999</v>
       </c>
       <c r="I6" s="1">
-        <v>-170.611000</v>
+        <v>-170.61099999999999</v>
       </c>
       <c r="J6" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="K6" s="1">
         <v>206.181006</v>
       </c>
       <c r="L6" s="1">
-        <v>0.057273</v>
+        <v>5.7272999999999998E-2</v>
       </c>
       <c r="M6" s="1">
-        <v>937.623000</v>
+        <v>937.62300000000005</v>
       </c>
       <c r="N6" s="1">
-        <v>-120.647000</v>
+        <v>-120.64700000000001</v>
       </c>
       <c r="O6" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="P6" s="1">
-        <v>216.443728</v>
+        <v>216.44372799999999</v>
       </c>
       <c r="Q6" s="1">
-        <v>0.060123</v>
+        <v>6.0123000000000003E-2</v>
       </c>
       <c r="R6" s="1">
-        <v>944.299000</v>
+        <v>944.29899999999998</v>
       </c>
       <c r="S6" s="1">
-        <v>-104.126000</v>
+        <v>-104.126</v>
       </c>
       <c r="T6" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="U6" s="1">
-        <v>227.007986</v>
+        <v>227.00798599999999</v>
       </c>
       <c r="V6" s="1">
-        <v>0.063058</v>
+        <v>6.3058000000000003E-2</v>
       </c>
       <c r="W6" s="1">
-        <v>950.887000</v>
+        <v>950.88699999999994</v>
       </c>
       <c r="X6" s="1">
-        <v>-88.663100</v>
+        <v>-88.6631</v>
       </c>
       <c r="Y6" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="Z6" s="1">
-        <v>237.062420</v>
+        <v>237.06242</v>
       </c>
       <c r="AA6" s="1">
-        <v>0.065851</v>
+        <v>6.5851000000000007E-2</v>
       </c>
       <c r="AB6" s="1">
-        <v>958.057000</v>
+        <v>958.05700000000002</v>
       </c>
       <c r="AC6" s="1">
-        <v>-76.679500</v>
+        <v>-76.679500000000004</v>
       </c>
       <c r="AD6" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AE6" s="1">
-        <v>247.899479</v>
+        <v>247.89947900000001</v>
       </c>
       <c r="AF6" s="1">
-        <v>0.068861</v>
+        <v>6.8861000000000006E-2</v>
       </c>
       <c r="AG6" s="1">
-        <v>962.650000</v>
+        <v>962.65</v>
       </c>
       <c r="AH6" s="1">
-        <v>-73.899600</v>
+        <v>-73.899600000000007</v>
       </c>
       <c r="AI6" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AJ6" s="1">
-        <v>258.046635</v>
+        <v>258.04663499999998</v>
       </c>
       <c r="AK6" s="1">
-        <v>0.071680</v>
+        <v>7.1679999999999994E-2</v>
       </c>
       <c r="AL6" s="1">
-        <v>969.748000</v>
+        <v>969.74800000000005</v>
       </c>
       <c r="AM6" s="1">
-        <v>-77.952400</v>
+        <v>-77.952399999999997</v>
       </c>
       <c r="AN6" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AO6" s="1">
-        <v>268.306411</v>
+        <v>268.30641100000003</v>
       </c>
       <c r="AP6" s="1">
-        <v>0.074530</v>
+        <v>7.4529999999999999E-2</v>
       </c>
       <c r="AQ6" s="1">
-        <v>977.718000</v>
+        <v>977.71799999999996</v>
       </c>
       <c r="AR6" s="1">
-        <v>-88.721100</v>
+        <v>-88.721100000000007</v>
       </c>
       <c r="AS6" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AT6" s="1">
         <v>278.926222</v>
       </c>
       <c r="AU6" s="1">
-        <v>0.077480</v>
+        <v>7.7479999999999993E-2</v>
       </c>
       <c r="AV6" s="1">
-        <v>987.278000</v>
+        <v>987.27800000000002</v>
       </c>
       <c r="AW6" s="1">
-        <v>-105.436000</v>
+        <v>-105.43600000000001</v>
       </c>
       <c r="AX6" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AY6" s="1">
-        <v>290.404666</v>
+        <v>290.40466600000002</v>
       </c>
       <c r="AZ6" s="1">
-        <v>0.080668</v>
+        <v>8.0668000000000004E-2</v>
       </c>
       <c r="BA6" s="1">
-        <v>995.251000</v>
+        <v>995.25099999999998</v>
       </c>
       <c r="BB6" s="1">
-        <v>-120.304000</v>
+        <v>-120.304</v>
       </c>
       <c r="BC6" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BD6" s="1">
         <v>301.018528</v>
       </c>
       <c r="BE6" s="1">
-        <v>0.083616</v>
+        <v>8.3615999999999996E-2</v>
       </c>
       <c r="BF6" s="1">
-        <v>1031.980000</v>
+        <v>1031.98</v>
       </c>
       <c r="BG6" s="1">
-        <v>-189.179000</v>
+        <v>-189.179</v>
       </c>
       <c r="BH6" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BI6" s="1">
-        <v>312.102663</v>
+        <v>312.10266300000001</v>
       </c>
       <c r="BJ6" s="1">
-        <v>0.086695</v>
+        <v>8.6694999999999994E-2</v>
       </c>
       <c r="BK6" s="1">
-        <v>1094.770000</v>
+        <v>1094.77</v>
       </c>
       <c r="BL6" s="1">
-        <v>-302.295000</v>
+        <v>-302.29500000000002</v>
       </c>
       <c r="BM6" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BN6" s="1">
-        <v>322.929827</v>
+        <v>322.92982699999999</v>
       </c>
       <c r="BO6" s="1">
-        <v>0.089703</v>
+        <v>8.9703000000000005E-2</v>
       </c>
       <c r="BP6" s="1">
-        <v>1197.250000</v>
+        <v>1197.25</v>
       </c>
       <c r="BQ6" s="1">
-        <v>-482.857000</v>
+        <v>-482.85700000000003</v>
       </c>
       <c r="BR6" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BS6" s="1">
-        <v>334.035717</v>
+        <v>334.03571699999998</v>
       </c>
       <c r="BT6" s="1">
-        <v>0.092788</v>
+        <v>9.2787999999999995E-2</v>
       </c>
       <c r="BU6" s="1">
-        <v>1314.140000</v>
+        <v>1314.14</v>
       </c>
       <c r="BV6" s="1">
-        <v>-682.503000</v>
+        <v>-682.50300000000004</v>
       </c>
       <c r="BW6" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BX6" s="1">
-        <v>344.835607</v>
+        <v>344.83560699999998</v>
       </c>
       <c r="BY6" s="1">
-        <v>0.095788</v>
+        <v>9.5787999999999998E-2</v>
       </c>
       <c r="BZ6" s="1">
-        <v>1445.560000</v>
+        <v>1445.56</v>
       </c>
       <c r="CA6" s="1">
-        <v>-896.121000</v>
+        <v>-896.12099999999998</v>
       </c>
       <c r="CB6" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="CC6" s="1">
-        <v>356.135960</v>
+        <v>356.13596000000001</v>
       </c>
       <c r="CD6" s="1">
-        <v>0.098927</v>
+        <v>9.8927000000000001E-2</v>
       </c>
       <c r="CE6" s="1">
-        <v>1793.780000</v>
+        <v>1793.78</v>
       </c>
       <c r="CF6" s="1">
-        <v>-1404.580000</v>
+        <v>-1404.58</v>
       </c>
       <c r="CG6" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
     </row>
-    <row r="7">
+    <row r="7" spans="1:85">
       <c r="A7" s="1">
         <v>185.671402</v>
       </c>
       <c r="B7" s="1">
-        <v>0.051575</v>
+        <v>5.1575000000000003E-2</v>
       </c>
       <c r="C7" s="1">
-        <v>895.074000</v>
+        <v>895.07399999999996</v>
       </c>
       <c r="D7" s="1">
-        <v>-202.507000</v>
+        <v>-202.50700000000001</v>
       </c>
       <c r="E7" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="F7" s="1">
-        <v>196.087426</v>
+        <v>196.08742599999999</v>
       </c>
       <c r="G7" s="1">
-        <v>0.054469</v>
+        <v>5.4468999999999997E-2</v>
       </c>
       <c r="H7" s="1">
-        <v>914.176000</v>
+        <v>914.17600000000004</v>
       </c>
       <c r="I7" s="1">
-        <v>-170.809000</v>
+        <v>-170.809</v>
       </c>
       <c r="J7" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="K7" s="1">
-        <v>206.605550</v>
+        <v>206.60554999999999</v>
       </c>
       <c r="L7" s="1">
-        <v>0.057390</v>
+        <v>5.7389999999999997E-2</v>
       </c>
       <c r="M7" s="1">
-        <v>937.403000</v>
+        <v>937.40300000000002</v>
       </c>
       <c r="N7" s="1">
-        <v>-120.660000</v>
+        <v>-120.66</v>
       </c>
       <c r="O7" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="P7" s="1">
-        <v>216.737329</v>
+        <v>216.73732899999999</v>
       </c>
       <c r="Q7" s="1">
-        <v>0.060205</v>
+        <v>6.0205000000000002E-2</v>
       </c>
       <c r="R7" s="1">
-        <v>944.269000</v>
+        <v>944.26900000000001</v>
       </c>
       <c r="S7" s="1">
-        <v>-104.154000</v>
+        <v>-104.154</v>
       </c>
       <c r="T7" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="U7" s="1">
-        <v>227.274871</v>
+        <v>227.27487099999999</v>
       </c>
       <c r="V7" s="1">
-        <v>0.063132</v>
+        <v>6.3131999999999994E-2</v>
       </c>
       <c r="W7" s="1">
-        <v>950.807000</v>
+        <v>950.80700000000002</v>
       </c>
       <c r="X7" s="1">
-        <v>-88.681500</v>
+        <v>-88.6815</v>
       </c>
       <c r="Y7" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="Z7" s="1">
         <v>237.412068</v>
       </c>
       <c r="AA7" s="1">
-        <v>0.065948</v>
+        <v>6.5948000000000007E-2</v>
       </c>
       <c r="AB7" s="1">
-        <v>957.946000</v>
+        <v>957.94600000000003</v>
       </c>
       <c r="AC7" s="1">
-        <v>-76.632400</v>
+        <v>-76.632400000000004</v>
       </c>
       <c r="AD7" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AE7" s="1">
-        <v>248.244727</v>
+        <v>248.24472700000001</v>
       </c>
       <c r="AF7" s="1">
-        <v>0.068957</v>
+        <v>6.8957000000000004E-2</v>
       </c>
       <c r="AG7" s="1">
-        <v>962.591000</v>
+        <v>962.59100000000001</v>
       </c>
       <c r="AH7" s="1">
-        <v>-73.896800</v>
+        <v>-73.896799999999999</v>
       </c>
       <c r="AI7" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AJ7" s="1">
         <v>258.394361</v>
       </c>
       <c r="AK7" s="1">
-        <v>0.071776</v>
+        <v>7.1776000000000006E-2</v>
       </c>
       <c r="AL7" s="1">
-        <v>969.757000</v>
+        <v>969.75699999999995</v>
       </c>
       <c r="AM7" s="1">
-        <v>-77.949400</v>
+        <v>-77.949399999999997</v>
       </c>
       <c r="AN7" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AO7" s="1">
-        <v>269.027563</v>
+        <v>269.02756299999999</v>
       </c>
       <c r="AP7" s="1">
-        <v>0.074730</v>
+        <v>7.4730000000000005E-2</v>
       </c>
       <c r="AQ7" s="1">
-        <v>977.685000</v>
+        <v>977.68499999999995</v>
       </c>
       <c r="AR7" s="1">
-        <v>-88.715800</v>
+        <v>-88.715800000000002</v>
       </c>
       <c r="AS7" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AT7" s="1">
-        <v>279.650382</v>
+        <v>279.65038199999998</v>
       </c>
       <c r="AU7" s="1">
-        <v>0.077681</v>
+        <v>7.7681E-2</v>
       </c>
       <c r="AV7" s="1">
-        <v>987.278000</v>
+        <v>987.27800000000002</v>
       </c>
       <c r="AW7" s="1">
-        <v>-105.459000</v>
+        <v>-105.459</v>
       </c>
       <c r="AX7" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AY7" s="1">
         <v>290.790526</v>
       </c>
       <c r="AZ7" s="1">
-        <v>0.080775</v>
+        <v>8.0775E-2</v>
       </c>
       <c r="BA7" s="1">
-        <v>995.231000</v>
+        <v>995.23099999999999</v>
       </c>
       <c r="BB7" s="1">
-        <v>-120.304000</v>
+        <v>-120.304</v>
       </c>
       <c r="BC7" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BD7" s="1">
-        <v>301.400448</v>
+        <v>301.40044799999998</v>
       </c>
       <c r="BE7" s="1">
-        <v>0.083722</v>
+        <v>8.3722000000000005E-2</v>
       </c>
       <c r="BF7" s="1">
-        <v>1031.970000</v>
+        <v>1031.97</v>
       </c>
       <c r="BG7" s="1">
-        <v>-189.177000</v>
+        <v>-189.17699999999999</v>
       </c>
       <c r="BH7" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BI7" s="1">
-        <v>312.440900</v>
+        <v>312.4409</v>
       </c>
       <c r="BJ7" s="1">
-        <v>0.086789</v>
+        <v>8.6789000000000005E-2</v>
       </c>
       <c r="BK7" s="1">
-        <v>1094.780000</v>
+        <v>1094.78</v>
       </c>
       <c r="BL7" s="1">
-        <v>-302.325000</v>
+        <v>-302.32499999999999</v>
       </c>
       <c r="BM7" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BN7" s="1">
-        <v>323.628659</v>
+        <v>323.62865900000003</v>
       </c>
       <c r="BO7" s="1">
-        <v>0.089897</v>
+        <v>8.9897000000000005E-2</v>
       </c>
       <c r="BP7" s="1">
-        <v>1197.280000</v>
+        <v>1197.28</v>
       </c>
       <c r="BQ7" s="1">
-        <v>-482.883000</v>
+        <v>-482.88299999999998</v>
       </c>
       <c r="BR7" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BS7" s="1">
         <v>334.175093</v>
       </c>
       <c r="BT7" s="1">
-        <v>0.092826</v>
+        <v>9.2826000000000006E-2</v>
       </c>
       <c r="BU7" s="1">
-        <v>1314.150000</v>
+        <v>1314.15</v>
       </c>
       <c r="BV7" s="1">
-        <v>-682.639000</v>
+        <v>-682.63900000000001</v>
       </c>
       <c r="BW7" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BX7" s="1">
-        <v>344.972502</v>
+        <v>344.97250200000002</v>
       </c>
       <c r="BY7" s="1">
-        <v>0.095826</v>
+        <v>9.5825999999999995E-2</v>
       </c>
       <c r="BZ7" s="1">
-        <v>1445.550000</v>
+        <v>1445.55</v>
       </c>
       <c r="CA7" s="1">
-        <v>-896.196000</v>
+        <v>-896.19600000000003</v>
       </c>
       <c r="CB7" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="CC7" s="1">
-        <v>356.651799</v>
+        <v>356.65179899999998</v>
       </c>
       <c r="CD7" s="1">
-        <v>0.099070</v>
+        <v>9.9070000000000005E-2</v>
       </c>
       <c r="CE7" s="1">
-        <v>1794.560000</v>
+        <v>1794.56</v>
       </c>
       <c r="CF7" s="1">
-        <v>-1405.210000</v>
+        <v>-1405.21</v>
       </c>
       <c r="CG7" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
     </row>
-    <row r="8">
+    <row r="8" spans="1:85">
       <c r="A8" s="1">
-        <v>186.098954</v>
+        <v>186.09895399999999</v>
       </c>
       <c r="B8" s="1">
-        <v>0.051694</v>
+        <v>5.1693999999999997E-2</v>
       </c>
       <c r="C8" s="1">
-        <v>895.285000</v>
+        <v>895.28499999999997</v>
       </c>
       <c r="D8" s="1">
-        <v>-202.290000</v>
+        <v>-202.29</v>
       </c>
       <c r="E8" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="F8" s="1">
-        <v>196.508988</v>
+        <v>196.50898799999999</v>
       </c>
       <c r="G8" s="1">
-        <v>0.054586</v>
+        <v>5.4586000000000003E-2</v>
       </c>
       <c r="H8" s="1">
-        <v>913.994000</v>
+        <v>913.99400000000003</v>
       </c>
       <c r="I8" s="1">
-        <v>-170.853000</v>
+        <v>-170.85300000000001</v>
       </c>
       <c r="J8" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="K8" s="1">
         <v>206.884829</v>
       </c>
       <c r="L8" s="1">
-        <v>0.057468</v>
+        <v>5.7467999999999998E-2</v>
       </c>
       <c r="M8" s="1">
-        <v>937.551000</v>
+        <v>937.55100000000004</v>
       </c>
       <c r="N8" s="1">
-        <v>-120.709000</v>
+        <v>-120.709</v>
       </c>
       <c r="O8" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="P8" s="1">
         <v>217.086016</v>
       </c>
       <c r="Q8" s="1">
-        <v>0.060302</v>
+        <v>6.0302000000000001E-2</v>
       </c>
       <c r="R8" s="1">
-        <v>944.284000</v>
+        <v>944.28399999999999</v>
       </c>
       <c r="S8" s="1">
-        <v>-104.162000</v>
+        <v>-104.16200000000001</v>
       </c>
       <c r="T8" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="U8" s="1">
-        <v>227.620050</v>
+        <v>227.62004999999999</v>
       </c>
       <c r="V8" s="1">
-        <v>0.063228</v>
+        <v>6.3228000000000006E-2</v>
       </c>
       <c r="W8" s="1">
-        <v>950.822000</v>
+        <v>950.822</v>
       </c>
       <c r="X8" s="1">
-        <v>-88.637800</v>
+        <v>-88.637799999999999</v>
       </c>
       <c r="Y8" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="Z8" s="1">
-        <v>237.761252</v>
+        <v>237.76125200000001</v>
       </c>
       <c r="AA8" s="1">
-        <v>0.066045</v>
+        <v>6.6045000000000006E-2</v>
       </c>
       <c r="AB8" s="1">
-        <v>957.970000</v>
+        <v>957.97</v>
       </c>
       <c r="AC8" s="1">
-        <v>-76.531700</v>
+        <v>-76.531700000000001</v>
       </c>
       <c r="AD8" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AE8" s="1">
-        <v>248.931655</v>
+        <v>248.93165500000001</v>
       </c>
       <c r="AF8" s="1">
-        <v>0.069148</v>
+        <v>6.9148000000000001E-2</v>
       </c>
       <c r="AG8" s="1">
-        <v>962.647000</v>
+        <v>962.64700000000005</v>
       </c>
       <c r="AH8" s="1">
-        <v>-73.887100</v>
+        <v>-73.887100000000004</v>
       </c>
       <c r="AI8" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AJ8" s="1">
-        <v>259.088265</v>
+        <v>259.08826499999998</v>
       </c>
       <c r="AK8" s="1">
-        <v>0.071969</v>
+        <v>7.1969000000000005E-2</v>
       </c>
       <c r="AL8" s="1">
-        <v>969.754000</v>
+        <v>969.75400000000002</v>
       </c>
       <c r="AM8" s="1">
-        <v>-77.948200</v>
+        <v>-77.9482</v>
       </c>
       <c r="AN8" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AO8" s="1">
-        <v>269.392650</v>
+        <v>269.39265</v>
       </c>
       <c r="AP8" s="1">
-        <v>0.074831</v>
+        <v>7.4830999999999995E-2</v>
       </c>
       <c r="AQ8" s="1">
-        <v>977.675000</v>
+        <v>977.67499999999995</v>
       </c>
       <c r="AR8" s="1">
-        <v>-88.729600</v>
+        <v>-88.729600000000005</v>
       </c>
       <c r="AS8" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AT8" s="1">
         <v>280.041763</v>
       </c>
       <c r="AU8" s="1">
-        <v>0.077789</v>
+        <v>7.7788999999999997E-2</v>
       </c>
       <c r="AV8" s="1">
-        <v>987.284000</v>
+        <v>987.28399999999999</v>
       </c>
       <c r="AW8" s="1">
-        <v>-105.442000</v>
+        <v>-105.44199999999999</v>
       </c>
       <c r="AX8" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AY8" s="1">
         <v>291.166494</v>
       </c>
       <c r="AZ8" s="1">
-        <v>0.080880</v>
+        <v>8.0879999999999994E-2</v>
       </c>
       <c r="BA8" s="1">
-        <v>995.229000</v>
+        <v>995.22900000000004</v>
       </c>
       <c r="BB8" s="1">
-        <v>-120.310000</v>
+        <v>-120.31</v>
       </c>
       <c r="BC8" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BD8" s="1">
-        <v>302.073025</v>
+        <v>302.07302499999997</v>
       </c>
       <c r="BE8" s="1">
-        <v>0.083909</v>
+        <v>8.3908999999999997E-2</v>
       </c>
       <c r="BF8" s="1">
-        <v>1031.980000</v>
+        <v>1031.98</v>
       </c>
       <c r="BG8" s="1">
-        <v>-189.178000</v>
+        <v>-189.178</v>
       </c>
       <c r="BH8" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BI8" s="1">
-        <v>312.890273</v>
+        <v>312.89027299999998</v>
       </c>
       <c r="BJ8" s="1">
-        <v>0.086914</v>
+        <v>8.6914000000000005E-2</v>
       </c>
       <c r="BK8" s="1">
-        <v>1094.790000</v>
+        <v>1094.79</v>
       </c>
       <c r="BL8" s="1">
-        <v>-302.279000</v>
+        <v>-302.279</v>
       </c>
       <c r="BM8" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BN8" s="1">
-        <v>323.746708</v>
+        <v>323.74670800000001</v>
       </c>
       <c r="BO8" s="1">
-        <v>0.089930</v>
+        <v>8.9929999999999996E-2</v>
       </c>
       <c r="BP8" s="1">
-        <v>1197.320000</v>
+        <v>1197.32</v>
       </c>
       <c r="BQ8" s="1">
-        <v>-482.879000</v>
+        <v>-482.87900000000002</v>
       </c>
       <c r="BR8" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BS8" s="1">
-        <v>334.615540</v>
+        <v>334.61554000000001</v>
       </c>
       <c r="BT8" s="1">
-        <v>0.092949</v>
+        <v>9.2949000000000004E-2</v>
       </c>
       <c r="BU8" s="1">
-        <v>1314.010000</v>
+        <v>1314.01</v>
       </c>
       <c r="BV8" s="1">
-        <v>-682.797000</v>
+        <v>-682.79700000000003</v>
       </c>
       <c r="BW8" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BX8" s="1">
-        <v>345.395592</v>
+        <v>345.39559200000002</v>
       </c>
       <c r="BY8" s="1">
-        <v>0.095943</v>
+        <v>9.5943000000000001E-2</v>
       </c>
       <c r="BZ8" s="1">
-        <v>1445.550000</v>
+        <v>1445.55</v>
       </c>
       <c r="CA8" s="1">
-        <v>-896.123000</v>
+        <v>-896.12300000000005</v>
       </c>
       <c r="CB8" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="CC8" s="1">
         <v>357.171111</v>
       </c>
       <c r="CD8" s="1">
-        <v>0.099214</v>
+        <v>9.9213999999999997E-2</v>
       </c>
       <c r="CE8" s="1">
-        <v>1795.280000</v>
+        <v>1795.28</v>
       </c>
       <c r="CF8" s="1">
-        <v>-1404.090000</v>
+        <v>-1404.09</v>
       </c>
       <c r="CG8" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
     </row>
-    <row r="9">
+    <row r="9" spans="1:85">
       <c r="A9" s="1">
-        <v>186.385146</v>
+        <v>186.38514599999999</v>
       </c>
       <c r="B9" s="1">
-        <v>0.051774</v>
+        <v>5.1774000000000001E-2</v>
       </c>
       <c r="C9" s="1">
-        <v>895.637000</v>
+        <v>895.63699999999994</v>
       </c>
       <c r="D9" s="1">
-        <v>-201.994000</v>
+        <v>-201.994</v>
       </c>
       <c r="E9" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="F9" s="1">
         <v>196.785754</v>
       </c>
       <c r="G9" s="1">
-        <v>0.054663</v>
+        <v>5.4663000000000003E-2</v>
       </c>
       <c r="H9" s="1">
-        <v>914.077000</v>
+        <v>914.077</v>
       </c>
       <c r="I9" s="1">
-        <v>-170.887000</v>
+        <v>-170.887</v>
       </c>
       <c r="J9" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="K9" s="1">
-        <v>207.228525</v>
+        <v>207.22852499999999</v>
       </c>
       <c r="L9" s="1">
-        <v>0.057563</v>
+        <v>5.7563000000000003E-2</v>
       </c>
       <c r="M9" s="1">
-        <v>937.398000</v>
+        <v>937.39800000000002</v>
       </c>
       <c r="N9" s="1">
-        <v>-120.828000</v>
+        <v>-120.828</v>
       </c>
       <c r="O9" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="P9" s="1">
         <v>217.431759</v>
       </c>
       <c r="Q9" s="1">
-        <v>0.060398</v>
+        <v>6.0398E-2</v>
       </c>
       <c r="R9" s="1">
-        <v>944.295000</v>
+        <v>944.29499999999996</v>
       </c>
       <c r="S9" s="1">
-        <v>-104.125000</v>
+        <v>-104.125</v>
       </c>
       <c r="T9" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="U9" s="1">
-        <v>227.963777</v>
+        <v>227.96377699999999</v>
       </c>
       <c r="V9" s="1">
-        <v>0.063323</v>
+        <v>6.3323000000000004E-2</v>
       </c>
       <c r="W9" s="1">
-        <v>950.819000</v>
+        <v>950.81899999999996</v>
       </c>
       <c r="X9" s="1">
-        <v>-88.642200</v>
+        <v>-88.642200000000003</v>
       </c>
       <c r="Y9" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="Z9" s="1">
         <v>238.457672</v>
       </c>
       <c r="AA9" s="1">
-        <v>0.066238</v>
+        <v>6.6238000000000005E-2</v>
       </c>
       <c r="AB9" s="1">
-        <v>957.944000</v>
+        <v>957.94399999999996</v>
       </c>
       <c r="AC9" s="1">
-        <v>-76.466100</v>
+        <v>-76.466099999999997</v>
       </c>
       <c r="AD9" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AE9" s="1">
-        <v>249.280341</v>
+        <v>249.28034099999999</v>
       </c>
       <c r="AF9" s="1">
-        <v>0.069245</v>
+        <v>6.9245000000000001E-2</v>
       </c>
       <c r="AG9" s="1">
-        <v>962.650000</v>
+        <v>962.65</v>
       </c>
       <c r="AH9" s="1">
-        <v>-73.897200</v>
+        <v>-73.897199999999998</v>
       </c>
       <c r="AI9" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AJ9" s="1">
         <v>259.440921</v>
       </c>
       <c r="AK9" s="1">
-        <v>0.072067</v>
+        <v>7.2067000000000006E-2</v>
       </c>
       <c r="AL9" s="1">
-        <v>969.758000</v>
+        <v>969.75800000000004</v>
       </c>
       <c r="AM9" s="1">
-        <v>-77.941000</v>
+        <v>-77.941000000000003</v>
       </c>
       <c r="AN9" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AO9" s="1">
-        <v>269.760188</v>
+        <v>269.76018800000003</v>
       </c>
       <c r="AP9" s="1">
-        <v>0.074933</v>
+        <v>7.4933E-2</v>
       </c>
       <c r="AQ9" s="1">
-        <v>977.685000</v>
+        <v>977.68499999999995</v>
       </c>
       <c r="AR9" s="1">
-        <v>-88.724100</v>
+        <v>-88.724100000000007</v>
       </c>
       <c r="AS9" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AT9" s="1">
-        <v>280.730669</v>
+        <v>280.73066899999998</v>
       </c>
       <c r="AU9" s="1">
-        <v>0.077981</v>
+        <v>7.7980999999999995E-2</v>
       </c>
       <c r="AV9" s="1">
-        <v>987.290000</v>
+        <v>987.29</v>
       </c>
       <c r="AW9" s="1">
-        <v>-105.453000</v>
+        <v>-105.453</v>
       </c>
       <c r="AX9" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AY9" s="1">
-        <v>291.827661</v>
+        <v>291.82766099999998</v>
       </c>
       <c r="AZ9" s="1">
-        <v>0.081063</v>
+        <v>8.1062999999999996E-2</v>
       </c>
       <c r="BA9" s="1">
-        <v>995.245000</v>
+        <v>995.245</v>
       </c>
       <c r="BB9" s="1">
-        <v>-120.313000</v>
+        <v>-120.313</v>
       </c>
       <c r="BC9" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BD9" s="1">
-        <v>302.480767</v>
+        <v>302.48076700000001</v>
       </c>
       <c r="BE9" s="1">
-        <v>0.084022</v>
+        <v>8.4021999999999999E-2</v>
       </c>
       <c r="BF9" s="1">
-        <v>1031.980000</v>
+        <v>1031.98</v>
       </c>
       <c r="BG9" s="1">
-        <v>-189.200000</v>
+        <v>-189.2</v>
       </c>
       <c r="BH9" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BI9" s="1">
-        <v>313.201297</v>
+        <v>313.20129700000001</v>
       </c>
       <c r="BJ9" s="1">
-        <v>0.087000</v>
+        <v>8.6999999999999994E-2</v>
       </c>
       <c r="BK9" s="1">
-        <v>1094.780000</v>
+        <v>1094.78</v>
       </c>
       <c r="BL9" s="1">
-        <v>-302.315000</v>
+        <v>-302.315</v>
       </c>
       <c r="BM9" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BN9" s="1">
-        <v>324.173267</v>
+        <v>324.17326700000001</v>
       </c>
       <c r="BO9" s="1">
-        <v>0.090048</v>
+        <v>9.0048000000000003E-2</v>
       </c>
       <c r="BP9" s="1">
-        <v>1197.270000</v>
+        <v>1197.27</v>
       </c>
       <c r="BQ9" s="1">
-        <v>-482.876000</v>
+        <v>-482.87599999999998</v>
       </c>
       <c r="BR9" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BS9" s="1">
-        <v>335.040612</v>
+        <v>335.04061200000001</v>
       </c>
       <c r="BT9" s="1">
-        <v>0.093067</v>
+        <v>9.3066999999999997E-2</v>
       </c>
       <c r="BU9" s="1">
-        <v>1313.990000</v>
+        <v>1313.99</v>
       </c>
       <c r="BV9" s="1">
-        <v>-682.794000</v>
+        <v>-682.79399999999998</v>
       </c>
       <c r="BW9" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BX9" s="1">
         <v>345.814213</v>
       </c>
       <c r="BY9" s="1">
-        <v>0.096060</v>
+        <v>9.6060000000000006E-2</v>
       </c>
       <c r="BZ9" s="1">
-        <v>1445.560000</v>
+        <v>1445.56</v>
       </c>
       <c r="CA9" s="1">
-        <v>-896.119000</v>
+        <v>-896.11900000000003</v>
       </c>
       <c r="CB9" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="CC9" s="1">
-        <v>357.688438</v>
+        <v>357.68843800000002</v>
       </c>
       <c r="CD9" s="1">
-        <v>0.099358</v>
+        <v>9.9358000000000002E-2</v>
       </c>
       <c r="CE9" s="1">
-        <v>1795.380000</v>
+        <v>1795.38</v>
       </c>
       <c r="CF9" s="1">
-        <v>-1404.990000</v>
+        <v>-1404.99</v>
       </c>
       <c r="CG9" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
     </row>
-    <row r="10">
+    <row r="10" spans="1:85">
       <c r="A10" s="1">
-        <v>186.729368</v>
+        <v>186.72936799999999</v>
       </c>
       <c r="B10" s="1">
-        <v>0.051869</v>
+        <v>5.1868999999999998E-2</v>
       </c>
       <c r="C10" s="1">
-        <v>895.939000</v>
+        <v>895.93899999999996</v>
       </c>
       <c r="D10" s="1">
-        <v>-202.096000</v>
+        <v>-202.096</v>
       </c>
       <c r="E10" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="F10" s="1">
-        <v>197.132955</v>
+        <v>197.13295500000001</v>
       </c>
       <c r="G10" s="1">
-        <v>0.054759</v>
+        <v>5.4759000000000002E-2</v>
       </c>
       <c r="H10" s="1">
-        <v>914.229000</v>
+        <v>914.22900000000004</v>
       </c>
       <c r="I10" s="1">
-        <v>-170.834000</v>
+        <v>-170.834</v>
       </c>
       <c r="J10" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="K10" s="1">
         <v>207.579196</v>
       </c>
       <c r="L10" s="1">
-        <v>0.057661</v>
+        <v>5.7660999999999997E-2</v>
       </c>
       <c r="M10" s="1">
-        <v>937.513000</v>
+        <v>937.51300000000003</v>
       </c>
       <c r="N10" s="1">
-        <v>-120.625000</v>
+        <v>-120.625</v>
       </c>
       <c r="O10" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="P10" s="1">
-        <v>218.129600</v>
+        <v>218.12960000000001</v>
       </c>
       <c r="Q10" s="1">
-        <v>0.060592</v>
+        <v>6.0592E-2</v>
       </c>
       <c r="R10" s="1">
-        <v>944.321000</v>
+        <v>944.32100000000003</v>
       </c>
       <c r="S10" s="1">
-        <v>-104.122000</v>
+        <v>-104.122</v>
       </c>
       <c r="T10" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="U10" s="1">
-        <v>228.651728</v>
+        <v>228.65172799999999</v>
       </c>
       <c r="V10" s="1">
-        <v>0.063514</v>
+        <v>6.3514000000000001E-2</v>
       </c>
       <c r="W10" s="1">
-        <v>950.893000</v>
+        <v>950.89300000000003</v>
       </c>
       <c r="X10" s="1">
-        <v>-88.679100</v>
+        <v>-88.679100000000005</v>
       </c>
       <c r="Y10" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="Z10" s="1">
-        <v>238.806819</v>
+        <v>238.80681899999999</v>
       </c>
       <c r="AA10" s="1">
-        <v>0.066335</v>
+        <v>6.6335000000000005E-2</v>
       </c>
       <c r="AB10" s="1">
-        <v>957.940000</v>
+        <v>957.94</v>
       </c>
       <c r="AC10" s="1">
-        <v>-76.608400</v>
+        <v>-76.608400000000003</v>
       </c>
       <c r="AD10" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AE10" s="1">
-        <v>249.624567</v>
+        <v>249.62456700000001</v>
       </c>
       <c r="AF10" s="1">
-        <v>0.069340</v>
+        <v>6.9339999999999999E-2</v>
       </c>
       <c r="AG10" s="1">
-        <v>962.642000</v>
+        <v>962.64200000000005</v>
       </c>
       <c r="AH10" s="1">
-        <v>-73.925300</v>
+        <v>-73.925299999999993</v>
       </c>
       <c r="AI10" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AJ10" s="1">
-        <v>259.787624</v>
+        <v>259.78762399999999</v>
       </c>
       <c r="AK10" s="1">
-        <v>0.072163</v>
+        <v>7.2163000000000005E-2</v>
       </c>
       <c r="AL10" s="1">
-        <v>969.746000</v>
+        <v>969.74599999999998</v>
       </c>
       <c r="AM10" s="1">
-        <v>-77.911900</v>
+        <v>-77.911900000000003</v>
       </c>
       <c r="AN10" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AO10" s="1">
-        <v>270.428762</v>
+        <v>270.42876200000001</v>
       </c>
       <c r="AP10" s="1">
-        <v>0.075119</v>
+        <v>7.5119000000000005E-2</v>
       </c>
       <c r="AQ10" s="1">
-        <v>977.690000</v>
+        <v>977.69</v>
       </c>
       <c r="AR10" s="1">
-        <v>-88.719800</v>
+        <v>-88.719800000000006</v>
       </c>
       <c r="AS10" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AT10" s="1">
-        <v>281.171611</v>
+        <v>281.17161099999998</v>
       </c>
       <c r="AU10" s="1">
-        <v>0.078103</v>
+        <v>7.8103000000000006E-2</v>
       </c>
       <c r="AV10" s="1">
-        <v>987.304000</v>
+        <v>987.30399999999997</v>
       </c>
       <c r="AW10" s="1">
-        <v>-105.451000</v>
+        <v>-105.45099999999999</v>
       </c>
       <c r="AX10" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AY10" s="1">
-        <v>292.254220</v>
+        <v>292.25421999999998</v>
       </c>
       <c r="AZ10" s="1">
-        <v>0.081182</v>
+        <v>8.1182000000000004E-2</v>
       </c>
       <c r="BA10" s="1">
-        <v>995.224000</v>
+        <v>995.22400000000005</v>
       </c>
       <c r="BB10" s="1">
-        <v>-120.324000</v>
+        <v>-120.324</v>
       </c>
       <c r="BC10" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BD10" s="1">
-        <v>302.871087</v>
+        <v>302.87108699999999</v>
       </c>
       <c r="BE10" s="1">
-        <v>0.084131</v>
+        <v>8.4130999999999997E-2</v>
       </c>
       <c r="BF10" s="1">
-        <v>1031.990000</v>
+        <v>1031.99</v>
       </c>
       <c r="BG10" s="1">
-        <v>-189.183000</v>
+        <v>-189.18299999999999</v>
       </c>
       <c r="BH10" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BI10" s="1">
-        <v>313.589632</v>
+        <v>313.58963199999999</v>
       </c>
       <c r="BJ10" s="1">
-        <v>0.087108</v>
+        <v>8.7108000000000005E-2</v>
       </c>
       <c r="BK10" s="1">
-        <v>1094.780000</v>
+        <v>1094.78</v>
       </c>
       <c r="BL10" s="1">
-        <v>-302.326000</v>
+        <v>-302.32600000000002</v>
       </c>
       <c r="BM10" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BN10" s="1">
-        <v>324.568115</v>
+        <v>324.56811499999998</v>
       </c>
       <c r="BO10" s="1">
-        <v>0.090158</v>
+        <v>9.0158000000000002E-2</v>
       </c>
       <c r="BP10" s="1">
-        <v>1197.230000</v>
+        <v>1197.23</v>
       </c>
       <c r="BQ10" s="1">
-        <v>-482.874000</v>
+        <v>-482.87400000000002</v>
       </c>
       <c r="BR10" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BS10" s="1">
-        <v>335.474612</v>
+        <v>335.47461199999998</v>
       </c>
       <c r="BT10" s="1">
-        <v>0.093187</v>
+        <v>9.3187000000000006E-2</v>
       </c>
       <c r="BU10" s="1">
-        <v>1313.820000</v>
+        <v>1313.82</v>
       </c>
       <c r="BV10" s="1">
-        <v>-682.829000</v>
+        <v>-682.82899999999995</v>
       </c>
       <c r="BW10" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BX10" s="1">
-        <v>346.267100</v>
+        <v>346.26710000000003</v>
       </c>
       <c r="BY10" s="1">
-        <v>0.096185</v>
+        <v>9.6185000000000007E-2</v>
       </c>
       <c r="BZ10" s="1">
-        <v>1445.510000</v>
+        <v>1445.51</v>
       </c>
       <c r="CA10" s="1">
-        <v>-896.082000</v>
+        <v>-896.08199999999999</v>
       </c>
       <c r="CB10" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="CC10" s="1">
-        <v>358.241974</v>
+        <v>358.24197400000003</v>
       </c>
       <c r="CD10" s="1">
-        <v>0.099512</v>
+        <v>9.9512000000000003E-2</v>
       </c>
       <c r="CE10" s="1">
-        <v>1794.430000</v>
+        <v>1794.43</v>
       </c>
       <c r="CF10" s="1">
-        <v>-1405.190000</v>
+        <v>-1405.19</v>
       </c>
       <c r="CG10" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
     </row>
-    <row r="11">
+    <row r="11" spans="1:85">
       <c r="A11" s="1">
-        <v>187.068631</v>
+        <v>187.06863100000001</v>
       </c>
       <c r="B11" s="1">
-        <v>0.051964</v>
+        <v>5.1964000000000003E-2</v>
       </c>
       <c r="C11" s="1">
-        <v>896.062000</v>
+        <v>896.06200000000001</v>
       </c>
       <c r="D11" s="1">
-        <v>-202.126000</v>
+        <v>-202.126</v>
       </c>
       <c r="E11" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="F11" s="1">
-        <v>197.477179</v>
+        <v>197.47717900000001</v>
       </c>
       <c r="G11" s="1">
-        <v>0.054855</v>
+        <v>5.4855000000000001E-2</v>
       </c>
       <c r="H11" s="1">
-        <v>914.153000</v>
+        <v>914.15300000000002</v>
       </c>
       <c r="I11" s="1">
-        <v>-170.946000</v>
+        <v>-170.946</v>
       </c>
       <c r="J11" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="K11" s="1">
-        <v>208.271115</v>
+        <v>208.27111500000001</v>
       </c>
       <c r="L11" s="1">
-        <v>0.057853</v>
+        <v>5.7853000000000002E-2</v>
       </c>
       <c r="M11" s="1">
-        <v>937.445000</v>
+        <v>937.44500000000005</v>
       </c>
       <c r="N11" s="1">
-        <v>-120.753000</v>
+        <v>-120.753</v>
       </c>
       <c r="O11" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="P11" s="1">
         <v>218.477822</v>
       </c>
       <c r="Q11" s="1">
-        <v>0.060688</v>
+        <v>6.0687999999999999E-2</v>
       </c>
       <c r="R11" s="1">
-        <v>944.327000</v>
+        <v>944.327</v>
       </c>
       <c r="S11" s="1">
-        <v>-104.142000</v>
+        <v>-104.142</v>
       </c>
       <c r="T11" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="U11" s="1">
         <v>228.993504</v>
       </c>
       <c r="V11" s="1">
-        <v>0.063609</v>
+        <v>6.3608999999999999E-2</v>
       </c>
       <c r="W11" s="1">
-        <v>950.810000</v>
+        <v>950.81</v>
       </c>
       <c r="X11" s="1">
-        <v>-88.649300</v>
+        <v>-88.649299999999997</v>
       </c>
       <c r="Y11" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="Z11" s="1">
-        <v>239.158978</v>
+        <v>239.15897799999999</v>
       </c>
       <c r="AA11" s="1">
-        <v>0.066433</v>
+        <v>6.6433000000000006E-2</v>
       </c>
       <c r="AB11" s="1">
-        <v>957.911000</v>
+        <v>957.91099999999994</v>
       </c>
       <c r="AC11" s="1">
-        <v>-76.653600</v>
+        <v>-76.653599999999997</v>
       </c>
       <c r="AD11" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AE11" s="1">
         <v>250.275848</v>
       </c>
       <c r="AF11" s="1">
-        <v>0.069521</v>
+        <v>6.9520999999999999E-2</v>
       </c>
       <c r="AG11" s="1">
-        <v>962.618000</v>
+        <v>962.61800000000005</v>
       </c>
       <c r="AH11" s="1">
-        <v>-73.923200</v>
+        <v>-73.923199999999994</v>
       </c>
       <c r="AI11" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AJ11" s="1">
-        <v>260.454247</v>
+        <v>260.45424700000001</v>
       </c>
       <c r="AK11" s="1">
-        <v>0.072348</v>
+        <v>7.2347999999999996E-2</v>
       </c>
       <c r="AL11" s="1">
-        <v>969.741000</v>
+        <v>969.74099999999999</v>
       </c>
       <c r="AM11" s="1">
-        <v>-77.922400</v>
+        <v>-77.922399999999996</v>
       </c>
       <c r="AN11" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AO11" s="1">
         <v>270.855322</v>
       </c>
       <c r="AP11" s="1">
-        <v>0.075238</v>
+        <v>7.5237999999999999E-2</v>
       </c>
       <c r="AQ11" s="1">
-        <v>977.680000</v>
+        <v>977.68</v>
       </c>
       <c r="AR11" s="1">
-        <v>-88.740300</v>
+        <v>-88.740300000000005</v>
       </c>
       <c r="AS11" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AT11" s="1">
-        <v>281.534726</v>
+        <v>281.53472599999998</v>
       </c>
       <c r="AU11" s="1">
-        <v>0.078204</v>
+        <v>7.8203999999999996E-2</v>
       </c>
       <c r="AV11" s="1">
-        <v>987.270000</v>
+        <v>987.27</v>
       </c>
       <c r="AW11" s="1">
-        <v>-105.454000</v>
+        <v>-105.45399999999999</v>
       </c>
       <c r="AX11" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AY11" s="1">
-        <v>292.631676</v>
+        <v>292.63167600000003</v>
       </c>
       <c r="AZ11" s="1">
-        <v>0.081287</v>
+        <v>8.1286999999999998E-2</v>
       </c>
       <c r="BA11" s="1">
-        <v>995.222000</v>
+        <v>995.22199999999998</v>
       </c>
       <c r="BB11" s="1">
-        <v>-120.327000</v>
+        <v>-120.327</v>
       </c>
       <c r="BC11" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BD11" s="1">
-        <v>303.230686</v>
+        <v>303.23068599999999</v>
       </c>
       <c r="BE11" s="1">
-        <v>0.084231</v>
+        <v>8.4231E-2</v>
       </c>
       <c r="BF11" s="1">
-        <v>1032.000000</v>
+        <v>1032</v>
       </c>
       <c r="BG11" s="1">
-        <v>-189.160000</v>
+        <v>-189.16</v>
       </c>
       <c r="BH11" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BI11" s="1">
-        <v>314.007264</v>
+        <v>314.00726400000002</v>
       </c>
       <c r="BJ11" s="1">
-        <v>0.087224</v>
+        <v>8.7223999999999996E-2</v>
       </c>
       <c r="BK11" s="1">
-        <v>1094.770000</v>
+        <v>1094.77</v>
       </c>
       <c r="BL11" s="1">
-        <v>-302.303000</v>
+        <v>-302.303</v>
       </c>
       <c r="BM11" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BN11" s="1">
         <v>324.993649</v>
       </c>
       <c r="BO11" s="1">
-        <v>0.090276</v>
+        <v>9.0275999999999995E-2</v>
       </c>
       <c r="BP11" s="1">
-        <v>1197.270000</v>
+        <v>1197.27</v>
       </c>
       <c r="BQ11" s="1">
-        <v>-482.902000</v>
+        <v>-482.90199999999999</v>
       </c>
       <c r="BR11" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BS11" s="1">
-        <v>335.882322</v>
+        <v>335.88232199999999</v>
       </c>
       <c r="BT11" s="1">
-        <v>0.093301</v>
+        <v>9.3300999999999995E-2</v>
       </c>
       <c r="BU11" s="1">
-        <v>1313.770000</v>
+        <v>1313.77</v>
       </c>
       <c r="BV11" s="1">
-        <v>-682.817000</v>
+        <v>-682.81700000000001</v>
       </c>
       <c r="BW11" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BX11" s="1">
         <v>346.680724</v>
       </c>
       <c r="BY11" s="1">
-        <v>0.096300</v>
+        <v>9.6299999999999997E-2</v>
       </c>
       <c r="BZ11" s="1">
-        <v>1445.550000</v>
+        <v>1445.55</v>
       </c>
       <c r="CA11" s="1">
-        <v>-896.158000</v>
+        <v>-896.15800000000002</v>
       </c>
       <c r="CB11" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="CC11" s="1">
-        <v>358.772240</v>
+        <v>358.77224000000001</v>
       </c>
       <c r="CD11" s="1">
-        <v>0.099659</v>
+        <v>9.9658999999999998E-2</v>
       </c>
       <c r="CE11" s="1">
-        <v>1795.310000</v>
+        <v>1795.31</v>
       </c>
       <c r="CF11" s="1">
-        <v>-1404.570000</v>
+        <v>-1404.57</v>
       </c>
       <c r="CG11" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
     </row>
-    <row r="12">
+    <row r="12" spans="1:85">
       <c r="A12" s="1">
         <v>187.751159</v>
       </c>
       <c r="B12" s="1">
-        <v>0.052153</v>
+        <v>5.2152999999999998E-2</v>
       </c>
       <c r="C12" s="1">
-        <v>896.059000</v>
+        <v>896.05899999999997</v>
       </c>
       <c r="D12" s="1">
-        <v>-202.053000</v>
+        <v>-202.053</v>
       </c>
       <c r="E12" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="F12" s="1">
-        <v>198.194921</v>
+        <v>198.19492099999999</v>
       </c>
       <c r="G12" s="1">
-        <v>0.055054</v>
+        <v>5.5053999999999999E-2</v>
       </c>
       <c r="H12" s="1">
-        <v>914.034000</v>
+        <v>914.03399999999999</v>
       </c>
       <c r="I12" s="1">
-        <v>-170.807000</v>
+        <v>-170.80699999999999</v>
       </c>
       <c r="J12" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="K12" s="1">
-        <v>208.620300</v>
+        <v>208.62029999999999</v>
       </c>
       <c r="L12" s="1">
-        <v>0.057950</v>
+        <v>5.7950000000000002E-2</v>
       </c>
       <c r="M12" s="1">
-        <v>937.472000</v>
+        <v>937.47199999999998</v>
       </c>
       <c r="N12" s="1">
-        <v>-120.967000</v>
+        <v>-120.967</v>
       </c>
       <c r="O12" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="P12" s="1">
         <v>218.829453</v>
       </c>
       <c r="Q12" s="1">
-        <v>0.060786</v>
+        <v>6.0786E-2</v>
       </c>
       <c r="R12" s="1">
-        <v>944.301000</v>
+        <v>944.30100000000004</v>
       </c>
       <c r="S12" s="1">
-        <v>-104.173000</v>
+        <v>-104.173</v>
       </c>
       <c r="T12" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="U12" s="1">
-        <v>229.338687</v>
+        <v>229.33868699999999</v>
       </c>
       <c r="V12" s="1">
-        <v>0.063705</v>
+        <v>6.3704999999999998E-2</v>
       </c>
       <c r="W12" s="1">
-        <v>950.849000</v>
+        <v>950.84900000000005</v>
       </c>
       <c r="X12" s="1">
-        <v>-88.710100</v>
+        <v>-88.710099999999997</v>
       </c>
       <c r="Y12" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="Z12" s="1">
         <v>239.802322</v>
       </c>
       <c r="AA12" s="1">
-        <v>0.066612</v>
+        <v>6.6612000000000005E-2</v>
       </c>
       <c r="AB12" s="1">
-        <v>957.919000</v>
+        <v>957.91899999999998</v>
       </c>
       <c r="AC12" s="1">
-        <v>-76.512200</v>
+        <v>-76.512200000000007</v>
       </c>
       <c r="AD12" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AE12" s="1">
-        <v>250.657732</v>
+        <v>250.65773200000001</v>
       </c>
       <c r="AF12" s="1">
-        <v>0.069627</v>
+        <v>6.9626999999999994E-2</v>
       </c>
       <c r="AG12" s="1">
-        <v>962.641000</v>
+        <v>962.64099999999996</v>
       </c>
       <c r="AH12" s="1">
-        <v>-73.923500</v>
+        <v>-73.923500000000004</v>
       </c>
       <c r="AI12" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AJ12" s="1">
-        <v>260.835639</v>
+        <v>260.83563900000001</v>
       </c>
       <c r="AK12" s="1">
-        <v>0.072454</v>
+        <v>7.2454000000000005E-2</v>
       </c>
       <c r="AL12" s="1">
-        <v>969.766000</v>
+        <v>969.76599999999996</v>
       </c>
       <c r="AM12" s="1">
-        <v>-77.934000</v>
+        <v>-77.933999999999997</v>
       </c>
       <c r="AN12" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AO12" s="1">
-        <v>271.237736</v>
+        <v>271.23773599999998</v>
       </c>
       <c r="AP12" s="1">
-        <v>0.075344</v>
+        <v>7.5343999999999994E-2</v>
       </c>
       <c r="AQ12" s="1">
-        <v>977.708000</v>
+        <v>977.70799999999997</v>
       </c>
       <c r="AR12" s="1">
-        <v>-88.748500</v>
+        <v>-88.748500000000007</v>
       </c>
       <c r="AS12" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AT12" s="1">
-        <v>281.899775</v>
+        <v>281.89977499999998</v>
       </c>
       <c r="AU12" s="1">
-        <v>0.078305</v>
+        <v>7.8305E-2</v>
       </c>
       <c r="AV12" s="1">
-        <v>987.292000</v>
+        <v>987.29200000000003</v>
       </c>
       <c r="AW12" s="1">
-        <v>-105.443000</v>
+        <v>-105.443</v>
       </c>
       <c r="AX12" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AY12" s="1">
-        <v>293.007147</v>
+        <v>293.00714699999997</v>
       </c>
       <c r="AZ12" s="1">
-        <v>0.081391</v>
+        <v>8.1391000000000005E-2</v>
       </c>
       <c r="BA12" s="1">
-        <v>995.246000</v>
+        <v>995.24599999999998</v>
       </c>
       <c r="BB12" s="1">
-        <v>-120.325000</v>
+        <v>-120.325</v>
       </c>
       <c r="BC12" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BD12" s="1">
-        <v>303.651821</v>
+        <v>303.65182099999998</v>
       </c>
       <c r="BE12" s="1">
-        <v>0.084348</v>
+        <v>8.4348000000000006E-2</v>
       </c>
       <c r="BF12" s="1">
-        <v>1031.990000</v>
+        <v>1031.99</v>
       </c>
       <c r="BG12" s="1">
-        <v>-189.187000</v>
+        <v>-189.18700000000001</v>
       </c>
       <c r="BH12" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BI12" s="1">
         <v>314.340576</v>
       </c>
       <c r="BJ12" s="1">
-        <v>0.087317</v>
+        <v>8.7317000000000006E-2</v>
       </c>
       <c r="BK12" s="1">
-        <v>1094.800000</v>
+        <v>1094.8</v>
       </c>
       <c r="BL12" s="1">
-        <v>-302.311000</v>
+        <v>-302.31099999999998</v>
       </c>
       <c r="BM12" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BN12" s="1">
-        <v>325.390944</v>
+        <v>325.39094399999999</v>
       </c>
       <c r="BO12" s="1">
-        <v>0.090386</v>
+        <v>9.0385999999999994E-2</v>
       </c>
       <c r="BP12" s="1">
-        <v>1197.310000</v>
+        <v>1197.31</v>
       </c>
       <c r="BQ12" s="1">
-        <v>-482.890000</v>
+        <v>-482.89</v>
       </c>
       <c r="BR12" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BS12" s="1">
-        <v>336.309378</v>
+        <v>336.30937799999998</v>
       </c>
       <c r="BT12" s="1">
-        <v>0.093419</v>
+        <v>9.3419000000000002E-2</v>
       </c>
       <c r="BU12" s="1">
-        <v>1313.600000</v>
+        <v>1313.6</v>
       </c>
       <c r="BV12" s="1">
-        <v>-682.754000</v>
+        <v>-682.75400000000002</v>
       </c>
       <c r="BW12" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BX12" s="1">
-        <v>347.105308</v>
+        <v>347.10530799999998</v>
       </c>
       <c r="BY12" s="1">
-        <v>0.096418</v>
+        <v>9.6418000000000004E-2</v>
       </c>
       <c r="BZ12" s="1">
-        <v>1445.470000</v>
+        <v>1445.47</v>
       </c>
       <c r="CA12" s="1">
-        <v>-896.092000</v>
+        <v>-896.09199999999998</v>
       </c>
       <c r="CB12" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="CC12" s="1">
-        <v>359.291508</v>
+        <v>359.29150800000002</v>
       </c>
       <c r="CD12" s="1">
-        <v>0.099803</v>
+        <v>9.9803000000000003E-2</v>
       </c>
       <c r="CE12" s="1">
-        <v>1794.640000</v>
+        <v>1794.64</v>
       </c>
       <c r="CF12" s="1">
-        <v>-1403.750000</v>
+        <v>-1403.75</v>
       </c>
       <c r="CG12" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
     </row>
-    <row r="13">
+    <row r="13" spans="1:85">
       <c r="A13" s="1">
-        <v>188.098326</v>
+        <v>188.09832599999999</v>
       </c>
       <c r="B13" s="1">
-        <v>0.052250</v>
+        <v>5.2249999999999998E-2</v>
       </c>
       <c r="C13" s="1">
-        <v>895.919000</v>
+        <v>895.91899999999998</v>
       </c>
       <c r="D13" s="1">
-        <v>-202.038000</v>
+        <v>-202.03800000000001</v>
       </c>
       <c r="E13" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="F13" s="1">
-        <v>198.522248</v>
+        <v>198.52224799999999</v>
       </c>
       <c r="G13" s="1">
-        <v>0.055145</v>
+        <v>5.5145E-2</v>
       </c>
       <c r="H13" s="1">
-        <v>914.153000</v>
+        <v>914.15300000000002</v>
       </c>
       <c r="I13" s="1">
-        <v>-171.018000</v>
+        <v>-171.018</v>
       </c>
       <c r="J13" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="K13" s="1">
-        <v>208.964522</v>
+        <v>208.96452199999999</v>
       </c>
       <c r="L13" s="1">
-        <v>0.058046</v>
+        <v>5.8046E-2</v>
       </c>
       <c r="M13" s="1">
-        <v>937.582000</v>
+        <v>937.58199999999999</v>
       </c>
       <c r="N13" s="1">
-        <v>-120.817000</v>
+        <v>-120.81699999999999</v>
       </c>
       <c r="O13" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="P13" s="1">
-        <v>219.478220</v>
+        <v>219.47821999999999</v>
       </c>
       <c r="Q13" s="1">
-        <v>0.060966</v>
+        <v>6.0965999999999999E-2</v>
       </c>
       <c r="R13" s="1">
-        <v>944.303000</v>
+        <v>944.303</v>
       </c>
       <c r="S13" s="1">
-        <v>-104.149000</v>
+        <v>-104.149</v>
       </c>
       <c r="T13" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="U13" s="1">
         <v>230.007791</v>
       </c>
       <c r="V13" s="1">
-        <v>0.063891</v>
+        <v>6.3891000000000003E-2</v>
       </c>
       <c r="W13" s="1">
-        <v>950.866000</v>
+        <v>950.86599999999999</v>
       </c>
       <c r="X13" s="1">
-        <v>-88.702400</v>
+        <v>-88.702399999999997</v>
       </c>
       <c r="Y13" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="Z13" s="1">
         <v>240.203057</v>
       </c>
       <c r="AA13" s="1">
-        <v>0.066723</v>
+        <v>6.6723000000000005E-2</v>
       </c>
       <c r="AB13" s="1">
-        <v>957.903000</v>
+        <v>957.90300000000002</v>
       </c>
       <c r="AC13" s="1">
-        <v>-76.584600</v>
+        <v>-76.584599999999995</v>
       </c>
       <c r="AD13" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AE13" s="1">
-        <v>250.995043</v>
+        <v>250.99504300000001</v>
       </c>
       <c r="AF13" s="1">
-        <v>0.069721</v>
+        <v>6.9721000000000005E-2</v>
       </c>
       <c r="AG13" s="1">
-        <v>962.624000</v>
+        <v>962.62400000000002</v>
       </c>
       <c r="AH13" s="1">
-        <v>-73.906300</v>
+        <v>-73.906300000000002</v>
       </c>
       <c r="AI13" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AJ13" s="1">
-        <v>261.181882</v>
+        <v>261.18188199999997</v>
       </c>
       <c r="AK13" s="1">
-        <v>0.072551</v>
+        <v>7.2551000000000004E-2</v>
       </c>
       <c r="AL13" s="1">
-        <v>969.738000</v>
+        <v>969.73800000000006</v>
       </c>
       <c r="AM13" s="1">
-        <v>-77.944500</v>
+        <v>-77.944500000000005</v>
       </c>
       <c r="AN13" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AO13" s="1">
-        <v>271.595383</v>
+        <v>271.59538300000003</v>
       </c>
       <c r="AP13" s="1">
-        <v>0.075443</v>
+        <v>7.5442999999999996E-2</v>
       </c>
       <c r="AQ13" s="1">
-        <v>977.694000</v>
+        <v>977.69399999999996</v>
       </c>
       <c r="AR13" s="1">
-        <v>-88.746500</v>
+        <v>-88.746499999999997</v>
       </c>
       <c r="AS13" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AT13" s="1">
-        <v>282.321374</v>
+        <v>282.32137399999999</v>
       </c>
       <c r="AU13" s="1">
-        <v>0.078423</v>
+        <v>7.8423000000000007E-2</v>
       </c>
       <c r="AV13" s="1">
-        <v>987.259000</v>
+        <v>987.25900000000001</v>
       </c>
       <c r="AW13" s="1">
-        <v>-105.448000</v>
+        <v>-105.44799999999999</v>
       </c>
       <c r="AX13" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AY13" s="1">
-        <v>293.432720</v>
+        <v>293.43272000000002</v>
       </c>
       <c r="AZ13" s="1">
-        <v>0.081509</v>
+        <v>8.1508999999999998E-2</v>
       </c>
       <c r="BA13" s="1">
-        <v>995.246000</v>
+        <v>995.24599999999998</v>
       </c>
       <c r="BB13" s="1">
-        <v>-120.324000</v>
+        <v>-120.324</v>
       </c>
       <c r="BC13" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BD13" s="1">
-        <v>303.955342</v>
+        <v>303.95534199999997</v>
       </c>
       <c r="BE13" s="1">
-        <v>0.084432</v>
+        <v>8.4431999999999993E-2</v>
       </c>
       <c r="BF13" s="1">
-        <v>1032.010000</v>
+        <v>1032.01</v>
       </c>
       <c r="BG13" s="1">
-        <v>-189.210000</v>
+        <v>-189.21</v>
       </c>
       <c r="BH13" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BI13" s="1">
-        <v>314.718038</v>
+        <v>314.71803799999998</v>
       </c>
       <c r="BJ13" s="1">
-        <v>0.087422</v>
+        <v>8.7422E-2</v>
       </c>
       <c r="BK13" s="1">
-        <v>1094.790000</v>
+        <v>1094.79</v>
       </c>
       <c r="BL13" s="1">
-        <v>-302.329000</v>
+        <v>-302.32900000000001</v>
       </c>
       <c r="BM13" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BN13" s="1">
-        <v>325.811089</v>
+        <v>325.81108899999998</v>
       </c>
       <c r="BO13" s="1">
-        <v>0.090503</v>
+        <v>9.0503E-2</v>
       </c>
       <c r="BP13" s="1">
-        <v>1197.300000</v>
+        <v>1197.3</v>
       </c>
       <c r="BQ13" s="1">
-        <v>-482.920000</v>
+        <v>-482.92</v>
       </c>
       <c r="BR13" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BS13" s="1">
-        <v>336.721059</v>
+        <v>336.72105900000003</v>
       </c>
       <c r="BT13" s="1">
-        <v>0.093534</v>
+        <v>9.3534000000000006E-2</v>
       </c>
       <c r="BU13" s="1">
-        <v>1313.630000</v>
+        <v>1313.63</v>
       </c>
       <c r="BV13" s="1">
-        <v>-682.667000</v>
+        <v>-682.66700000000003</v>
       </c>
       <c r="BW13" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BX13" s="1">
-        <v>347.552691</v>
+        <v>347.55269099999998</v>
       </c>
       <c r="BY13" s="1">
-        <v>0.096542</v>
+        <v>9.6542000000000003E-2</v>
       </c>
       <c r="BZ13" s="1">
-        <v>1445.470000</v>
+        <v>1445.47</v>
       </c>
       <c r="CA13" s="1">
-        <v>-896.157000</v>
+        <v>-896.15700000000004</v>
       </c>
       <c r="CB13" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="CC13" s="1">
-        <v>359.809331</v>
+        <v>359.80933099999999</v>
       </c>
       <c r="CD13" s="1">
-        <v>0.099947</v>
+        <v>9.9946999999999994E-2</v>
       </c>
       <c r="CE13" s="1">
-        <v>1793.540000</v>
+        <v>1793.54</v>
       </c>
       <c r="CF13" s="1">
-        <v>-1404.520000</v>
+        <v>-1404.52</v>
       </c>
       <c r="CG13" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
     </row>
-    <row r="14">
+    <row r="14" spans="1:85">
       <c r="A14" s="1">
         <v>188.439573</v>
       </c>
       <c r="B14" s="1">
-        <v>0.052344</v>
+        <v>5.2344000000000002E-2</v>
       </c>
       <c r="C14" s="1">
-        <v>895.855000</v>
+        <v>895.85500000000002</v>
       </c>
       <c r="D14" s="1">
-        <v>-202.081000</v>
+        <v>-202.08099999999999</v>
       </c>
       <c r="E14" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="F14" s="1">
-        <v>199.174489</v>
+        <v>199.17448899999999</v>
       </c>
       <c r="G14" s="1">
-        <v>0.055326</v>
+        <v>5.5326E-2</v>
       </c>
       <c r="H14" s="1">
-        <v>914.221000</v>
+        <v>914.221</v>
       </c>
       <c r="I14" s="1">
-        <v>-170.793000</v>
+        <v>-170.79300000000001</v>
       </c>
       <c r="J14" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="K14" s="1">
-        <v>209.607692</v>
+        <v>209.60769199999999</v>
       </c>
       <c r="L14" s="1">
-        <v>0.058224</v>
+        <v>5.8223999999999998E-2</v>
       </c>
       <c r="M14" s="1">
-        <v>937.480000</v>
+        <v>937.48</v>
       </c>
       <c r="N14" s="1">
-        <v>-120.909000</v>
+        <v>-120.90900000000001</v>
       </c>
       <c r="O14" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="P14" s="1">
-        <v>219.871548</v>
+        <v>219.87154799999999</v>
       </c>
       <c r="Q14" s="1">
-        <v>0.061075</v>
+        <v>6.1074999999999997E-2</v>
       </c>
       <c r="R14" s="1">
-        <v>944.319000</v>
+        <v>944.31899999999996</v>
       </c>
       <c r="S14" s="1">
-        <v>-104.101000</v>
+        <v>-104.101</v>
       </c>
       <c r="T14" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="U14" s="1">
-        <v>230.377842</v>
+        <v>230.37784199999999</v>
       </c>
       <c r="V14" s="1">
-        <v>0.063994</v>
+        <v>6.3993999999999995E-2</v>
       </c>
       <c r="W14" s="1">
-        <v>950.854000</v>
+        <v>950.85400000000004</v>
       </c>
       <c r="X14" s="1">
-        <v>-88.615400</v>
+        <v>-88.615399999999994</v>
       </c>
       <c r="Y14" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="Z14" s="1">
-        <v>240.770976</v>
+        <v>240.77097599999999</v>
       </c>
       <c r="AA14" s="1">
-        <v>0.066881</v>
+        <v>6.6880999999999996E-2</v>
       </c>
       <c r="AB14" s="1">
-        <v>957.965000</v>
+        <v>957.96500000000003</v>
       </c>
       <c r="AC14" s="1">
-        <v>-76.557800</v>
+        <v>-76.5578</v>
       </c>
       <c r="AD14" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AE14" s="1">
         <v>251.339235</v>
       </c>
       <c r="AF14" s="1">
-        <v>0.069816</v>
+        <v>6.9816000000000003E-2</v>
       </c>
       <c r="AG14" s="1">
-        <v>962.651000</v>
+        <v>962.65099999999995</v>
       </c>
       <c r="AH14" s="1">
-        <v>-73.941100</v>
+        <v>-73.941100000000006</v>
       </c>
       <c r="AI14" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AJ14" s="1">
-        <v>261.529077</v>
+        <v>261.52907699999997</v>
       </c>
       <c r="AK14" s="1">
-        <v>0.072647</v>
+        <v>7.2647000000000003E-2</v>
       </c>
       <c r="AL14" s="1">
-        <v>969.759000</v>
+        <v>969.75900000000001</v>
       </c>
       <c r="AM14" s="1">
-        <v>-77.937500</v>
+        <v>-77.9375</v>
       </c>
       <c r="AN14" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AO14" s="1">
-        <v>272.023430</v>
+        <v>272.02343000000002</v>
       </c>
       <c r="AP14" s="1">
-        <v>0.075562</v>
+        <v>7.5562000000000004E-2</v>
       </c>
       <c r="AQ14" s="1">
-        <v>977.686000</v>
+        <v>977.68600000000004</v>
       </c>
       <c r="AR14" s="1">
-        <v>-88.721300</v>
+        <v>-88.721299999999999</v>
       </c>
       <c r="AS14" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AT14" s="1">
-        <v>282.628858</v>
+        <v>282.62885799999998</v>
       </c>
       <c r="AU14" s="1">
-        <v>0.078508</v>
+        <v>7.8507999999999994E-2</v>
       </c>
       <c r="AV14" s="1">
-        <v>987.286000</v>
+        <v>987.28599999999994</v>
       </c>
       <c r="AW14" s="1">
-        <v>-105.435000</v>
+        <v>-105.435</v>
       </c>
       <c r="AX14" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AY14" s="1">
-        <v>293.726379</v>
+        <v>293.72637900000001</v>
       </c>
       <c r="AZ14" s="1">
-        <v>0.081591</v>
+        <v>8.1590999999999997E-2</v>
       </c>
       <c r="BA14" s="1">
-        <v>995.245000</v>
+        <v>995.245</v>
       </c>
       <c r="BB14" s="1">
-        <v>-120.323000</v>
+        <v>-120.32299999999999</v>
       </c>
       <c r="BC14" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BD14" s="1">
-        <v>304.316924</v>
+        <v>304.31692399999997</v>
       </c>
       <c r="BE14" s="1">
-        <v>0.084532</v>
+        <v>8.4531999999999996E-2</v>
       </c>
       <c r="BF14" s="1">
-        <v>1031.980000</v>
+        <v>1031.98</v>
       </c>
       <c r="BG14" s="1">
-        <v>-189.182000</v>
+        <v>-189.18199999999999</v>
       </c>
       <c r="BH14" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BI14" s="1">
-        <v>315.090526</v>
+        <v>315.09052600000001</v>
       </c>
       <c r="BJ14" s="1">
-        <v>0.087525</v>
+        <v>8.7525000000000006E-2</v>
       </c>
       <c r="BK14" s="1">
-        <v>1094.780000</v>
+        <v>1094.78</v>
       </c>
       <c r="BL14" s="1">
-        <v>-302.300000</v>
+        <v>-302.3</v>
       </c>
       <c r="BM14" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BN14" s="1">
-        <v>326.207369</v>
+        <v>326.20736900000003</v>
       </c>
       <c r="BO14" s="1">
-        <v>0.090613</v>
+        <v>9.0612999999999999E-2</v>
       </c>
       <c r="BP14" s="1">
-        <v>1197.290000</v>
+        <v>1197.29</v>
       </c>
       <c r="BQ14" s="1">
-        <v>-482.920000</v>
+        <v>-482.92</v>
       </c>
       <c r="BR14" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BS14" s="1">
-        <v>337.151585</v>
+        <v>337.15158500000001</v>
       </c>
       <c r="BT14" s="1">
-        <v>0.093653</v>
+        <v>9.3653E-2</v>
       </c>
       <c r="BU14" s="1">
-        <v>1313.560000</v>
+        <v>1313.56</v>
       </c>
       <c r="BV14" s="1">
-        <v>-682.528000</v>
+        <v>-682.52800000000002</v>
       </c>
       <c r="BW14" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BX14" s="1">
-        <v>347.984210</v>
+        <v>347.98421000000002</v>
       </c>
       <c r="BY14" s="1">
-        <v>0.096662</v>
+        <v>9.6661999999999998E-2</v>
       </c>
       <c r="BZ14" s="1">
-        <v>1445.600000</v>
+        <v>1445.6</v>
       </c>
       <c r="CA14" s="1">
-        <v>-896.108000</v>
+        <v>-896.10799999999995</v>
       </c>
       <c r="CB14" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="CC14" s="1">
-        <v>360.327702</v>
+        <v>360.32770199999999</v>
       </c>
       <c r="CD14" s="1">
         <v>0.100091</v>
       </c>
       <c r="CE14" s="1">
-        <v>1794.300000</v>
+        <v>1794.3</v>
       </c>
       <c r="CF14" s="1">
-        <v>-1405.650000</v>
+        <v>-1405.65</v>
       </c>
       <c r="CG14" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
     </row>
-    <row r="15">
+    <row r="15" spans="1:85">
       <c r="A15" s="1">
-        <v>189.096773</v>
+        <v>189.09677300000001</v>
       </c>
       <c r="B15" s="1">
-        <v>0.052527</v>
+        <v>5.2526999999999997E-2</v>
       </c>
       <c r="C15" s="1">
-        <v>896.032000</v>
+        <v>896.03200000000004</v>
       </c>
       <c r="D15" s="1">
-        <v>-201.890000</v>
+        <v>-201.89</v>
       </c>
       <c r="E15" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="F15" s="1">
-        <v>199.556407</v>
+        <v>199.55640700000001</v>
       </c>
       <c r="G15" s="1">
-        <v>0.055432</v>
+        <v>5.5432000000000002E-2</v>
       </c>
       <c r="H15" s="1">
-        <v>914.063000</v>
+        <v>914.06299999999999</v>
       </c>
       <c r="I15" s="1">
-        <v>-170.825000</v>
+        <v>-170.82499999999999</v>
       </c>
       <c r="J15" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="K15" s="1">
         <v>209.999672</v>
       </c>
       <c r="L15" s="1">
-        <v>0.058333</v>
+        <v>5.8333000000000003E-2</v>
       </c>
       <c r="M15" s="1">
-        <v>937.481000</v>
+        <v>937.48099999999999</v>
       </c>
       <c r="N15" s="1">
-        <v>-120.750000</v>
+        <v>-120.75</v>
       </c>
       <c r="O15" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="P15" s="1">
-        <v>220.223460</v>
+        <v>220.22345999999999</v>
       </c>
       <c r="Q15" s="1">
-        <v>0.061173</v>
+        <v>6.1172999999999998E-2</v>
       </c>
       <c r="R15" s="1">
-        <v>944.289000</v>
+        <v>944.28899999999999</v>
       </c>
       <c r="S15" s="1">
-        <v>-104.114000</v>
+        <v>-104.114</v>
       </c>
       <c r="T15" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="U15" s="1">
         <v>230.710623</v>
       </c>
       <c r="V15" s="1">
-        <v>0.064086</v>
+        <v>6.4086000000000004E-2</v>
       </c>
       <c r="W15" s="1">
-        <v>950.809000</v>
+        <v>950.80899999999997</v>
       </c>
       <c r="X15" s="1">
-        <v>-88.680600</v>
+        <v>-88.680599999999998</v>
       </c>
       <c r="Y15" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="Z15" s="1">
-        <v>241.129586</v>
+        <v>241.12958599999999</v>
       </c>
       <c r="AA15" s="1">
-        <v>0.066980</v>
+        <v>6.6979999999999998E-2</v>
       </c>
       <c r="AB15" s="1">
-        <v>957.954000</v>
+        <v>957.95399999999995</v>
       </c>
       <c r="AC15" s="1">
-        <v>-76.561200</v>
+        <v>-76.561199999999999</v>
       </c>
       <c r="AD15" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AE15" s="1">
-        <v>251.759842</v>
+        <v>251.75984199999999</v>
       </c>
       <c r="AF15" s="1">
-        <v>0.069933</v>
+        <v>6.9932999999999995E-2</v>
       </c>
       <c r="AG15" s="1">
-        <v>962.642000</v>
+        <v>962.64200000000005</v>
       </c>
       <c r="AH15" s="1">
-        <v>-73.916800</v>
+        <v>-73.916799999999995</v>
       </c>
       <c r="AI15" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AJ15" s="1">
-        <v>261.942212</v>
+        <v>261.94221199999998</v>
       </c>
       <c r="AK15" s="1">
-        <v>0.072762</v>
+        <v>7.2761999999999993E-2</v>
       </c>
       <c r="AL15" s="1">
-        <v>969.761000</v>
+        <v>969.76099999999997</v>
       </c>
       <c r="AM15" s="1">
-        <v>-77.935800</v>
+        <v>-77.9358</v>
       </c>
       <c r="AN15" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AO15" s="1">
-        <v>272.316535</v>
+        <v>272.31653499999999</v>
       </c>
       <c r="AP15" s="1">
-        <v>0.075643</v>
+        <v>7.5643000000000002E-2</v>
       </c>
       <c r="AQ15" s="1">
-        <v>977.671000</v>
+        <v>977.67100000000005</v>
       </c>
       <c r="AR15" s="1">
-        <v>-88.731500</v>
+        <v>-88.731499999999997</v>
       </c>
       <c r="AS15" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AT15" s="1">
-        <v>282.993417</v>
+        <v>282.99341700000002</v>
       </c>
       <c r="AU15" s="1">
-        <v>0.078609</v>
+        <v>7.8608999999999998E-2</v>
       </c>
       <c r="AV15" s="1">
-        <v>987.298000</v>
+        <v>987.298</v>
       </c>
       <c r="AW15" s="1">
-        <v>-105.468000</v>
+        <v>-105.468</v>
       </c>
       <c r="AX15" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AY15" s="1">
-        <v>294.084459</v>
+        <v>294.08445899999998</v>
       </c>
       <c r="AZ15" s="1">
-        <v>0.081690</v>
+        <v>8.1689999999999999E-2</v>
       </c>
       <c r="BA15" s="1">
-        <v>995.239000</v>
+        <v>995.23900000000003</v>
       </c>
       <c r="BB15" s="1">
-        <v>-120.329000</v>
+        <v>-120.32899999999999</v>
       </c>
       <c r="BC15" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BD15" s="1">
-        <v>304.676028</v>
+        <v>304.67602799999997</v>
       </c>
       <c r="BE15" s="1">
-        <v>0.084632</v>
+        <v>8.4631999999999999E-2</v>
       </c>
       <c r="BF15" s="1">
-        <v>1031.990000</v>
+        <v>1031.99</v>
       </c>
       <c r="BG15" s="1">
-        <v>-189.173000</v>
+        <v>-189.173</v>
       </c>
       <c r="BH15" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BI15" s="1">
         <v>315.865072</v>
       </c>
       <c r="BJ15" s="1">
-        <v>0.087740</v>
+        <v>8.7739999999999999E-2</v>
       </c>
       <c r="BK15" s="1">
-        <v>1094.800000</v>
+        <v>1094.8</v>
       </c>
       <c r="BL15" s="1">
-        <v>-302.321000</v>
+        <v>-302.32100000000003</v>
       </c>
       <c r="BM15" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BN15" s="1">
-        <v>326.627999</v>
+        <v>326.62799899999999</v>
       </c>
       <c r="BO15" s="1">
-        <v>0.090730</v>
+        <v>9.0730000000000005E-2</v>
       </c>
       <c r="BP15" s="1">
-        <v>1197.290000</v>
+        <v>1197.29</v>
       </c>
       <c r="BQ15" s="1">
-        <v>-482.914000</v>
+        <v>-482.91399999999999</v>
       </c>
       <c r="BR15" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BS15" s="1">
         <v>337.580129</v>
       </c>
       <c r="BT15" s="1">
-        <v>0.093772</v>
+        <v>9.3771999999999994E-2</v>
       </c>
       <c r="BU15" s="1">
-        <v>1313.690000</v>
+        <v>1313.69</v>
       </c>
       <c r="BV15" s="1">
-        <v>-682.394000</v>
+        <v>-682.39400000000001</v>
       </c>
       <c r="BW15" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BX15" s="1">
-        <v>348.402339</v>
+        <v>348.40233899999998</v>
       </c>
       <c r="BY15" s="1">
-        <v>0.096778</v>
+        <v>9.6778000000000003E-2</v>
       </c>
       <c r="BZ15" s="1">
-        <v>1445.540000</v>
+        <v>1445.54</v>
       </c>
       <c r="CA15" s="1">
-        <v>-896.118000</v>
+        <v>-896.11800000000005</v>
       </c>
       <c r="CB15" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="CC15" s="1">
-        <v>360.844349</v>
+        <v>360.84434900000002</v>
       </c>
       <c r="CD15" s="1">
         <v>0.100235</v>
       </c>
       <c r="CE15" s="1">
-        <v>1795.330000</v>
+        <v>1795.33</v>
       </c>
       <c r="CF15" s="1">
-        <v>-1404.670000</v>
+        <v>-1404.67</v>
       </c>
       <c r="CG15" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
     </row>
-    <row r="16">
+    <row r="16" spans="1:85">
       <c r="A16" s="1">
-        <v>189.462326</v>
+        <v>189.46232599999999</v>
       </c>
       <c r="B16" s="1">
-        <v>0.052628</v>
+        <v>5.2628000000000001E-2</v>
       </c>
       <c r="C16" s="1">
-        <v>895.950000</v>
+        <v>895.95</v>
       </c>
       <c r="D16" s="1">
-        <v>-202.096000</v>
+        <v>-202.096</v>
       </c>
       <c r="E16" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="F16" s="1">
         <v>199.900631</v>
       </c>
       <c r="G16" s="1">
-        <v>0.055528</v>
+        <v>5.5528000000000001E-2</v>
       </c>
       <c r="H16" s="1">
-        <v>913.919000</v>
+        <v>913.91899999999998</v>
       </c>
       <c r="I16" s="1">
-        <v>-171.000000</v>
+        <v>-171</v>
       </c>
       <c r="J16" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="K16" s="1">
-        <v>210.347369</v>
+        <v>210.34736899999999</v>
       </c>
       <c r="L16" s="1">
-        <v>0.058430</v>
+        <v>5.8430000000000003E-2</v>
       </c>
       <c r="M16" s="1">
-        <v>937.478000</v>
+        <v>937.47799999999995</v>
       </c>
       <c r="N16" s="1">
-        <v>-120.782000</v>
+        <v>-120.782</v>
       </c>
       <c r="O16" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="P16" s="1">
-        <v>220.571435</v>
+        <v>220.57143500000001</v>
       </c>
       <c r="Q16" s="1">
-        <v>0.061270</v>
+        <v>6.1269999999999998E-2</v>
       </c>
       <c r="R16" s="1">
-        <v>944.309000</v>
+        <v>944.30899999999997</v>
       </c>
       <c r="S16" s="1">
-        <v>-104.111000</v>
+        <v>-104.111</v>
       </c>
       <c r="T16" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="U16" s="1">
         <v>231.141186</v>
       </c>
       <c r="V16" s="1">
-        <v>0.064206</v>
+        <v>6.4205999999999999E-2</v>
       </c>
       <c r="W16" s="1">
-        <v>950.899000</v>
+        <v>950.899</v>
       </c>
       <c r="X16" s="1">
-        <v>-88.685800</v>
+        <v>-88.6858</v>
       </c>
       <c r="Y16" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="Z16" s="1">
-        <v>241.552175</v>
+        <v>241.55217500000001</v>
       </c>
       <c r="AA16" s="1">
-        <v>0.067098</v>
+        <v>6.7098000000000005E-2</v>
       </c>
       <c r="AB16" s="1">
-        <v>957.935000</v>
+        <v>957.93499999999995</v>
       </c>
       <c r="AC16" s="1">
-        <v>-76.510100</v>
+        <v>-76.510099999999994</v>
       </c>
       <c r="AD16" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AE16" s="1">
         <v>252.032161</v>
       </c>
       <c r="AF16" s="1">
-        <v>0.070009</v>
+        <v>7.0009000000000002E-2</v>
       </c>
       <c r="AG16" s="1">
-        <v>962.668000</v>
+        <v>962.66800000000001</v>
       </c>
       <c r="AH16" s="1">
-        <v>-73.911200</v>
+        <v>-73.911199999999994</v>
       </c>
       <c r="AI16" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AJ16" s="1">
-        <v>262.237828</v>
+        <v>262.23782799999998</v>
       </c>
       <c r="AK16" s="1">
-        <v>0.072844</v>
+        <v>7.2844000000000006E-2</v>
       </c>
       <c r="AL16" s="1">
-        <v>969.743000</v>
+        <v>969.74300000000005</v>
       </c>
       <c r="AM16" s="1">
-        <v>-77.946300</v>
+        <v>-77.946299999999994</v>
       </c>
       <c r="AN16" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AO16" s="1">
-        <v>272.676167</v>
+        <v>272.67616700000002</v>
       </c>
       <c r="AP16" s="1">
-        <v>0.075743</v>
+        <v>7.5743000000000005E-2</v>
       </c>
       <c r="AQ16" s="1">
-        <v>977.681000</v>
+        <v>977.68100000000004</v>
       </c>
       <c r="AR16" s="1">
-        <v>-88.752500</v>
+        <v>-88.752499999999998</v>
       </c>
       <c r="AS16" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AT16" s="1">
         <v>283.358968</v>
       </c>
       <c r="AU16" s="1">
-        <v>0.078711</v>
+        <v>7.8711000000000003E-2</v>
       </c>
       <c r="AV16" s="1">
-        <v>987.280000</v>
+        <v>987.28</v>
       </c>
       <c r="AW16" s="1">
-        <v>-105.455000</v>
+        <v>-105.455</v>
       </c>
       <c r="AX16" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AY16" s="1">
-        <v>294.443066</v>
+        <v>294.44306599999999</v>
       </c>
       <c r="AZ16" s="1">
-        <v>0.081790</v>
+        <v>8.1790000000000002E-2</v>
       </c>
       <c r="BA16" s="1">
-        <v>995.247000</v>
+        <v>995.24699999999996</v>
       </c>
       <c r="BB16" s="1">
-        <v>-120.334000</v>
+        <v>-120.334</v>
       </c>
       <c r="BC16" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BD16" s="1">
-        <v>305.400187</v>
+        <v>305.40018700000002</v>
       </c>
       <c r="BE16" s="1">
-        <v>0.084833</v>
+        <v>8.4833000000000006E-2</v>
       </c>
       <c r="BF16" s="1">
-        <v>1031.990000</v>
+        <v>1031.99</v>
       </c>
       <c r="BG16" s="1">
-        <v>-189.182000</v>
+        <v>-189.18199999999999</v>
       </c>
       <c r="BH16" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BI16" s="1">
-        <v>316.241244</v>
+        <v>316.24124399999999</v>
       </c>
       <c r="BJ16" s="1">
-        <v>0.087845</v>
+        <v>8.7845000000000006E-2</v>
       </c>
       <c r="BK16" s="1">
-        <v>1094.800000</v>
+        <v>1094.8</v>
       </c>
       <c r="BL16" s="1">
-        <v>-302.307000</v>
+        <v>-302.30700000000002</v>
       </c>
       <c r="BM16" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BN16" s="1">
-        <v>327.022782</v>
+        <v>327.02278200000001</v>
       </c>
       <c r="BO16" s="1">
-        <v>0.090840</v>
+        <v>9.0840000000000004E-2</v>
       </c>
       <c r="BP16" s="1">
-        <v>1197.290000</v>
+        <v>1197.29</v>
       </c>
       <c r="BQ16" s="1">
-        <v>-482.923000</v>
+        <v>-482.923</v>
       </c>
       <c r="BR16" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BS16" s="1">
         <v>337.990816</v>
       </c>
       <c r="BT16" s="1">
-        <v>0.093886</v>
+        <v>9.3885999999999997E-2</v>
       </c>
       <c r="BU16" s="1">
-        <v>1313.760000</v>
+        <v>1313.76</v>
       </c>
       <c r="BV16" s="1">
-        <v>-682.286000</v>
+        <v>-682.28599999999994</v>
       </c>
       <c r="BW16" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BX16" s="1">
-        <v>349.132449</v>
+        <v>349.13244900000001</v>
       </c>
       <c r="BY16" s="1">
-        <v>0.096981</v>
+        <v>9.6980999999999998E-2</v>
       </c>
       <c r="BZ16" s="1">
-        <v>1445.520000</v>
+        <v>1445.52</v>
       </c>
       <c r="CA16" s="1">
-        <v>-896.203000</v>
+        <v>-896.20299999999997</v>
       </c>
       <c r="CB16" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="CC16" s="1">
-        <v>361.675776</v>
+        <v>361.67577599999998</v>
       </c>
       <c r="CD16" s="1">
         <v>0.100465</v>
       </c>
       <c r="CE16" s="1">
-        <v>1794.500000</v>
+        <v>1794.5</v>
       </c>
       <c r="CF16" s="1">
-        <v>-1403.640000</v>
+        <v>-1403.64</v>
       </c>
       <c r="CG16" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
     </row>
-    <row r="17">
+    <row r="17" spans="1:85">
       <c r="A17" s="1">
-        <v>189.807044</v>
+        <v>189.80704399999999</v>
       </c>
       <c r="B17" s="1">
-        <v>0.052724</v>
+        <v>5.2724E-2</v>
       </c>
       <c r="C17" s="1">
-        <v>896.080000</v>
+        <v>896.08</v>
       </c>
       <c r="D17" s="1">
-        <v>-201.962000</v>
+        <v>-201.96199999999999</v>
       </c>
       <c r="E17" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="F17" s="1">
         <v>200.246872</v>
       </c>
       <c r="G17" s="1">
-        <v>0.055624</v>
+        <v>5.5624E-2</v>
       </c>
       <c r="H17" s="1">
-        <v>914.218000</v>
+        <v>914.21799999999996</v>
       </c>
       <c r="I17" s="1">
-        <v>-170.767000</v>
+        <v>-170.767</v>
       </c>
       <c r="J17" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="K17" s="1">
         <v>210.697048</v>
       </c>
       <c r="L17" s="1">
-        <v>0.058527</v>
+        <v>5.8527000000000003E-2</v>
       </c>
       <c r="M17" s="1">
-        <v>937.429000</v>
+        <v>937.42899999999997</v>
       </c>
       <c r="N17" s="1">
-        <v>-120.695000</v>
+        <v>-120.69499999999999</v>
       </c>
       <c r="O17" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="P17" s="1">
         <v>220.999979</v>
       </c>
       <c r="Q17" s="1">
-        <v>0.061389</v>
+        <v>6.1388999999999999E-2</v>
       </c>
       <c r="R17" s="1">
-        <v>944.311000</v>
+        <v>944.31100000000004</v>
       </c>
       <c r="S17" s="1">
-        <v>-104.200000</v>
+        <v>-104.2</v>
       </c>
       <c r="T17" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="U17" s="1">
         <v>231.400589</v>
       </c>
       <c r="V17" s="1">
-        <v>0.064278</v>
+        <v>6.4278000000000002E-2</v>
       </c>
       <c r="W17" s="1">
-        <v>950.891000</v>
+        <v>950.89099999999996</v>
       </c>
       <c r="X17" s="1">
-        <v>-88.648300</v>
+        <v>-88.648300000000006</v>
       </c>
       <c r="Y17" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="Z17" s="1">
         <v>241.831424</v>
       </c>
       <c r="AA17" s="1">
-        <v>0.067175</v>
+        <v>6.7174999999999999E-2</v>
       </c>
       <c r="AB17" s="1">
-        <v>957.916000</v>
+        <v>957.91600000000005</v>
       </c>
       <c r="AC17" s="1">
-        <v>-76.646900</v>
+        <v>-76.646900000000002</v>
       </c>
       <c r="AD17" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AE17" s="1">
-        <v>252.376369</v>
+        <v>252.37636900000001</v>
       </c>
       <c r="AF17" s="1">
-        <v>0.070105</v>
+        <v>7.0105000000000001E-2</v>
       </c>
       <c r="AG17" s="1">
-        <v>962.644000</v>
+        <v>962.64400000000001</v>
       </c>
       <c r="AH17" s="1">
-        <v>-73.935000</v>
+        <v>-73.935000000000002</v>
       </c>
       <c r="AI17" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AJ17" s="1">
-        <v>262.588995</v>
+        <v>262.58899500000001</v>
       </c>
       <c r="AK17" s="1">
-        <v>0.072941</v>
+        <v>7.2941000000000006E-2</v>
       </c>
       <c r="AL17" s="1">
-        <v>969.769000</v>
+        <v>969.76900000000001</v>
       </c>
       <c r="AM17" s="1">
-        <v>-77.930900</v>
+        <v>-77.930899999999994</v>
       </c>
       <c r="AN17" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AO17" s="1">
-        <v>273.037717</v>
+        <v>273.03771699999999</v>
       </c>
       <c r="AP17" s="1">
-        <v>0.075844</v>
+        <v>7.5843999999999995E-2</v>
       </c>
       <c r="AQ17" s="1">
-        <v>977.685000</v>
+        <v>977.68499999999995</v>
       </c>
       <c r="AR17" s="1">
-        <v>-88.718500</v>
+        <v>-88.718500000000006</v>
       </c>
       <c r="AS17" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AT17" s="1">
-        <v>284.086599</v>
+        <v>284.08659899999998</v>
       </c>
       <c r="AU17" s="1">
-        <v>0.078913</v>
+        <v>7.8912999999999997E-2</v>
       </c>
       <c r="AV17" s="1">
-        <v>987.276000</v>
+        <v>987.27599999999995</v>
       </c>
       <c r="AW17" s="1">
-        <v>-105.457000</v>
+        <v>-105.45699999999999</v>
       </c>
       <c r="AX17" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AY17" s="1">
-        <v>295.165779</v>
+        <v>295.16577899999999</v>
       </c>
       <c r="AZ17" s="1">
-        <v>0.081990</v>
+        <v>8.1989999999999993E-2</v>
       </c>
       <c r="BA17" s="1">
-        <v>995.262000</v>
+        <v>995.26199999999994</v>
       </c>
       <c r="BB17" s="1">
-        <v>-120.336000</v>
+        <v>-120.336</v>
       </c>
       <c r="BC17" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BD17" s="1">
-        <v>305.759788</v>
+        <v>305.75978800000001</v>
       </c>
       <c r="BE17" s="1">
-        <v>0.084933</v>
+        <v>8.4932999999999995E-2</v>
       </c>
       <c r="BF17" s="1">
-        <v>1032.020000</v>
+        <v>1032.02</v>
       </c>
       <c r="BG17" s="1">
-        <v>-189.201000</v>
+        <v>-189.20099999999999</v>
       </c>
       <c r="BH17" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BI17" s="1">
-        <v>316.617212</v>
+        <v>316.61721199999999</v>
       </c>
       <c r="BJ17" s="1">
-        <v>0.087949</v>
+        <v>8.7948999999999999E-2</v>
       </c>
       <c r="BK17" s="1">
-        <v>1094.810000</v>
+        <v>1094.81</v>
       </c>
       <c r="BL17" s="1">
-        <v>-302.284000</v>
+        <v>-302.28399999999999</v>
       </c>
       <c r="BM17" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BN17" s="1">
-        <v>327.444382</v>
+        <v>327.44438200000002</v>
       </c>
       <c r="BO17" s="1">
-        <v>0.090957</v>
+        <v>9.0956999999999996E-2</v>
       </c>
       <c r="BP17" s="1">
-        <v>1197.300000</v>
+        <v>1197.3</v>
       </c>
       <c r="BQ17" s="1">
-        <v>-482.925000</v>
+        <v>-482.92500000000001</v>
       </c>
       <c r="BR17" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BS17" s="1">
         <v>338.726383</v>
       </c>
       <c r="BT17" s="1">
-        <v>0.094091</v>
+        <v>9.4090999999999994E-2</v>
       </c>
       <c r="BU17" s="1">
-        <v>1313.840000</v>
+        <v>1313.84</v>
       </c>
       <c r="BV17" s="1">
-        <v>-682.351000</v>
+        <v>-682.351</v>
       </c>
       <c r="BW17" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BX17" s="1">
-        <v>349.253969</v>
+        <v>349.25396899999998</v>
       </c>
       <c r="BY17" s="1">
-        <v>0.097015</v>
+        <v>9.7015000000000004E-2</v>
       </c>
       <c r="BZ17" s="1">
-        <v>1445.630000</v>
+        <v>1445.63</v>
       </c>
       <c r="CA17" s="1">
-        <v>-896.122000</v>
+        <v>-896.12199999999996</v>
       </c>
       <c r="CB17" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="CC17" s="1">
         <v>361.883602</v>
@@ -4576,769 +4992,769 @@
         <v>0.100523</v>
       </c>
       <c r="CE17" s="1">
-        <v>1793.510000</v>
+        <v>1793.51</v>
       </c>
       <c r="CF17" s="1">
-        <v>-1404.790000</v>
+        <v>-1404.79</v>
       </c>
       <c r="CG17" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
     </row>
-    <row r="18">
+    <row r="18" spans="1:85">
       <c r="A18" s="1">
         <v>190.149812</v>
       </c>
       <c r="B18" s="1">
-        <v>0.052819</v>
+        <v>5.2818999999999998E-2</v>
       </c>
       <c r="C18" s="1">
-        <v>895.975000</v>
+        <v>895.97500000000002</v>
       </c>
       <c r="D18" s="1">
-        <v>-202.225000</v>
+        <v>-202.22499999999999</v>
       </c>
       <c r="E18" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="F18" s="1">
-        <v>200.667447</v>
+        <v>200.66744700000001</v>
       </c>
       <c r="G18" s="1">
-        <v>0.055741</v>
+        <v>5.5740999999999999E-2</v>
       </c>
       <c r="H18" s="1">
-        <v>914.010000</v>
+        <v>914.01</v>
       </c>
       <c r="I18" s="1">
-        <v>-170.799000</v>
+        <v>-170.79900000000001</v>
       </c>
       <c r="J18" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="K18" s="1">
         <v>211.120169</v>
       </c>
       <c r="L18" s="1">
-        <v>0.058644</v>
+        <v>5.8644000000000002E-2</v>
       </c>
       <c r="M18" s="1">
-        <v>937.459000</v>
+        <v>937.45899999999995</v>
       </c>
       <c r="N18" s="1">
-        <v>-120.814000</v>
+        <v>-120.81399999999999</v>
       </c>
       <c r="O18" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="P18" s="1">
         <v>221.276218</v>
       </c>
       <c r="Q18" s="1">
-        <v>0.061466</v>
+        <v>6.1466E-2</v>
       </c>
       <c r="R18" s="1">
-        <v>944.308000</v>
+        <v>944.30799999999999</v>
       </c>
       <c r="S18" s="1">
-        <v>-104.181000</v>
+        <v>-104.181</v>
       </c>
       <c r="T18" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="U18" s="1">
         <v>231.744821</v>
       </c>
       <c r="V18" s="1">
-        <v>0.064374</v>
+        <v>6.4374000000000001E-2</v>
       </c>
       <c r="W18" s="1">
-        <v>950.865000</v>
+        <v>950.86500000000001</v>
       </c>
       <c r="X18" s="1">
-        <v>-88.624300</v>
+        <v>-88.624300000000005</v>
       </c>
       <c r="Y18" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="Z18" s="1">
-        <v>242.178128</v>
+        <v>242.17812799999999</v>
       </c>
       <c r="AA18" s="1">
-        <v>0.067272</v>
+        <v>6.7271999999999998E-2</v>
       </c>
       <c r="AB18" s="1">
-        <v>957.963000</v>
+        <v>957.96299999999997</v>
       </c>
       <c r="AC18" s="1">
-        <v>-76.556900</v>
+        <v>-76.556899999999999</v>
       </c>
       <c r="AD18" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AE18" s="1">
-        <v>252.720098</v>
+        <v>252.72009800000001</v>
       </c>
       <c r="AF18" s="1">
-        <v>0.070200</v>
+        <v>7.0199999999999999E-2</v>
       </c>
       <c r="AG18" s="1">
-        <v>962.654000</v>
+        <v>962.654</v>
       </c>
       <c r="AH18" s="1">
-        <v>-73.950000</v>
+        <v>-73.95</v>
       </c>
       <c r="AI18" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AJ18" s="1">
-        <v>262.939173</v>
+        <v>262.93917299999998</v>
       </c>
       <c r="AK18" s="1">
-        <v>0.073039</v>
+        <v>7.3039000000000007E-2</v>
       </c>
       <c r="AL18" s="1">
-        <v>969.764000</v>
+        <v>969.76400000000001</v>
       </c>
       <c r="AM18" s="1">
-        <v>-77.933900</v>
+        <v>-77.933899999999994</v>
       </c>
       <c r="AN18" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AO18" s="1">
-        <v>273.758405</v>
+        <v>273.75840499999998</v>
       </c>
       <c r="AP18" s="1">
-        <v>0.076044</v>
+        <v>7.6044E-2</v>
       </c>
       <c r="AQ18" s="1">
-        <v>977.696000</v>
+        <v>977.69600000000003</v>
       </c>
       <c r="AR18" s="1">
-        <v>-88.712100</v>
+        <v>-88.712100000000007</v>
       </c>
       <c r="AS18" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AT18" s="1">
-        <v>284.479927</v>
+        <v>284.47992699999998</v>
       </c>
       <c r="AU18" s="1">
-        <v>0.079022</v>
+        <v>7.9021999999999995E-2</v>
       </c>
       <c r="AV18" s="1">
-        <v>987.286000</v>
+        <v>987.28599999999994</v>
       </c>
       <c r="AW18" s="1">
-        <v>-105.450000</v>
+        <v>-105.45</v>
       </c>
       <c r="AX18" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AY18" s="1">
         <v>295.519882</v>
       </c>
       <c r="AZ18" s="1">
-        <v>0.082089</v>
+        <v>8.2088999999999995E-2</v>
       </c>
       <c r="BA18" s="1">
-        <v>995.252000</v>
+        <v>995.25199999999995</v>
       </c>
       <c r="BB18" s="1">
-        <v>-120.321000</v>
+        <v>-120.321</v>
       </c>
       <c r="BC18" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BD18" s="1">
-        <v>306.119387</v>
+        <v>306.11938700000002</v>
       </c>
       <c r="BE18" s="1">
-        <v>0.085033</v>
+        <v>8.5032999999999997E-2</v>
       </c>
       <c r="BF18" s="1">
-        <v>1032.020000</v>
+        <v>1032.02</v>
       </c>
       <c r="BG18" s="1">
-        <v>-189.194000</v>
+        <v>-189.19399999999999</v>
       </c>
       <c r="BH18" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BI18" s="1">
-        <v>317.319083</v>
+        <v>317.31908299999998</v>
       </c>
       <c r="BJ18" s="1">
-        <v>0.088144</v>
+        <v>8.8144E-2</v>
       </c>
       <c r="BK18" s="1">
-        <v>1094.830000</v>
+        <v>1094.83</v>
       </c>
       <c r="BL18" s="1">
-        <v>-302.324000</v>
+        <v>-302.32400000000001</v>
       </c>
       <c r="BM18" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BN18" s="1">
-        <v>328.155645</v>
+        <v>328.15564499999999</v>
       </c>
       <c r="BO18" s="1">
-        <v>0.091154</v>
+        <v>9.1153999999999999E-2</v>
       </c>
       <c r="BP18" s="1">
-        <v>1197.340000</v>
+        <v>1197.3399999999999</v>
       </c>
       <c r="BQ18" s="1">
-        <v>-482.925000</v>
+        <v>-482.92500000000001</v>
       </c>
       <c r="BR18" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BS18" s="1">
-        <v>338.849392</v>
+        <v>338.84939200000002</v>
       </c>
       <c r="BT18" s="1">
-        <v>0.094125</v>
+        <v>9.4125E-2</v>
       </c>
       <c r="BU18" s="1">
-        <v>1313.980000</v>
+        <v>1313.98</v>
       </c>
       <c r="BV18" s="1">
-        <v>-682.316000</v>
+        <v>-682.31600000000003</v>
       </c>
       <c r="BW18" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BX18" s="1">
-        <v>349.701856</v>
+        <v>349.70185600000002</v>
       </c>
       <c r="BY18" s="1">
-        <v>0.097139</v>
+        <v>9.7139000000000003E-2</v>
       </c>
       <c r="BZ18" s="1">
-        <v>1445.620000</v>
+        <v>1445.62</v>
       </c>
       <c r="CA18" s="1">
-        <v>-896.183000</v>
+        <v>-896.18299999999999</v>
       </c>
       <c r="CB18" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="CC18" s="1">
-        <v>362.397952</v>
+        <v>362.39795199999998</v>
       </c>
       <c r="CD18" s="1">
-        <v>0.100666</v>
+        <v>0.10066600000000001</v>
       </c>
       <c r="CE18" s="1">
-        <v>1793.530000</v>
+        <v>1793.53</v>
       </c>
       <c r="CF18" s="1">
-        <v>-1404.270000</v>
+        <v>-1404.27</v>
       </c>
       <c r="CG18" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
     </row>
-    <row r="19">
+    <row r="19" spans="1:85">
       <c r="A19" s="1">
-        <v>190.568404</v>
+        <v>190.56840399999999</v>
       </c>
       <c r="B19" s="1">
-        <v>0.052936</v>
+        <v>5.2935999999999997E-2</v>
       </c>
       <c r="C19" s="1">
-        <v>895.864000</v>
+        <v>895.86400000000003</v>
       </c>
       <c r="D19" s="1">
-        <v>-202.084000</v>
+        <v>-202.084</v>
       </c>
       <c r="E19" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="F19" s="1">
-        <v>200.936774</v>
+        <v>200.93677400000001</v>
       </c>
       <c r="G19" s="1">
-        <v>0.055816</v>
+        <v>5.5815999999999998E-2</v>
       </c>
       <c r="H19" s="1">
-        <v>914.106000</v>
+        <v>914.10599999999999</v>
       </c>
       <c r="I19" s="1">
-        <v>-170.847000</v>
+        <v>-170.84700000000001</v>
       </c>
       <c r="J19" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="K19" s="1">
         <v>211.400871</v>
       </c>
       <c r="L19" s="1">
-        <v>0.058722</v>
+        <v>5.8722000000000003E-2</v>
       </c>
       <c r="M19" s="1">
-        <v>937.627000</v>
+        <v>937.62699999999995</v>
       </c>
       <c r="N19" s="1">
-        <v>-120.793000</v>
+        <v>-120.79300000000001</v>
       </c>
       <c r="O19" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="P19" s="1">
         <v>221.629865</v>
       </c>
       <c r="Q19" s="1">
-        <v>0.061564</v>
+        <v>6.1564000000000001E-2</v>
       </c>
       <c r="R19" s="1">
-        <v>944.297000</v>
+        <v>944.29700000000003</v>
       </c>
       <c r="S19" s="1">
-        <v>-104.159000</v>
+        <v>-104.15900000000001</v>
       </c>
       <c r="T19" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="U19" s="1">
-        <v>232.086060</v>
+        <v>232.08606</v>
       </c>
       <c r="V19" s="1">
-        <v>0.064468</v>
+        <v>6.4467999999999998E-2</v>
       </c>
       <c r="W19" s="1">
-        <v>950.765000</v>
+        <v>950.76499999999999</v>
       </c>
       <c r="X19" s="1">
-        <v>-88.677000</v>
+        <v>-88.677000000000007</v>
       </c>
       <c r="Y19" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="Z19" s="1">
-        <v>242.525326</v>
+        <v>242.52532600000001</v>
       </c>
       <c r="AA19" s="1">
-        <v>0.067368</v>
+        <v>6.7367999999999997E-2</v>
       </c>
       <c r="AB19" s="1">
-        <v>957.944000</v>
+        <v>957.94399999999996</v>
       </c>
       <c r="AC19" s="1">
-        <v>-76.507100</v>
+        <v>-76.507099999999994</v>
       </c>
       <c r="AD19" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AE19" s="1">
-        <v>253.402127</v>
+        <v>253.40212700000001</v>
       </c>
       <c r="AF19" s="1">
-        <v>0.070389</v>
+        <v>7.0388999999999993E-2</v>
       </c>
       <c r="AG19" s="1">
-        <v>962.631000</v>
+        <v>962.63099999999997</v>
       </c>
       <c r="AH19" s="1">
-        <v>-73.913100</v>
+        <v>-73.9131</v>
       </c>
       <c r="AI19" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AJ19" s="1">
-        <v>263.634563</v>
+        <v>263.63456300000001</v>
       </c>
       <c r="AK19" s="1">
-        <v>0.073232</v>
+        <v>7.3232000000000005E-2</v>
       </c>
       <c r="AL19" s="1">
-        <v>969.772000</v>
+        <v>969.77200000000005</v>
       </c>
       <c r="AM19" s="1">
-        <v>-77.955000</v>
+        <v>-77.954999999999998</v>
       </c>
       <c r="AN19" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AO19" s="1">
-        <v>274.116516</v>
+        <v>274.11651599999999</v>
       </c>
       <c r="AP19" s="1">
-        <v>0.076143</v>
+        <v>7.6143000000000002E-2</v>
       </c>
       <c r="AQ19" s="1">
-        <v>977.692000</v>
+        <v>977.69200000000001</v>
       </c>
       <c r="AR19" s="1">
-        <v>-88.727700</v>
+        <v>-88.727699999999999</v>
       </c>
       <c r="AS19" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AT19" s="1">
-        <v>284.844486</v>
+        <v>284.84448600000002</v>
       </c>
       <c r="AU19" s="1">
-        <v>0.079123</v>
+        <v>7.9122999999999999E-2</v>
       </c>
       <c r="AV19" s="1">
-        <v>987.293000</v>
+        <v>987.29300000000001</v>
       </c>
       <c r="AW19" s="1">
-        <v>-105.463000</v>
+        <v>-105.46299999999999</v>
       </c>
       <c r="AX19" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AY19" s="1">
-        <v>295.876505</v>
+        <v>295.87650500000001</v>
       </c>
       <c r="AZ19" s="1">
-        <v>0.082188</v>
+        <v>8.2187999999999997E-2</v>
       </c>
       <c r="BA19" s="1">
-        <v>995.216000</v>
+        <v>995.21600000000001</v>
       </c>
       <c r="BB19" s="1">
-        <v>-120.310000</v>
+        <v>-120.31</v>
       </c>
       <c r="BC19" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BD19" s="1">
-        <v>306.802874</v>
+        <v>306.80287399999997</v>
       </c>
       <c r="BE19" s="1">
-        <v>0.085223</v>
+        <v>8.5222999999999993E-2</v>
       </c>
       <c r="BF19" s="1">
-        <v>1032.000000</v>
+        <v>1032</v>
       </c>
       <c r="BG19" s="1">
-        <v>-189.181000</v>
+        <v>-189.18100000000001</v>
       </c>
       <c r="BH19" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BI19" s="1">
-        <v>317.768464</v>
+        <v>317.76846399999999</v>
       </c>
       <c r="BJ19" s="1">
-        <v>0.088269</v>
+        <v>8.8269E-2</v>
       </c>
       <c r="BK19" s="1">
-        <v>1094.790000</v>
+        <v>1094.79</v>
       </c>
       <c r="BL19" s="1">
-        <v>-302.325000</v>
+        <v>-302.32499999999999</v>
       </c>
       <c r="BM19" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BN19" s="1">
         <v>328.268733</v>
       </c>
       <c r="BO19" s="1">
-        <v>0.091186</v>
+        <v>9.1186000000000003E-2</v>
       </c>
       <c r="BP19" s="1">
-        <v>1197.290000</v>
+        <v>1197.29</v>
       </c>
       <c r="BQ19" s="1">
-        <v>-482.965000</v>
+        <v>-482.96499999999997</v>
       </c>
       <c r="BR19" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BS19" s="1">
-        <v>339.261070</v>
+        <v>339.26107000000002</v>
       </c>
       <c r="BT19" s="1">
-        <v>0.094239</v>
+        <v>9.4239000000000003E-2</v>
       </c>
       <c r="BU19" s="1">
-        <v>1314.120000</v>
+        <v>1314.12</v>
       </c>
       <c r="BV19" s="1">
-        <v>-682.394000</v>
+        <v>-682.39400000000001</v>
       </c>
       <c r="BW19" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BX19" s="1">
-        <v>350.134401</v>
+        <v>350.13440100000003</v>
       </c>
       <c r="BY19" s="1">
-        <v>0.097260</v>
+        <v>9.7259999999999999E-2</v>
       </c>
       <c r="BZ19" s="1">
-        <v>1445.620000</v>
+        <v>1445.62</v>
       </c>
       <c r="CA19" s="1">
-        <v>-896.097000</v>
+        <v>-896.09699999999998</v>
       </c>
       <c r="CB19" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="CC19" s="1">
-        <v>362.992654</v>
+        <v>362.99265400000002</v>
       </c>
       <c r="CD19" s="1">
         <v>0.100831</v>
       </c>
       <c r="CE19" s="1">
-        <v>1794.840000</v>
+        <v>1794.84</v>
       </c>
       <c r="CF19" s="1">
-        <v>-1403.810000</v>
+        <v>-1403.81</v>
       </c>
       <c r="CG19" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
     </row>
-    <row r="20">
+    <row r="20" spans="1:85">
       <c r="A20" s="1">
-        <v>190.848178</v>
+        <v>190.84817799999999</v>
       </c>
       <c r="B20" s="1">
-        <v>0.053013</v>
+        <v>5.3012999999999998E-2</v>
       </c>
       <c r="C20" s="1">
-        <v>896.089000</v>
+        <v>896.08900000000006</v>
       </c>
       <c r="D20" s="1">
-        <v>-202.183000</v>
+        <v>-202.18299999999999</v>
       </c>
       <c r="E20" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="F20" s="1">
         <v>201.276533</v>
       </c>
       <c r="G20" s="1">
-        <v>0.055910</v>
+        <v>5.5910000000000001E-2</v>
       </c>
       <c r="H20" s="1">
-        <v>914.066000</v>
+        <v>914.06600000000003</v>
       </c>
       <c r="I20" s="1">
-        <v>-170.723000</v>
+        <v>-170.72300000000001</v>
       </c>
       <c r="J20" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="K20" s="1">
-        <v>211.745628</v>
+        <v>211.74562800000001</v>
       </c>
       <c r="L20" s="1">
-        <v>0.058818</v>
+        <v>5.8818000000000002E-2</v>
       </c>
       <c r="M20" s="1">
-        <v>937.452000</v>
+        <v>937.452</v>
       </c>
       <c r="N20" s="1">
-        <v>-120.696000</v>
+        <v>-120.696</v>
       </c>
       <c r="O20" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="P20" s="1">
-        <v>221.977066</v>
+        <v>221.97706600000001</v>
       </c>
       <c r="Q20" s="1">
-        <v>0.061660</v>
+        <v>6.166E-2</v>
       </c>
       <c r="R20" s="1">
-        <v>944.311000</v>
+        <v>944.31100000000004</v>
       </c>
       <c r="S20" s="1">
-        <v>-104.109000</v>
+        <v>-104.10899999999999</v>
       </c>
       <c r="T20" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="U20" s="1">
-        <v>232.771499</v>
+        <v>232.77149900000001</v>
       </c>
       <c r="V20" s="1">
-        <v>0.064659</v>
+        <v>6.4658999999999994E-2</v>
       </c>
       <c r="W20" s="1">
-        <v>950.846000</v>
+        <v>950.846</v>
       </c>
       <c r="X20" s="1">
-        <v>-88.617400</v>
+        <v>-88.617400000000004</v>
       </c>
       <c r="Y20" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="Z20" s="1">
-        <v>243.225181</v>
+        <v>243.22518099999999</v>
       </c>
       <c r="AA20" s="1">
-        <v>0.067563</v>
+        <v>6.7562999999999998E-2</v>
       </c>
       <c r="AB20" s="1">
-        <v>957.915000</v>
+        <v>957.91499999999996</v>
       </c>
       <c r="AC20" s="1">
-        <v>-76.528700</v>
+        <v>-76.528700000000001</v>
       </c>
       <c r="AD20" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AE20" s="1">
         <v>253.746847</v>
       </c>
       <c r="AF20" s="1">
-        <v>0.070485</v>
+        <v>7.0485000000000006E-2</v>
       </c>
       <c r="AG20" s="1">
-        <v>962.609000</v>
+        <v>962.60900000000004</v>
       </c>
       <c r="AH20" s="1">
-        <v>-73.932500</v>
+        <v>-73.932500000000005</v>
       </c>
       <c r="AI20" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AJ20" s="1">
-        <v>263.980274</v>
+        <v>263.98027400000001</v>
       </c>
       <c r="AK20" s="1">
-        <v>0.073328</v>
+        <v>7.3328000000000004E-2</v>
       </c>
       <c r="AL20" s="1">
-        <v>969.761000</v>
+        <v>969.76099999999997</v>
       </c>
       <c r="AM20" s="1">
-        <v>-77.954900</v>
+        <v>-77.954899999999995</v>
       </c>
       <c r="AN20" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AO20" s="1">
-        <v>274.476116</v>
+        <v>274.47611599999999</v>
       </c>
       <c r="AP20" s="1">
-        <v>0.076243</v>
+        <v>7.6243000000000005E-2</v>
       </c>
       <c r="AQ20" s="1">
-        <v>977.702000</v>
+        <v>977.702</v>
       </c>
       <c r="AR20" s="1">
-        <v>-88.723100</v>
+        <v>-88.723100000000002</v>
       </c>
       <c r="AS20" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AT20" s="1">
-        <v>285.508629</v>
+        <v>285.50862899999998</v>
       </c>
       <c r="AU20" s="1">
-        <v>0.079308</v>
+        <v>7.9308000000000003E-2</v>
       </c>
       <c r="AV20" s="1">
-        <v>987.295000</v>
+        <v>987.29499999999996</v>
       </c>
       <c r="AW20" s="1">
-        <v>-105.468000</v>
+        <v>-105.468</v>
       </c>
       <c r="AX20" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AY20" s="1">
-        <v>296.324392</v>
+        <v>296.32439199999999</v>
       </c>
       <c r="AZ20" s="1">
-        <v>0.082312</v>
+        <v>8.2311999999999996E-2</v>
       </c>
       <c r="BA20" s="1">
-        <v>995.253000</v>
+        <v>995.25300000000004</v>
       </c>
       <c r="BB20" s="1">
-        <v>-120.327000</v>
+        <v>-120.327</v>
       </c>
       <c r="BC20" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BD20" s="1">
-        <v>307.232409</v>
+        <v>307.23240900000002</v>
       </c>
       <c r="BE20" s="1">
-        <v>0.085342</v>
+        <v>8.5342000000000001E-2</v>
       </c>
       <c r="BF20" s="1">
-        <v>1031.990000</v>
+        <v>1031.99</v>
       </c>
       <c r="BG20" s="1">
-        <v>-189.178000</v>
+        <v>-189.178</v>
       </c>
       <c r="BH20" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BI20" s="1">
-        <v>318.167707</v>
+        <v>318.16770700000001</v>
       </c>
       <c r="BJ20" s="1">
-        <v>0.088380</v>
+        <v>8.838E-2</v>
       </c>
       <c r="BK20" s="1">
-        <v>1094.810000</v>
+        <v>1094.81</v>
       </c>
       <c r="BL20" s="1">
-        <v>-302.304000</v>
+        <v>-302.30399999999997</v>
       </c>
       <c r="BM20" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BN20" s="1">
-        <v>328.688348</v>
+        <v>328.68834800000002</v>
       </c>
       <c r="BO20" s="1">
-        <v>0.091302</v>
+        <v>9.1301999999999994E-2</v>
       </c>
       <c r="BP20" s="1">
-        <v>1197.290000</v>
+        <v>1197.29</v>
       </c>
       <c r="BQ20" s="1">
-        <v>-482.910000</v>
+        <v>-482.91</v>
       </c>
       <c r="BR20" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BS20" s="1">
-        <v>339.693613</v>
+        <v>339.69361300000003</v>
       </c>
       <c r="BT20" s="1">
-        <v>0.094359</v>
+        <v>9.4358999999999998E-2</v>
       </c>
       <c r="BU20" s="1">
-        <v>1314.150000</v>
+        <v>1314.15</v>
       </c>
       <c r="BV20" s="1">
-        <v>-682.455000</v>
+        <v>-682.45500000000004</v>
       </c>
       <c r="BW20" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BX20" s="1">
-        <v>350.555967</v>
+        <v>350.55596700000001</v>
       </c>
       <c r="BY20" s="1">
-        <v>0.097377</v>
+        <v>9.7377000000000005E-2</v>
       </c>
       <c r="BZ20" s="1">
-        <v>1445.480000</v>
+        <v>1445.48</v>
       </c>
       <c r="CA20" s="1">
-        <v>-896.248000</v>
+        <v>-896.24800000000005</v>
       </c>
       <c r="CB20" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="CC20" s="1">
         <v>363.479263</v>
@@ -5347,1557 +5763,1558 @@
         <v>0.100966</v>
       </c>
       <c r="CE20" s="1">
-        <v>1793.780000</v>
+        <v>1793.78</v>
       </c>
       <c r="CF20" s="1">
-        <v>-1404.690000</v>
+        <v>-1404.69</v>
       </c>
       <c r="CG20" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
     </row>
-    <row r="21">
+    <row r="21" spans="1:85">
       <c r="A21" s="1">
-        <v>191.189890</v>
+        <v>191.18988999999999</v>
       </c>
       <c r="B21" s="1">
-        <v>0.053108</v>
+        <v>5.3108000000000002E-2</v>
       </c>
       <c r="C21" s="1">
-        <v>895.957000</v>
+        <v>895.95699999999999</v>
       </c>
       <c r="D21" s="1">
-        <v>-202.082000</v>
+        <v>-202.08199999999999</v>
       </c>
       <c r="E21" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="F21" s="1">
-        <v>201.625220</v>
+        <v>201.62522000000001</v>
       </c>
       <c r="G21" s="1">
-        <v>0.056007</v>
+        <v>5.6007000000000001E-2</v>
       </c>
       <c r="H21" s="1">
-        <v>914.221000</v>
+        <v>914.221</v>
       </c>
       <c r="I21" s="1">
-        <v>-170.832000</v>
+        <v>-170.83199999999999</v>
       </c>
       <c r="J21" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="K21" s="1">
         <v>212.092296</v>
       </c>
       <c r="L21" s="1">
-        <v>0.058915</v>
+        <v>5.8915000000000002E-2</v>
       </c>
       <c r="M21" s="1">
-        <v>937.452000</v>
+        <v>937.452</v>
       </c>
       <c r="N21" s="1">
-        <v>-120.858000</v>
+        <v>-120.858</v>
       </c>
       <c r="O21" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="P21" s="1">
-        <v>222.673267</v>
+        <v>222.67326700000001</v>
       </c>
       <c r="Q21" s="1">
-        <v>0.061854</v>
+        <v>6.1853999999999999E-2</v>
       </c>
       <c r="R21" s="1">
-        <v>944.321000</v>
+        <v>944.32100000000003</v>
       </c>
       <c r="S21" s="1">
-        <v>-104.120000</v>
+        <v>-104.12</v>
       </c>
       <c r="T21" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="U21" s="1">
         <v>233.118202</v>
       </c>
       <c r="V21" s="1">
-        <v>0.064755</v>
+        <v>6.4754999999999993E-2</v>
       </c>
       <c r="W21" s="1">
-        <v>950.857000</v>
+        <v>950.85699999999997</v>
       </c>
       <c r="X21" s="1">
-        <v>-88.705800</v>
+        <v>-88.705799999999996</v>
       </c>
       <c r="Y21" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="Z21" s="1">
-        <v>243.576845</v>
+        <v>243.57684499999999</v>
       </c>
       <c r="AA21" s="1">
-        <v>0.067660</v>
+        <v>6.7659999999999998E-2</v>
       </c>
       <c r="AB21" s="1">
-        <v>957.956000</v>
+        <v>957.95600000000002</v>
       </c>
       <c r="AC21" s="1">
-        <v>-76.479600</v>
+        <v>-76.479600000000005</v>
       </c>
       <c r="AD21" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AE21" s="1">
-        <v>254.095008</v>
+        <v>254.09500800000001</v>
       </c>
       <c r="AF21" s="1">
-        <v>0.070582</v>
+        <v>7.0582000000000006E-2</v>
       </c>
       <c r="AG21" s="1">
-        <v>962.623000</v>
+        <v>962.62300000000005</v>
       </c>
       <c r="AH21" s="1">
-        <v>-73.953300</v>
+        <v>-73.953299999999999</v>
       </c>
       <c r="AI21" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AJ21" s="1">
-        <v>264.635985</v>
+        <v>264.63598500000001</v>
       </c>
       <c r="AK21" s="1">
-        <v>0.073510</v>
+        <v>7.3510000000000006E-2</v>
       </c>
       <c r="AL21" s="1">
-        <v>969.738000</v>
+        <v>969.73800000000006</v>
       </c>
       <c r="AM21" s="1">
-        <v>-77.914200</v>
+        <v>-77.914199999999994</v>
       </c>
       <c r="AN21" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AO21" s="1">
-        <v>275.142739</v>
+        <v>275.14273900000001</v>
       </c>
       <c r="AP21" s="1">
-        <v>0.076429</v>
+        <v>7.6428999999999997E-2</v>
       </c>
       <c r="AQ21" s="1">
-        <v>977.705000</v>
+        <v>977.70500000000004</v>
       </c>
       <c r="AR21" s="1">
-        <v>-88.741700</v>
+        <v>-88.741699999999994</v>
       </c>
       <c r="AS21" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AT21" s="1">
-        <v>285.969412</v>
+        <v>285.96941199999998</v>
       </c>
       <c r="AU21" s="1">
-        <v>0.079436</v>
+        <v>7.9436000000000007E-2</v>
       </c>
       <c r="AV21" s="1">
-        <v>987.297000</v>
+        <v>987.29700000000003</v>
       </c>
       <c r="AW21" s="1">
-        <v>-105.449000</v>
+        <v>-105.449</v>
       </c>
       <c r="AX21" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AY21" s="1">
-        <v>296.597687</v>
+        <v>296.59768700000001</v>
       </c>
       <c r="AZ21" s="1">
-        <v>0.082388</v>
+        <v>8.2388000000000003E-2</v>
       </c>
       <c r="BA21" s="1">
-        <v>995.229000</v>
+        <v>995.22900000000004</v>
       </c>
       <c r="BB21" s="1">
-        <v>-120.336000</v>
+        <v>-120.336</v>
       </c>
       <c r="BC21" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BD21" s="1">
-        <v>307.593992</v>
+        <v>307.59399200000001</v>
       </c>
       <c r="BE21" s="1">
-        <v>0.085443</v>
+        <v>8.5443000000000005E-2</v>
       </c>
       <c r="BF21" s="1">
-        <v>1032.000000</v>
+        <v>1032</v>
       </c>
       <c r="BG21" s="1">
-        <v>-189.212000</v>
+        <v>-189.21199999999999</v>
       </c>
       <c r="BH21" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BI21" s="1">
-        <v>318.543179</v>
+        <v>318.54317900000001</v>
       </c>
       <c r="BJ21" s="1">
-        <v>0.088484</v>
+        <v>8.8483999999999993E-2</v>
       </c>
       <c r="BK21" s="1">
-        <v>1094.790000</v>
+        <v>1094.79</v>
       </c>
       <c r="BL21" s="1">
-        <v>-302.312000</v>
+        <v>-302.31200000000001</v>
       </c>
       <c r="BM21" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BN21" s="1">
-        <v>329.096556</v>
+        <v>329.09655600000002</v>
       </c>
       <c r="BO21" s="1">
-        <v>0.091416</v>
+        <v>9.1415999999999997E-2</v>
       </c>
       <c r="BP21" s="1">
-        <v>1197.340000</v>
+        <v>1197.3399999999999</v>
       </c>
       <c r="BQ21" s="1">
-        <v>-482.926000</v>
+        <v>-482.92599999999999</v>
       </c>
       <c r="BR21" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BS21" s="1">
-        <v>340.120636</v>
+        <v>340.12063599999999</v>
       </c>
       <c r="BT21" s="1">
-        <v>0.094478</v>
+        <v>9.4478000000000006E-2</v>
       </c>
       <c r="BU21" s="1">
-        <v>1314.170000</v>
+        <v>1314.17</v>
       </c>
       <c r="BV21" s="1">
-        <v>-682.570000</v>
+        <v>-682.57</v>
       </c>
       <c r="BW21" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BX21" s="1">
-        <v>350.977071</v>
+        <v>350.97707100000002</v>
       </c>
       <c r="BY21" s="1">
-        <v>0.097494</v>
+        <v>9.7493999999999997E-2</v>
       </c>
       <c r="BZ21" s="1">
-        <v>1445.520000</v>
+        <v>1445.52</v>
       </c>
       <c r="CA21" s="1">
-        <v>-896.113000</v>
+        <v>-896.11300000000006</v>
       </c>
       <c r="CB21" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="CC21" s="1">
-        <v>364.000029</v>
+        <v>364.00002899999998</v>
       </c>
       <c r="CD21" s="1">
-        <v>0.101111</v>
+        <v>0.10111100000000001</v>
       </c>
       <c r="CE21" s="1">
-        <v>1795.010000</v>
+        <v>1795.01</v>
       </c>
       <c r="CF21" s="1">
-        <v>-1405.150000</v>
+        <v>-1405.15</v>
       </c>
       <c r="CG21" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
     </row>
-    <row r="22">
+    <row r="22" spans="1:85">
       <c r="A22" s="1">
-        <v>191.532166</v>
+        <v>191.53216599999999</v>
       </c>
       <c r="B22" s="1">
-        <v>0.053203</v>
+        <v>5.3203E-2</v>
       </c>
       <c r="C22" s="1">
-        <v>895.990000</v>
+        <v>895.99</v>
       </c>
       <c r="D22" s="1">
-        <v>-202.055000</v>
+        <v>-202.05500000000001</v>
       </c>
       <c r="E22" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="F22" s="1">
         <v>202.316147</v>
       </c>
       <c r="G22" s="1">
-        <v>0.056199</v>
+        <v>5.6198999999999999E-2</v>
       </c>
       <c r="H22" s="1">
-        <v>913.861000</v>
+        <v>913.86099999999999</v>
       </c>
       <c r="I22" s="1">
-        <v>-170.725000</v>
+        <v>-170.72499999999999</v>
       </c>
       <c r="J22" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="K22" s="1">
-        <v>212.785701</v>
+        <v>212.78570099999999</v>
       </c>
       <c r="L22" s="1">
-        <v>0.059107</v>
+        <v>5.9107E-2</v>
       </c>
       <c r="M22" s="1">
-        <v>937.480000</v>
+        <v>937.48</v>
       </c>
       <c r="N22" s="1">
-        <v>-120.780000</v>
+        <v>-120.78</v>
       </c>
       <c r="O22" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="P22" s="1">
-        <v>223.022642</v>
+        <v>223.02264199999999</v>
       </c>
       <c r="Q22" s="1">
-        <v>0.061951</v>
+        <v>6.1950999999999999E-2</v>
       </c>
       <c r="R22" s="1">
-        <v>944.355000</v>
+        <v>944.35500000000002</v>
       </c>
       <c r="S22" s="1">
-        <v>-104.131000</v>
+        <v>-104.131</v>
       </c>
       <c r="T22" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="U22" s="1">
         <v>233.461434</v>
       </c>
       <c r="V22" s="1">
-        <v>0.064850</v>
+        <v>6.4850000000000005E-2</v>
       </c>
       <c r="W22" s="1">
-        <v>950.846000</v>
+        <v>950.846</v>
       </c>
       <c r="X22" s="1">
-        <v>-88.661100</v>
+        <v>-88.661100000000005</v>
       </c>
       <c r="Y22" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="Z22" s="1">
-        <v>243.924044</v>
+        <v>243.92404400000001</v>
       </c>
       <c r="AA22" s="1">
-        <v>0.067757</v>
+        <v>6.7756999999999998E-2</v>
       </c>
       <c r="AB22" s="1">
-        <v>957.996000</v>
+        <v>957.99599999999998</v>
       </c>
       <c r="AC22" s="1">
-        <v>-76.625700</v>
+        <v>-76.625699999999995</v>
       </c>
       <c r="AD22" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AE22" s="1">
-        <v>254.759181</v>
+        <v>254.75918100000001</v>
       </c>
       <c r="AF22" s="1">
-        <v>0.070766</v>
+        <v>7.0765999999999996E-2</v>
       </c>
       <c r="AG22" s="1">
-        <v>962.651000</v>
+        <v>962.65099999999995</v>
       </c>
       <c r="AH22" s="1">
-        <v>-73.900800</v>
+        <v>-73.900800000000004</v>
       </c>
       <c r="AI22" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AJ22" s="1">
-        <v>265.025840</v>
+        <v>265.02584000000002</v>
       </c>
       <c r="AK22" s="1">
-        <v>0.073618</v>
+        <v>7.3618000000000003E-2</v>
       </c>
       <c r="AL22" s="1">
-        <v>969.769000</v>
+        <v>969.76900000000001</v>
       </c>
       <c r="AM22" s="1">
-        <v>-77.951600</v>
+        <v>-77.951599999999999</v>
       </c>
       <c r="AN22" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AO22" s="1">
-        <v>275.588146</v>
+        <v>275.58814599999999</v>
       </c>
       <c r="AP22" s="1">
-        <v>0.076552</v>
+        <v>7.6551999999999995E-2</v>
       </c>
       <c r="AQ22" s="1">
-        <v>977.695000</v>
+        <v>977.69500000000005</v>
       </c>
       <c r="AR22" s="1">
-        <v>-88.721700</v>
+        <v>-88.721699999999998</v>
       </c>
       <c r="AS22" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AT22" s="1">
-        <v>286.334239</v>
+        <v>286.33423900000003</v>
       </c>
       <c r="AU22" s="1">
-        <v>0.079537</v>
+        <v>7.9536999999999997E-2</v>
       </c>
       <c r="AV22" s="1">
-        <v>987.305000</v>
+        <v>987.30499999999995</v>
       </c>
       <c r="AW22" s="1">
-        <v>-105.467000</v>
+        <v>-105.467</v>
       </c>
       <c r="AX22" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AY22" s="1">
-        <v>296.957783</v>
+        <v>296.95778300000001</v>
       </c>
       <c r="AZ22" s="1">
-        <v>0.082488</v>
+        <v>8.2488000000000006E-2</v>
       </c>
       <c r="BA22" s="1">
-        <v>995.265000</v>
+        <v>995.26499999999999</v>
       </c>
       <c r="BB22" s="1">
-        <v>-120.330000</v>
+        <v>-120.33</v>
       </c>
       <c r="BC22" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BD22" s="1">
-        <v>307.955575</v>
+        <v>307.95557500000001</v>
       </c>
       <c r="BE22" s="1">
-        <v>0.085543</v>
+        <v>8.5542999999999994E-2</v>
       </c>
       <c r="BF22" s="1">
-        <v>1031.990000</v>
+        <v>1031.99</v>
       </c>
       <c r="BG22" s="1">
-        <v>-189.204000</v>
+        <v>-189.20400000000001</v>
       </c>
       <c r="BH22" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BI22" s="1">
-        <v>318.959817</v>
+        <v>318.95981699999999</v>
       </c>
       <c r="BJ22" s="1">
-        <v>0.088600</v>
+        <v>8.8599999999999998E-2</v>
       </c>
       <c r="BK22" s="1">
-        <v>1094.800000</v>
+        <v>1094.8</v>
       </c>
       <c r="BL22" s="1">
-        <v>-302.315000</v>
+        <v>-302.315</v>
       </c>
       <c r="BM22" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BN22" s="1">
-        <v>329.900074</v>
+        <v>329.90007400000002</v>
       </c>
       <c r="BO22" s="1">
-        <v>0.091639</v>
+        <v>9.1638999999999998E-2</v>
       </c>
       <c r="BP22" s="1">
-        <v>1197.290000</v>
+        <v>1197.29</v>
       </c>
       <c r="BQ22" s="1">
-        <v>-482.949000</v>
+        <v>-482.94900000000001</v>
       </c>
       <c r="BR22" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BS22" s="1">
-        <v>340.534338</v>
+        <v>340.53433799999999</v>
       </c>
       <c r="BT22" s="1">
-        <v>0.094593</v>
+        <v>9.4592999999999997E-2</v>
       </c>
       <c r="BU22" s="1">
-        <v>1314.180000</v>
+        <v>1314.18</v>
       </c>
       <c r="BV22" s="1">
-        <v>-682.755000</v>
+        <v>-682.755</v>
       </c>
       <c r="BW22" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BX22" s="1">
-        <v>351.402142</v>
+        <v>351.40214200000003</v>
       </c>
       <c r="BY22" s="1">
-        <v>0.097612</v>
+        <v>9.7612000000000004E-2</v>
       </c>
       <c r="BZ22" s="1">
-        <v>1445.530000</v>
+        <v>1445.53</v>
       </c>
       <c r="CA22" s="1">
-        <v>-896.240000</v>
+        <v>-896.24</v>
       </c>
       <c r="CB22" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="CC22" s="1">
-        <v>364.540173</v>
+        <v>364.54017299999998</v>
       </c>
       <c r="CD22" s="1">
         <v>0.101261</v>
       </c>
       <c r="CE22" s="1">
-        <v>1794.700000</v>
+        <v>1794.7</v>
       </c>
       <c r="CF22" s="1">
-        <v>-1403.860000</v>
+        <v>-1403.86</v>
       </c>
       <c r="CG22" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
     </row>
-    <row r="23">
+    <row r="23" spans="1:85">
       <c r="A23" s="1">
-        <v>192.214128</v>
+        <v>192.21412799999999</v>
       </c>
       <c r="B23" s="1">
-        <v>0.053393</v>
+        <v>5.3393000000000003E-2</v>
       </c>
       <c r="C23" s="1">
-        <v>895.847000</v>
+        <v>895.84699999999998</v>
       </c>
       <c r="D23" s="1">
-        <v>-201.994000</v>
+        <v>-201.994</v>
       </c>
       <c r="E23" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="F23" s="1">
-        <v>202.661363</v>
+        <v>202.66136299999999</v>
       </c>
       <c r="G23" s="1">
-        <v>0.056295</v>
+        <v>5.6294999999999998E-2</v>
       </c>
       <c r="H23" s="1">
-        <v>914.009000</v>
+        <v>914.00900000000001</v>
       </c>
       <c r="I23" s="1">
-        <v>-170.832000</v>
+        <v>-170.83199999999999</v>
       </c>
       <c r="J23" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="K23" s="1">
-        <v>213.131444</v>
+        <v>213.13144399999999</v>
       </c>
       <c r="L23" s="1">
-        <v>0.059203</v>
+        <v>5.9202999999999999E-2</v>
       </c>
       <c r="M23" s="1">
-        <v>937.463000</v>
+        <v>937.46299999999997</v>
       </c>
       <c r="N23" s="1">
-        <v>-120.838000</v>
+        <v>-120.83799999999999</v>
       </c>
       <c r="O23" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="P23" s="1">
         <v>223.369336</v>
       </c>
       <c r="Q23" s="1">
-        <v>0.062047</v>
+        <v>6.2046999999999998E-2</v>
       </c>
       <c r="R23" s="1">
-        <v>944.354000</v>
+        <v>944.35400000000004</v>
       </c>
       <c r="S23" s="1">
-        <v>-104.125000</v>
+        <v>-104.125</v>
       </c>
       <c r="T23" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="U23" s="1">
-        <v>234.110201</v>
+        <v>234.11020099999999</v>
       </c>
       <c r="V23" s="1">
-        <v>0.065031</v>
+        <v>6.5031000000000005E-2</v>
       </c>
       <c r="W23" s="1">
-        <v>950.805000</v>
+        <v>950.80499999999995</v>
       </c>
       <c r="X23" s="1">
-        <v>-88.698400</v>
+        <v>-88.698400000000007</v>
       </c>
       <c r="Y23" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="Z23" s="1">
-        <v>244.577276</v>
+        <v>244.57727600000001</v>
       </c>
       <c r="AA23" s="1">
-        <v>0.067938</v>
+        <v>6.7937999999999998E-2</v>
       </c>
       <c r="AB23" s="1">
-        <v>957.973000</v>
+        <v>957.97299999999996</v>
       </c>
       <c r="AC23" s="1">
-        <v>-76.526000</v>
+        <v>-76.525999999999996</v>
       </c>
       <c r="AD23" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AE23" s="1">
-        <v>255.131149</v>
+        <v>255.13114899999999</v>
       </c>
       <c r="AF23" s="1">
-        <v>0.070870</v>
+        <v>7.0870000000000002E-2</v>
       </c>
       <c r="AG23" s="1">
-        <v>962.612000</v>
+        <v>962.61199999999997</v>
       </c>
       <c r="AH23" s="1">
-        <v>-73.912700</v>
+        <v>-73.912700000000001</v>
       </c>
       <c r="AI23" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AJ23" s="1">
-        <v>265.376017</v>
+        <v>265.37601699999999</v>
       </c>
       <c r="AK23" s="1">
-        <v>0.073716</v>
+        <v>7.3716000000000004E-2</v>
       </c>
       <c r="AL23" s="1">
-        <v>969.767000</v>
+        <v>969.76700000000005</v>
       </c>
       <c r="AM23" s="1">
-        <v>-77.944800</v>
+        <v>-77.944800000000001</v>
       </c>
       <c r="AN23" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AO23" s="1">
-        <v>275.947282</v>
+        <v>275.94728199999997</v>
       </c>
       <c r="AP23" s="1">
-        <v>0.076652</v>
+        <v>7.6651999999999998E-2</v>
       </c>
       <c r="AQ23" s="1">
-        <v>977.680000</v>
+        <v>977.68</v>
       </c>
       <c r="AR23" s="1">
-        <v>-88.733000</v>
+        <v>-88.733000000000004</v>
       </c>
       <c r="AS23" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AT23" s="1">
         <v>286.698036</v>
       </c>
       <c r="AU23" s="1">
-        <v>0.079638</v>
+        <v>7.9638E-2</v>
       </c>
       <c r="AV23" s="1">
-        <v>987.280000</v>
+        <v>987.28</v>
       </c>
       <c r="AW23" s="1">
-        <v>-105.462000</v>
+        <v>-105.462</v>
       </c>
       <c r="AX23" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AY23" s="1">
         <v>297.370453</v>
       </c>
       <c r="AZ23" s="1">
-        <v>0.082603</v>
+        <v>8.2602999999999996E-2</v>
       </c>
       <c r="BA23" s="1">
-        <v>995.228000</v>
+        <v>995.22799999999995</v>
       </c>
       <c r="BB23" s="1">
-        <v>-120.337000</v>
+        <v>-120.337</v>
       </c>
       <c r="BC23" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BD23" s="1">
-        <v>308.374695</v>
+        <v>308.37469499999997</v>
       </c>
       <c r="BE23" s="1">
-        <v>0.085660</v>
+        <v>8.566E-2</v>
       </c>
       <c r="BF23" s="1">
-        <v>1032.020000</v>
+        <v>1032.02</v>
       </c>
       <c r="BG23" s="1">
-        <v>-189.193000</v>
+        <v>-189.19300000000001</v>
       </c>
       <c r="BH23" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BI23" s="1">
-        <v>319.318958</v>
+        <v>319.31895800000001</v>
       </c>
       <c r="BJ23" s="1">
-        <v>0.088700</v>
+        <v>8.8700000000000001E-2</v>
       </c>
       <c r="BK23" s="1">
-        <v>1094.810000</v>
+        <v>1094.81</v>
       </c>
       <c r="BL23" s="1">
-        <v>-302.358000</v>
+        <v>-302.358</v>
       </c>
       <c r="BM23" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BN23" s="1">
-        <v>330.319690</v>
+        <v>330.31968999999998</v>
       </c>
       <c r="BO23" s="1">
-        <v>0.091755</v>
+        <v>9.1755000000000003E-2</v>
       </c>
       <c r="BP23" s="1">
-        <v>1197.320000</v>
+        <v>1197.32</v>
       </c>
       <c r="BQ23" s="1">
-        <v>-482.985000</v>
+        <v>-482.98500000000001</v>
       </c>
       <c r="BR23" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BS23" s="1">
-        <v>340.962699</v>
+        <v>340.96269899999999</v>
       </c>
       <c r="BT23" s="1">
-        <v>0.094712</v>
+        <v>9.4712000000000005E-2</v>
       </c>
       <c r="BU23" s="1">
-        <v>1314.100000</v>
+        <v>1314.1</v>
       </c>
       <c r="BV23" s="1">
-        <v>-682.854000</v>
+        <v>-682.85400000000004</v>
       </c>
       <c r="BW23" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BX23" s="1">
-        <v>351.817326</v>
+        <v>351.81732599999998</v>
       </c>
       <c r="BY23" s="1">
-        <v>0.097727</v>
+        <v>9.7726999999999994E-2</v>
       </c>
       <c r="BZ23" s="1">
-        <v>1445.560000</v>
+        <v>1445.56</v>
       </c>
       <c r="CA23" s="1">
-        <v>-896.224000</v>
+        <v>-896.22400000000005</v>
       </c>
       <c r="CB23" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="CC23" s="1">
-        <v>365.077340</v>
+        <v>365.07733999999999</v>
       </c>
       <c r="CD23" s="1">
-        <v>0.101410</v>
+        <v>0.10141</v>
       </c>
       <c r="CE23" s="1">
-        <v>1794.060000</v>
+        <v>1794.06</v>
       </c>
       <c r="CF23" s="1">
-        <v>-1405.280000</v>
+        <v>-1405.28</v>
       </c>
       <c r="CG23" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
     </row>
-    <row r="24">
+    <row r="24" spans="1:85">
       <c r="A24" s="1">
-        <v>192.558366</v>
+        <v>192.55836600000001</v>
       </c>
       <c r="B24" s="1">
-        <v>0.053488</v>
+        <v>5.3488000000000001E-2</v>
       </c>
       <c r="C24" s="1">
-        <v>896.033000</v>
+        <v>896.03300000000002</v>
       </c>
       <c r="D24" s="1">
-        <v>-202.125000</v>
+        <v>-202.125</v>
       </c>
       <c r="E24" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="F24" s="1">
         <v>203.003602</v>
       </c>
       <c r="G24" s="1">
-        <v>0.056390</v>
+        <v>5.6390000000000003E-2</v>
       </c>
       <c r="H24" s="1">
-        <v>914.210000</v>
+        <v>914.21</v>
       </c>
       <c r="I24" s="1">
-        <v>-170.710000</v>
+        <v>-170.71</v>
       </c>
       <c r="J24" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="K24" s="1">
         <v>213.476134</v>
       </c>
       <c r="L24" s="1">
-        <v>0.059299</v>
+        <v>5.9298999999999998E-2</v>
       </c>
       <c r="M24" s="1">
-        <v>937.542000</v>
+        <v>937.54200000000003</v>
       </c>
       <c r="N24" s="1">
-        <v>-120.665000</v>
+        <v>-120.66500000000001</v>
       </c>
       <c r="O24" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="P24" s="1">
-        <v>224.021079</v>
+        <v>224.02107899999999</v>
       </c>
       <c r="Q24" s="1">
-        <v>0.062228</v>
+        <v>6.2227999999999999E-2</v>
       </c>
       <c r="R24" s="1">
-        <v>944.255000</v>
+        <v>944.255</v>
       </c>
       <c r="S24" s="1">
-        <v>-104.121000</v>
+        <v>-104.121</v>
       </c>
       <c r="T24" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="U24" s="1">
         <v>234.491626</v>
       </c>
       <c r="V24" s="1">
-        <v>0.065137</v>
+        <v>6.5137E-2</v>
       </c>
       <c r="W24" s="1">
-        <v>950.860000</v>
+        <v>950.86</v>
       </c>
       <c r="X24" s="1">
-        <v>-88.678700</v>
+        <v>-88.678700000000006</v>
       </c>
       <c r="Y24" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="Z24" s="1">
-        <v>244.965180</v>
+        <v>244.96518</v>
       </c>
       <c r="AA24" s="1">
-        <v>0.068046</v>
+        <v>6.8045999999999995E-2</v>
       </c>
       <c r="AB24" s="1">
-        <v>957.937000</v>
+        <v>957.93700000000001</v>
       </c>
       <c r="AC24" s="1">
-        <v>-76.531600</v>
+        <v>-76.531599999999997</v>
       </c>
       <c r="AD24" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AE24" s="1">
-        <v>255.478349</v>
+        <v>255.47834900000001</v>
       </c>
       <c r="AF24" s="1">
-        <v>0.070966</v>
+        <v>7.0966000000000001E-2</v>
       </c>
       <c r="AG24" s="1">
-        <v>962.649000</v>
+        <v>962.649</v>
       </c>
       <c r="AH24" s="1">
-        <v>-73.901200</v>
+        <v>-73.901200000000003</v>
       </c>
       <c r="AI24" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AJ24" s="1">
-        <v>265.723216</v>
+        <v>265.72321599999998</v>
       </c>
       <c r="AK24" s="1">
-        <v>0.073812</v>
+        <v>7.3812000000000003E-2</v>
       </c>
       <c r="AL24" s="1">
-        <v>969.742000</v>
+        <v>969.74199999999996</v>
       </c>
       <c r="AM24" s="1">
-        <v>-77.949900</v>
+        <v>-77.9499</v>
       </c>
       <c r="AN24" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AO24" s="1">
         <v>276.306849</v>
       </c>
       <c r="AP24" s="1">
-        <v>0.076752</v>
+        <v>7.6752000000000001E-2</v>
       </c>
       <c r="AQ24" s="1">
-        <v>977.712000</v>
+        <v>977.71199999999999</v>
       </c>
       <c r="AR24" s="1">
-        <v>-88.742700</v>
+        <v>-88.742699999999999</v>
       </c>
       <c r="AS24" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AT24" s="1">
-        <v>287.127571</v>
+        <v>287.12757099999999</v>
       </c>
       <c r="AU24" s="1">
-        <v>0.079758</v>
+        <v>7.9757999999999996E-2</v>
       </c>
       <c r="AV24" s="1">
-        <v>987.290000</v>
+        <v>987.29</v>
       </c>
       <c r="AW24" s="1">
-        <v>-105.454000</v>
+        <v>-105.45399999999999</v>
       </c>
       <c r="AX24" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AY24" s="1">
         <v>297.673541</v>
       </c>
       <c r="AZ24" s="1">
-        <v>0.082687</v>
+        <v>8.2686999999999997E-2</v>
       </c>
       <c r="BA24" s="1">
-        <v>995.251000</v>
+        <v>995.25099999999998</v>
       </c>
       <c r="BB24" s="1">
-        <v>-120.310000</v>
+        <v>-120.31</v>
       </c>
       <c r="BC24" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BD24" s="1">
         <v>308.678742</v>
       </c>
       <c r="BE24" s="1">
-        <v>0.085744</v>
+        <v>8.5744000000000001E-2</v>
       </c>
       <c r="BF24" s="1">
-        <v>1031.990000</v>
+        <v>1031.99</v>
       </c>
       <c r="BG24" s="1">
-        <v>-189.212000</v>
+        <v>-189.21199999999999</v>
       </c>
       <c r="BH24" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BI24" s="1">
-        <v>319.696872</v>
+        <v>319.69687199999998</v>
       </c>
       <c r="BJ24" s="1">
-        <v>0.088805</v>
+        <v>8.8804999999999995E-2</v>
       </c>
       <c r="BK24" s="1">
-        <v>1094.780000</v>
+        <v>1094.78</v>
       </c>
       <c r="BL24" s="1">
-        <v>-302.355000</v>
+        <v>-302.35500000000002</v>
       </c>
       <c r="BM24" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BN24" s="1">
-        <v>330.713020</v>
+        <v>330.71301999999997</v>
       </c>
       <c r="BO24" s="1">
-        <v>0.091865</v>
+        <v>9.1865000000000002E-2</v>
       </c>
       <c r="BP24" s="1">
-        <v>1197.330000</v>
+        <v>1197.33</v>
       </c>
       <c r="BQ24" s="1">
-        <v>-482.973000</v>
+        <v>-482.97300000000001</v>
       </c>
       <c r="BR24" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BS24" s="1">
-        <v>341.389935</v>
+        <v>341.38993499999998</v>
       </c>
       <c r="BT24" s="1">
-        <v>0.094831</v>
+        <v>9.4830999999999999E-2</v>
       </c>
       <c r="BU24" s="1">
-        <v>1314.040000</v>
+        <v>1314.04</v>
       </c>
       <c r="BV24" s="1">
-        <v>-682.857000</v>
+        <v>-682.85699999999997</v>
       </c>
       <c r="BW24" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BX24" s="1">
-        <v>352.272125</v>
+        <v>352.27212500000002</v>
       </c>
       <c r="BY24" s="1">
-        <v>0.097853</v>
+        <v>9.7852999999999996E-2</v>
       </c>
       <c r="BZ24" s="1">
-        <v>1445.540000</v>
+        <v>1445.54</v>
       </c>
       <c r="CA24" s="1">
-        <v>-896.218000</v>
+        <v>-896.21799999999996</v>
       </c>
       <c r="CB24" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="CC24" s="1">
-        <v>365.620492</v>
+        <v>365.62049200000001</v>
       </c>
       <c r="CD24" s="1">
         <v>0.101561</v>
       </c>
       <c r="CE24" s="1">
-        <v>1795.190000</v>
+        <v>1795.19</v>
       </c>
       <c r="CF24" s="1">
-        <v>-1404.630000</v>
+        <v>-1404.63</v>
       </c>
       <c r="CG24" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
     </row>
-    <row r="25">
+    <row r="25" spans="1:85">
       <c r="A25" s="1">
-        <v>192.900591</v>
+        <v>192.90059099999999</v>
       </c>
       <c r="B25" s="1">
-        <v>0.053583</v>
+        <v>5.3582999999999999E-2</v>
       </c>
       <c r="C25" s="1">
-        <v>896.004000</v>
+        <v>896.00400000000002</v>
       </c>
       <c r="D25" s="1">
-        <v>-202.050000</v>
+        <v>-202.05</v>
       </c>
       <c r="E25" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="F25" s="1">
         <v>203.648931</v>
       </c>
       <c r="G25" s="1">
-        <v>0.056569</v>
+        <v>5.6569000000000001E-2</v>
       </c>
       <c r="H25" s="1">
-        <v>914.138000</v>
+        <v>914.13800000000003</v>
       </c>
       <c r="I25" s="1">
-        <v>-170.701000</v>
+        <v>-170.70099999999999</v>
       </c>
       <c r="J25" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="K25" s="1">
-        <v>214.212195</v>
+        <v>214.21219500000001</v>
       </c>
       <c r="L25" s="1">
-        <v>0.059503</v>
+        <v>5.9503E-2</v>
       </c>
       <c r="M25" s="1">
-        <v>937.362000</v>
+        <v>937.36199999999997</v>
       </c>
       <c r="N25" s="1">
-        <v>-120.623000</v>
+        <v>-120.623</v>
       </c>
       <c r="O25" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="P25" s="1">
-        <v>224.425845</v>
+        <v>224.42584500000001</v>
       </c>
       <c r="Q25" s="1">
-        <v>0.062341</v>
+        <v>6.2341000000000001E-2</v>
       </c>
       <c r="R25" s="1">
-        <v>944.277000</v>
+        <v>944.27700000000004</v>
       </c>
       <c r="S25" s="1">
-        <v>-104.110000</v>
+        <v>-104.11</v>
       </c>
       <c r="T25" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="U25" s="1">
-        <v>234.834888</v>
+        <v>234.83488800000001</v>
       </c>
       <c r="V25" s="1">
-        <v>0.065232</v>
+        <v>6.5231999999999998E-2</v>
       </c>
       <c r="W25" s="1">
-        <v>950.817000</v>
+        <v>950.81700000000001</v>
       </c>
       <c r="X25" s="1">
-        <v>-88.720400</v>
+        <v>-88.720399999999998</v>
       </c>
       <c r="Y25" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="Z25" s="1">
         <v>245.318794</v>
       </c>
       <c r="AA25" s="1">
-        <v>0.068144</v>
+        <v>6.8143999999999996E-2</v>
       </c>
       <c r="AB25" s="1">
-        <v>957.958000</v>
+        <v>957.95799999999997</v>
       </c>
       <c r="AC25" s="1">
-        <v>-76.572500</v>
+        <v>-76.572500000000005</v>
       </c>
       <c r="AD25" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AE25" s="1">
         <v>255.822114</v>
       </c>
       <c r="AF25" s="1">
-        <v>0.071062</v>
+        <v>7.1062E-2</v>
       </c>
       <c r="AG25" s="1">
-        <v>962.657000</v>
+        <v>962.65700000000004</v>
       </c>
       <c r="AH25" s="1">
-        <v>-73.925700</v>
+        <v>-73.925700000000006</v>
       </c>
       <c r="AI25" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AJ25" s="1">
-        <v>266.135391</v>
+        <v>266.13539100000003</v>
       </c>
       <c r="AK25" s="1">
-        <v>0.073926</v>
+        <v>7.3926000000000006E-2</v>
       </c>
       <c r="AL25" s="1">
-        <v>969.752000</v>
+        <v>969.75199999999995</v>
       </c>
       <c r="AM25" s="1">
-        <v>-77.937200</v>
+        <v>-77.937200000000004</v>
       </c>
       <c r="AN25" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AO25" s="1">
-        <v>276.723489</v>
+        <v>276.72348899999997</v>
       </c>
       <c r="AP25" s="1">
-        <v>0.076868</v>
+        <v>7.6868000000000006E-2</v>
       </c>
       <c r="AQ25" s="1">
-        <v>977.698000</v>
+        <v>977.69799999999998</v>
       </c>
       <c r="AR25" s="1">
-        <v>-88.727100</v>
+        <v>-88.727099999999993</v>
       </c>
       <c r="AS25" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AT25" s="1">
-        <v>287.427686</v>
+        <v>287.42768599999999</v>
       </c>
       <c r="AU25" s="1">
-        <v>0.079841</v>
+        <v>7.9840999999999995E-2</v>
       </c>
       <c r="AV25" s="1">
-        <v>987.280000</v>
+        <v>987.28</v>
       </c>
       <c r="AW25" s="1">
-        <v>-105.471000</v>
+        <v>-105.471</v>
       </c>
       <c r="AX25" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AY25" s="1">
-        <v>298.032153</v>
+        <v>298.03215299999999</v>
       </c>
       <c r="AZ25" s="1">
-        <v>0.082787</v>
+        <v>8.2786999999999999E-2</v>
       </c>
       <c r="BA25" s="1">
-        <v>995.250000</v>
+        <v>995.25</v>
       </c>
       <c r="BB25" s="1">
-        <v>-120.325000</v>
+        <v>-120.325</v>
       </c>
       <c r="BC25" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BD25" s="1">
         <v>309.038342</v>
       </c>
       <c r="BE25" s="1">
-        <v>0.085844</v>
+        <v>8.5844000000000004E-2</v>
       </c>
       <c r="BF25" s="1">
-        <v>1031.990000</v>
+        <v>1031.99</v>
       </c>
       <c r="BG25" s="1">
-        <v>-189.223000</v>
+        <v>-189.22300000000001</v>
       </c>
       <c r="BH25" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BI25" s="1">
-        <v>320.073336</v>
+        <v>320.07333599999998</v>
       </c>
       <c r="BJ25" s="1">
-        <v>0.088909</v>
+        <v>8.8909000000000002E-2</v>
       </c>
       <c r="BK25" s="1">
-        <v>1094.810000</v>
+        <v>1094.81</v>
       </c>
       <c r="BL25" s="1">
-        <v>-302.344000</v>
+        <v>-302.34399999999999</v>
       </c>
       <c r="BM25" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BN25" s="1">
-        <v>331.135113</v>
+        <v>331.13511299999999</v>
       </c>
       <c r="BO25" s="1">
-        <v>0.091982</v>
+        <v>9.1981999999999994E-2</v>
       </c>
       <c r="BP25" s="1">
-        <v>1197.340000</v>
+        <v>1197.3399999999999</v>
       </c>
       <c r="BQ25" s="1">
-        <v>-482.959000</v>
+        <v>-482.959</v>
       </c>
       <c r="BR25" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BS25" s="1">
-        <v>341.796620</v>
+        <v>341.79662000000002</v>
       </c>
       <c r="BT25" s="1">
-        <v>0.094944</v>
+        <v>9.4944000000000001E-2</v>
       </c>
       <c r="BU25" s="1">
-        <v>1313.940000</v>
+        <v>1313.94</v>
       </c>
       <c r="BV25" s="1">
-        <v>-682.952000</v>
+        <v>-682.952</v>
       </c>
       <c r="BW25" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BX25" s="1">
         <v>352.720508</v>
       </c>
       <c r="BY25" s="1">
-        <v>0.097978</v>
+        <v>9.7977999999999996E-2</v>
       </c>
       <c r="BZ25" s="1">
-        <v>1445.610000</v>
+        <v>1445.61</v>
       </c>
       <c r="CA25" s="1">
-        <v>-896.120000</v>
+        <v>-896.12</v>
       </c>
       <c r="CB25" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="CC25" s="1">
-        <v>366.158154</v>
+        <v>366.15815400000002</v>
       </c>
       <c r="CD25" s="1">
         <v>0.101711</v>
       </c>
       <c r="CE25" s="1">
-        <v>1794.120000</v>
+        <v>1794.12</v>
       </c>
       <c r="CF25" s="1">
-        <v>-1403.890000</v>
+        <v>-1403.89</v>
       </c>
       <c r="CG25" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
     </row>
-    <row r="26">
+    <row r="26" spans="1:85">
       <c r="A26" s="1">
-        <v>193.557296</v>
+        <v>193.55729600000001</v>
       </c>
       <c r="B26" s="1">
-        <v>0.053766</v>
+        <v>5.3766000000000001E-2</v>
       </c>
       <c r="C26" s="1">
-        <v>895.808000</v>
+        <v>895.80799999999999</v>
       </c>
       <c r="D26" s="1">
-        <v>-202.293000</v>
+        <v>-202.29300000000001</v>
       </c>
       <c r="E26" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="F26" s="1">
-        <v>204.038257</v>
+        <v>204.03825699999999</v>
       </c>
       <c r="G26" s="1">
-        <v>0.056677</v>
+        <v>5.6676999999999998E-2</v>
       </c>
       <c r="H26" s="1">
-        <v>914.013000</v>
+        <v>914.01300000000003</v>
       </c>
       <c r="I26" s="1">
-        <v>-170.633000</v>
+        <v>-170.63300000000001</v>
       </c>
       <c r="J26" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="K26" s="1">
         <v>214.515747</v>
       </c>
       <c r="L26" s="1">
-        <v>0.059588</v>
+        <v>5.9588000000000002E-2</v>
       </c>
       <c r="M26" s="1">
-        <v>937.244000</v>
+        <v>937.24400000000003</v>
       </c>
       <c r="N26" s="1">
-        <v>-120.710000</v>
+        <v>-120.71</v>
       </c>
       <c r="O26" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="P26" s="1">
-        <v>224.768054</v>
+        <v>224.76805400000001</v>
       </c>
       <c r="Q26" s="1">
-        <v>0.062436</v>
+        <v>6.2435999999999998E-2</v>
       </c>
       <c r="R26" s="1">
-        <v>944.293000</v>
+        <v>944.29300000000001</v>
       </c>
       <c r="S26" s="1">
-        <v>-104.108000</v>
+        <v>-104.108</v>
       </c>
       <c r="T26" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="U26" s="1">
-        <v>235.182055</v>
+        <v>235.18205499999999</v>
       </c>
       <c r="V26" s="1">
-        <v>0.065328</v>
+        <v>6.5327999999999997E-2</v>
       </c>
       <c r="W26" s="1">
-        <v>950.830000</v>
+        <v>950.83</v>
       </c>
       <c r="X26" s="1">
-        <v>-88.632700</v>
+        <v>-88.6327</v>
       </c>
       <c r="Y26" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="Z26" s="1">
-        <v>245.666987</v>
+        <v>245.66698700000001</v>
       </c>
       <c r="AA26" s="1">
-        <v>0.068241</v>
+        <v>6.8240999999999996E-2</v>
       </c>
       <c r="AB26" s="1">
-        <v>958.002000</v>
+        <v>958.00199999999995</v>
       </c>
       <c r="AC26" s="1">
-        <v>-76.613200</v>
+        <v>-76.613200000000006</v>
       </c>
       <c r="AD26" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AE26" s="1">
-        <v>256.247643</v>
+        <v>256.24764299999998</v>
       </c>
       <c r="AF26" s="1">
-        <v>0.071180</v>
+        <v>7.1179999999999993E-2</v>
       </c>
       <c r="AG26" s="1">
-        <v>962.634000</v>
+        <v>962.63400000000001</v>
       </c>
       <c r="AH26" s="1">
-        <v>-73.910200</v>
+        <v>-73.910200000000003</v>
       </c>
       <c r="AI26" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AJ26" s="1">
         <v>266.422078</v>
       </c>
       <c r="AK26" s="1">
-        <v>0.074006</v>
+        <v>7.4006000000000002E-2</v>
       </c>
       <c r="AL26" s="1">
-        <v>969.766000</v>
+        <v>969.76599999999996</v>
       </c>
       <c r="AM26" s="1">
-        <v>-77.940700</v>
+        <v>-77.940700000000007</v>
       </c>
       <c r="AN26" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AO26" s="1">
         <v>277.025554</v>
       </c>
       <c r="AP26" s="1">
-        <v>0.076952</v>
+        <v>7.6952000000000007E-2</v>
       </c>
       <c r="AQ26" s="1">
-        <v>977.685000</v>
+        <v>977.68499999999995</v>
       </c>
       <c r="AR26" s="1">
-        <v>-88.738100</v>
+        <v>-88.738100000000003</v>
       </c>
       <c r="AS26" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AT26" s="1">
-        <v>287.790723</v>
+        <v>287.79072300000001</v>
       </c>
       <c r="AU26" s="1">
-        <v>0.079942</v>
+        <v>7.9941999999999999E-2</v>
       </c>
       <c r="AV26" s="1">
-        <v>987.295000</v>
+        <v>987.29499999999996</v>
       </c>
       <c r="AW26" s="1">
-        <v>-105.452000</v>
+        <v>-105.452</v>
       </c>
       <c r="AX26" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AY26" s="1">
-        <v>298.379316</v>
+        <v>298.37931600000002</v>
       </c>
       <c r="AZ26" s="1">
-        <v>0.082883</v>
+        <v>8.2882999999999998E-2</v>
       </c>
       <c r="BA26" s="1">
-        <v>995.257000</v>
+        <v>995.25699999999995</v>
       </c>
       <c r="BB26" s="1">
-        <v>-120.330000</v>
+        <v>-120.33</v>
       </c>
       <c r="BC26" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BD26" s="1">
-        <v>309.399343</v>
+        <v>309.39934299999999</v>
       </c>
       <c r="BE26" s="1">
-        <v>0.085944</v>
+        <v>8.5944000000000007E-2</v>
       </c>
       <c r="BF26" s="1">
-        <v>1032.030000</v>
+        <v>1032.03</v>
       </c>
       <c r="BG26" s="1">
-        <v>-189.187000</v>
+        <v>-189.18700000000001</v>
       </c>
       <c r="BH26" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BI26" s="1">
-        <v>320.822321</v>
+        <v>320.82232099999999</v>
       </c>
       <c r="BJ26" s="1">
-        <v>0.089117</v>
+        <v>8.9117000000000002E-2</v>
       </c>
       <c r="BK26" s="1">
-        <v>1094.810000</v>
+        <v>1094.81</v>
       </c>
       <c r="BL26" s="1">
-        <v>-302.349000</v>
+        <v>-302.34899999999999</v>
       </c>
       <c r="BM26" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BN26" s="1">
-        <v>331.534392</v>
+        <v>331.53439200000003</v>
       </c>
       <c r="BO26" s="1">
-        <v>0.092093</v>
+        <v>9.2092999999999994E-2</v>
       </c>
       <c r="BP26" s="1">
-        <v>1197.310000</v>
+        <v>1197.31</v>
       </c>
       <c r="BQ26" s="1">
-        <v>-482.955000</v>
+        <v>-482.95499999999998</v>
       </c>
       <c r="BR26" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BS26" s="1">
-        <v>342.234586</v>
+        <v>342.23458599999998</v>
       </c>
       <c r="BT26" s="1">
-        <v>0.095065</v>
+        <v>9.5064999999999997E-2</v>
       </c>
       <c r="BU26" s="1">
-        <v>1313.810000</v>
+        <v>1313.81</v>
       </c>
       <c r="BV26" s="1">
-        <v>-682.929000</v>
+        <v>-682.92899999999997</v>
       </c>
       <c r="BW26" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BX26" s="1">
-        <v>353.178397</v>
+        <v>353.17839700000002</v>
       </c>
       <c r="BY26" s="1">
-        <v>0.098105</v>
+        <v>9.8104999999999998E-2</v>
       </c>
       <c r="BZ26" s="1">
-        <v>1445.610000</v>
+        <v>1445.61</v>
       </c>
       <c r="CA26" s="1">
-        <v>-896.114000</v>
+        <v>-896.11400000000003</v>
       </c>
       <c r="CB26" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="CC26" s="1">
-        <v>367.017193</v>
+        <v>367.01719300000002</v>
       </c>
       <c r="CD26" s="1">
         <v>0.101949</v>
       </c>
       <c r="CE26" s="1">
-        <v>1795.550000</v>
+        <v>1795.55</v>
       </c>
       <c r="CF26" s="1">
-        <v>-1404.750000</v>
+        <v>-1404.75</v>
       </c>
       <c r="CG26" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
     </row>
   </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>